--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3403,6 +3403,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3415,29 +3430,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3730,10 +3730,10 @@
   <dimension ref="A1:U1092"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B292" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B557" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T302" sqref="T302"/>
+      <selection pane="bottomRight" activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3767,60 +3767,60 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="186" t="s">
+      <c r="A2" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="193" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
         <v>649</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="182" t="s">
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="186" t="s">
+      <c r="O2" s="188"/>
+      <c r="P2" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="191" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="192"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="188" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188" t="s">
+      <c r="G3" s="186"/>
+      <c r="H3" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3833,12 +3833,12 @@
       <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="184"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
@@ -16236,7 +16236,7 @@
         <v>152</v>
       </c>
       <c r="E245" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F245" s="22">
         <v>4</v>
@@ -16268,18 +16268,18 @@
       </c>
       <c r="P245" s="20">
         <f t="shared" si="111"/>
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="Q245" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R245" s="24">
         <f t="shared" si="112"/>
-        <v>29376375</v>
+        <v>30551430</v>
       </c>
       <c r="S245" s="24">
         <f t="shared" si="100"/>
-        <v>26465202.702702701</v>
+        <v>27523810.810810808</v>
       </c>
     </row>
     <row r="246" spans="1:19" s="19" customFormat="1">
@@ -18777,7 +18777,7 @@
         <v>40</v>
       </c>
       <c r="E300" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F300" s="22">
         <v>1</v>
@@ -18809,18 +18809,18 @@
       </c>
       <c r="P300" s="20">
         <f>(C300+(E300*F300*H300))-N300</f>
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="Q300" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R300" s="24">
         <f>P300*(J300-(J300*L300)-((J300-(J300*L300))*M300))</f>
-        <v>16972462.5</v>
+        <v>19426312.5</v>
       </c>
       <c r="S300" s="24">
         <f t="shared" si="100"/>
-        <v>15290506.756756755</v>
+        <v>17501182.432432432</v>
       </c>
     </row>
     <row r="301" spans="1:19" s="19" customFormat="1">
@@ -21313,7 +21313,7 @@
         <v>19</v>
       </c>
       <c r="E359" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F359" s="22">
         <v>12</v>
@@ -21345,18 +21345,18 @@
       </c>
       <c r="P359" s="20">
         <f t="shared" si="152"/>
-        <v>5208</v>
+        <v>5352</v>
       </c>
       <c r="Q359" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R359" s="24">
         <f t="shared" si="153"/>
-        <v>18831802.5</v>
+        <v>19352497.5</v>
       </c>
       <c r="S359" s="24">
         <f t="shared" si="144"/>
-        <v>16965587.837837838</v>
+        <v>17434682.432432432</v>
       </c>
     </row>
     <row r="360" spans="1:19" s="19" customFormat="1">
@@ -21371,7 +21371,7 @@
         <v>19</v>
       </c>
       <c r="E360" s="26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F360" s="22">
         <v>12</v>
@@ -21403,18 +21403,18 @@
       </c>
       <c r="P360" s="20">
         <f t="shared" si="152"/>
-        <v>3888</v>
+        <v>4032</v>
       </c>
       <c r="Q360" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R360" s="24">
         <f t="shared" si="153"/>
-        <v>21007350</v>
+        <v>21785400</v>
       </c>
       <c r="S360" s="24">
         <f t="shared" si="144"/>
-        <v>18925540.540540539</v>
+        <v>19626486.486486483</v>
       </c>
     </row>
     <row r="361" spans="1:19" s="19" customFormat="1">
@@ -22339,7 +22339,7 @@
         <v>40</v>
       </c>
       <c r="E380" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F380" s="22">
         <v>1</v>
@@ -22371,18 +22371,18 @@
       </c>
       <c r="P380" s="20">
         <f t="shared" ref="P380" si="165">(C380+(E380*F380*H380))-N380</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="Q380" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R380" s="24">
         <f t="shared" ref="R380" si="166">P380*(J380-(J380*L380)-((J380-(J380*L380))*M380))</f>
-        <v>5350590</v>
+        <v>8917650</v>
       </c>
       <c r="S380" s="24">
         <f t="shared" ref="S380" si="167">R380/1.11</f>
-        <v>4820351.3513513505</v>
+        <v>8033918.9189189179</v>
       </c>
     </row>
     <row r="381" spans="1:19" s="19" customFormat="1">
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="E443" s="26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F443" s="22">
         <v>100</v>
@@ -25402,18 +25402,18 @@
       </c>
       <c r="P443" s="20">
         <f t="shared" ref="P443:P452" si="185">(C443+(E443*F443*H443))-N443</f>
-        <v>26270</v>
+        <v>28270</v>
       </c>
       <c r="Q443" s="23" t="s">
         <v>278</v>
       </c>
       <c r="R443" s="24">
         <f t="shared" ref="R443:R452" si="186">P443*(J443-(J443*L443)-((J443-(J443*L443))*M443))</f>
-        <v>44765721.875</v>
+        <v>48173846.875</v>
       </c>
       <c r="S443" s="24">
         <f t="shared" si="182"/>
-        <v>40329479.166666664</v>
+        <v>43399862.049549542</v>
       </c>
     </row>
     <row r="444" spans="1:19" s="19" customFormat="1">
@@ -25548,7 +25548,7 @@
         <v>278</v>
       </c>
       <c r="E446" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F446" s="22">
         <v>50</v>
@@ -25580,18 +25580,18 @@
       </c>
       <c r="P446" s="20">
         <f t="shared" si="185"/>
-        <v>3350</v>
+        <v>3850</v>
       </c>
       <c r="Q446" s="23" t="s">
         <v>278</v>
       </c>
       <c r="R446" s="24">
         <f t="shared" si="186"/>
-        <v>8493296.875</v>
+        <v>9760953.125</v>
       </c>
       <c r="S446" s="24">
         <f t="shared" si="182"/>
-        <v>7651618.8063063053</v>
+        <v>8793651.4639639631</v>
       </c>
     </row>
     <row r="447" spans="1:19" s="19" customFormat="1">
@@ -31165,7 +31165,7 @@
         <v>40</v>
       </c>
       <c r="E569" s="35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F569" s="36">
         <v>1</v>
@@ -31197,18 +31197,18 @@
       </c>
       <c r="P569" s="33">
         <f>(C569+(E569*F569*H569))-N569</f>
-        <v>1152</v>
+        <v>1440</v>
       </c>
       <c r="Q569" s="37" t="s">
         <v>40</v>
       </c>
       <c r="R569" s="38">
         <f>P569*(J569-(J569*L569)-((J569-(J569*L569))*M569))</f>
-        <v>12065760</v>
+        <v>15082200</v>
       </c>
       <c r="S569" s="38">
         <f>R569/1.11</f>
-        <v>10870054.054054054</v>
+        <v>13587567.567567566</v>
       </c>
     </row>
     <row r="570" spans="1:19" s="19" customFormat="1">
@@ -41378,7 +41378,7 @@
         <v>152</v>
       </c>
       <c r="E794" s="26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F794" s="22">
         <v>12</v>
@@ -41410,18 +41410,18 @@
       </c>
       <c r="P794" s="20">
         <f t="shared" ref="P794:P807" si="287">(C794+(E794*F794*H794))-N794</f>
-        <v>3540</v>
+        <v>3828</v>
       </c>
       <c r="Q794" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R794" s="24">
         <f t="shared" ref="R794:R807" si="288">P794*(J794-(J794*L794)-((J794-(J794*L794))*M794))</f>
-        <v>19715587.5</v>
+        <v>21319567.5</v>
       </c>
       <c r="S794" s="24">
         <f t="shared" si="274"/>
-        <v>17761790.540540539</v>
+        <v>19206817.567567565</v>
       </c>
     </row>
     <row r="795" spans="1:19" s="19" customFormat="1">
@@ -41558,7 +41558,7 @@
         <v>152</v>
       </c>
       <c r="E797" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F797" s="22">
         <v>12</v>
@@ -41590,18 +41590,18 @@
       </c>
       <c r="P797" s="20">
         <f t="shared" si="287"/>
-        <v>1542</v>
+        <v>1614</v>
       </c>
       <c r="Q797" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R797" s="24">
         <f t="shared" si="288"/>
-        <v>27173895</v>
+        <v>28442715</v>
       </c>
       <c r="S797" s="8">
         <f t="shared" si="274"/>
-        <v>24480986.486486483</v>
+        <v>25624067.567567565</v>
       </c>
     </row>
     <row r="798" spans="1:19" s="89" customFormat="1">
@@ -49464,7 +49464,7 @@
         <v>99</v>
       </c>
       <c r="E973" s="26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F973" s="22">
         <v>1</v>
@@ -49492,18 +49492,18 @@
       </c>
       <c r="P973" s="20">
         <f>(C973+(E973*F973*H973))-N973</f>
-        <v>1334</v>
+        <v>1584</v>
       </c>
       <c r="Q973" s="23" t="s">
         <v>99</v>
       </c>
       <c r="R973" s="24">
         <f>P973*(J973-(J973*L973)-((J973-(J973*L973))*M973))</f>
-        <v>32016000</v>
+        <v>38016000</v>
       </c>
       <c r="S973" s="24">
         <f t="shared" si="342"/>
-        <v>28843243.24324324</v>
+        <v>34248648.648648642</v>
       </c>
     </row>
     <row r="974" spans="1:19" s="19" customFormat="1">
@@ -50548,7 +50548,7 @@
         <v>33</v>
       </c>
       <c r="E999" s="109">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F999" s="110">
         <v>1</v>
@@ -50580,18 +50580,18 @@
       </c>
       <c r="P999" s="107">
         <f t="shared" si="347"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q999" s="111" t="s">
         <v>33</v>
       </c>
       <c r="R999" s="112">
         <f t="shared" si="348"/>
-        <v>19950000</v>
+        <v>26600000</v>
       </c>
       <c r="S999" s="104">
         <f t="shared" si="342"/>
-        <v>17972972.97297297</v>
+        <v>23963963.963963963</v>
       </c>
     </row>
     <row r="1000" spans="1:19" s="19" customFormat="1">
@@ -50608,7 +50608,7 @@
         <v>33</v>
       </c>
       <c r="E1000" s="26">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F1000" s="22">
         <v>1</v>
@@ -50640,18 +50640,18 @@
       </c>
       <c r="P1000" s="20">
         <f t="shared" si="347"/>
-        <v>3067</v>
+        <v>3417</v>
       </c>
       <c r="Q1000" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1000" s="24">
         <f t="shared" si="348"/>
-        <v>72149258.125</v>
+        <v>80382789.375</v>
       </c>
       <c r="S1000" s="24">
         <f t="shared" si="342"/>
-        <v>64999331.64414414</v>
+        <v>72416927.364864856</v>
       </c>
     </row>
     <row r="1001" spans="1:19" s="19" customFormat="1">
@@ -52766,7 +52766,7 @@
         <v>19</v>
       </c>
       <c r="E1054" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1054" s="22">
         <v>1</v>
@@ -52798,18 +52798,18 @@
       </c>
       <c r="P1054" s="20">
         <f t="shared" si="364"/>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="Q1054" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1054" s="24">
         <f t="shared" si="365"/>
-        <v>3790500</v>
+        <v>4548600</v>
       </c>
       <c r="S1054" s="24">
         <f t="shared" si="342"/>
-        <v>3414864.8648648644</v>
+        <v>4097837.8378378376</v>
       </c>
     </row>
     <row r="1055" spans="1:19" s="19" customFormat="1">
@@ -54105,11 +54105,11 @@
     <row r="1086" spans="1:21" ht="16.5">
       <c r="R1086" s="27">
         <f>SUM(R6:R1084)</f>
-        <v>8763131339.3999996</v>
+        <v>8803832701.8999996</v>
       </c>
       <c r="S1086" s="27">
         <f>SUM(S6:S1084)</f>
-        <v>7894712918.3783712</v>
+        <v>7931380812.5225163</v>
       </c>
     </row>
     <row r="1087" spans="1:21">
@@ -54139,11 +54139,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -54151,6 +54146,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3403,21 +3403,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3430,14 +3415,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3730,10 +3730,10 @@
   <dimension ref="A1:U1092"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B557" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E570" sqref="E570"/>
+      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3767,60 +3767,60 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="184" t="s">
+      <c r="A2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="193" t="s">
         <v>649</v>
       </c>
-      <c r="F2" s="186" t="s">
+      <c r="F2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="192" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="187" t="s">
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="184" t="s">
+      <c r="O2" s="183"/>
+      <c r="P2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="191" t="s">
+      <c r="S2" s="187" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186" t="s">
+      <c r="A3" s="192"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186" t="s">
+      <c r="G3" s="188"/>
+      <c r="H3" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="186"/>
+      <c r="I3" s="188"/>
       <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3833,12 +3833,12 @@
       <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="189"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
@@ -12369,7 +12369,7 @@
         <v>40</v>
       </c>
       <c r="E175" s="26">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="F175" s="22">
         <v>1</v>
@@ -12400,18 +12400,18 @@
       </c>
       <c r="P175" s="20">
         <f t="shared" si="75"/>
-        <v>6827</v>
+        <v>8627</v>
       </c>
       <c r="Q175" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R175" s="24">
         <f t="shared" si="76"/>
-        <v>307686063</v>
+        <v>388810263</v>
       </c>
       <c r="S175" s="24">
         <f t="shared" si="58"/>
-        <v>277194651.35135132</v>
+        <v>350279516.21621621</v>
       </c>
     </row>
     <row r="176" spans="1:19" s="19" customFormat="1">
@@ -14801,7 +14801,7 @@
         <v>40</v>
       </c>
       <c r="E219" s="26">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F219" s="22">
         <v>1</v>
@@ -14832,18 +14832,18 @@
       </c>
       <c r="P219" s="20">
         <f t="shared" si="91"/>
-        <v>1056</v>
+        <v>1200</v>
       </c>
       <c r="Q219" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R219" s="24">
         <f t="shared" si="92"/>
-        <v>52588800</v>
+        <v>59760000</v>
       </c>
       <c r="S219" s="24">
         <f t="shared" si="100"/>
-        <v>47377297.297297291</v>
+        <v>53837837.83783783</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="19" customFormat="1">
@@ -14976,7 +14976,7 @@
         <v>40</v>
       </c>
       <c r="E222" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F222" s="22">
         <v>1</v>
@@ -15007,18 +15007,18 @@
       </c>
       <c r="P222" s="20">
         <f t="shared" si="91"/>
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="Q222" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R222" s="24">
         <f t="shared" si="92"/>
-        <v>7199088</v>
+        <v>9685104</v>
       </c>
       <c r="S222" s="24">
         <f t="shared" si="100"/>
-        <v>6485664.8648648644</v>
+        <v>8725318.9189189188</v>
       </c>
     </row>
     <row r="223" spans="1:20" s="19" customFormat="1">
@@ -15258,7 +15258,7 @@
         <v>40</v>
       </c>
       <c r="E227" s="91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F227" s="92">
         <v>1</v>
@@ -15289,18 +15289,18 @@
       </c>
       <c r="P227" s="87">
         <f t="shared" si="91"/>
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="Q227" s="93" t="s">
         <v>40</v>
       </c>
       <c r="R227" s="94">
         <f t="shared" si="92"/>
-        <v>2689200</v>
+        <v>18824400</v>
       </c>
       <c r="S227" s="94">
         <f>R227/1.11</f>
-        <v>2422702.7027027025</v>
+        <v>16958918.918918919</v>
       </c>
     </row>
     <row r="228" spans="1:19" s="19" customFormat="1">
@@ -16790,7 +16790,7 @@
         <v>152</v>
       </c>
       <c r="E256" s="26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F256" s="22">
         <v>12</v>
@@ -16821,18 +16821,18 @@
       </c>
       <c r="P256" s="20">
         <f t="shared" si="133"/>
-        <v>6912</v>
+        <v>7488</v>
       </c>
       <c r="Q256" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R256" s="24">
         <f t="shared" si="134"/>
-        <v>83185920</v>
+        <v>90118080</v>
       </c>
       <c r="S256" s="24">
         <f t="shared" si="100"/>
-        <v>74942270.270270258</v>
+        <v>81187459.459459454</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="19" customFormat="1">
@@ -17263,7 +17263,7 @@
         <v>152</v>
       </c>
       <c r="E266" s="26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F266" s="22">
         <v>12</v>
@@ -17295,18 +17295,18 @@
       </c>
       <c r="P266" s="20">
         <f>(C266+(E266*F266*H266))-N266</f>
-        <v>2268</v>
+        <v>2988</v>
       </c>
       <c r="Q266" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R266" s="24">
         <f>P266*(J266-(J266*L266)-((J266-(J266*L266))*M266))</f>
-        <v>35066115</v>
+        <v>46198215</v>
       </c>
       <c r="S266" s="24">
         <f t="shared" si="100"/>
-        <v>31591094.59459459</v>
+        <v>41620013.513513513</v>
       </c>
     </row>
     <row r="267" spans="1:19" s="19" customFormat="1">
@@ -17323,7 +17323,7 @@
         <v>152</v>
       </c>
       <c r="E267" s="26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F267" s="22">
         <v>12</v>
@@ -17355,18 +17355,18 @@
       </c>
       <c r="P267" s="20">
         <f>(C267+(E267*F267*H267))-N267</f>
-        <v>2016</v>
+        <v>2736</v>
       </c>
       <c r="Q267" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R267" s="24">
         <f>P267*(J267-(J267*L267)-((J267-(J267*L267))*M267))</f>
-        <v>40051620</v>
+        <v>54355770</v>
       </c>
       <c r="S267" s="24">
         <f t="shared" si="100"/>
-        <v>36082540.540540539</v>
+        <v>48969162.162162155</v>
       </c>
     </row>
     <row r="268" spans="1:19" s="19" customFormat="1">
@@ -18149,7 +18149,7 @@
         <v>40</v>
       </c>
       <c r="E286" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F286" s="22">
         <v>1</v>
@@ -18181,18 +18181,18 @@
       </c>
       <c r="P286" s="20">
         <f t="shared" si="136"/>
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="Q286" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R286" s="24">
         <f t="shared" si="137"/>
-        <v>7606935</v>
+        <v>12059775</v>
       </c>
       <c r="S286" s="24">
         <f t="shared" si="100"/>
-        <v>6853094.5945945941</v>
+        <v>10864662.162162161</v>
       </c>
     </row>
     <row r="287" spans="1:19" s="89" customFormat="1">
@@ -18267,7 +18267,7 @@
         <v>40</v>
       </c>
       <c r="E288" s="26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F288" s="22">
         <v>1</v>
@@ -18299,18 +18299,18 @@
       </c>
       <c r="P288" s="20">
         <f t="shared" si="136"/>
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="Q288" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R288" s="24">
         <f t="shared" si="137"/>
-        <v>33530962.5</v>
+        <v>49690462.5</v>
       </c>
       <c r="S288" s="24">
         <f t="shared" si="100"/>
-        <v>30208074.324324321</v>
+        <v>44766182.432432428</v>
       </c>
     </row>
     <row r="289" spans="1:19" s="19" customFormat="1">
@@ -18777,7 +18777,7 @@
         <v>40</v>
       </c>
       <c r="E300" s="26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F300" s="22">
         <v>1</v>
@@ -18809,18 +18809,18 @@
       </c>
       <c r="P300" s="20">
         <f>(C300+(E300*F300*H300))-N300</f>
-        <v>950</v>
+        <v>1310</v>
       </c>
       <c r="Q300" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R300" s="24">
         <f>P300*(J300-(J300*L300)-((J300-(J300*L300))*M300))</f>
-        <v>19426312.5</v>
+        <v>26787862.5</v>
       </c>
       <c r="S300" s="24">
         <f t="shared" si="100"/>
-        <v>17501182.432432432</v>
+        <v>24133209.459459458</v>
       </c>
     </row>
     <row r="301" spans="1:19" s="19" customFormat="1">
@@ -18955,7 +18955,7 @@
         <v>40</v>
       </c>
       <c r="E303" s="26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F303" s="22">
         <v>1</v>
@@ -18987,18 +18987,18 @@
       </c>
       <c r="P303" s="20">
         <f>(C303+(E303*F303*H303))-N303</f>
-        <v>760</v>
+        <v>960</v>
       </c>
       <c r="Q303" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R303" s="24">
         <f>P303*(J303-(J303*L303)-((J303-(J303*L303))*M303))</f>
-        <v>31082100</v>
+        <v>39261600</v>
       </c>
       <c r="S303" s="24">
         <f t="shared" si="100"/>
-        <v>28001891.891891889</v>
+        <v>35370810.810810804</v>
       </c>
     </row>
     <row r="304" spans="1:19" s="19" customFormat="1">
@@ -19090,7 +19090,7 @@
         <v>40</v>
       </c>
       <c r="E306" s="26">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F306" s="22">
         <v>1</v>
@@ -19121,18 +19121,18 @@
       </c>
       <c r="P306" s="20">
         <f>(C306+(E306*F306*H306))-N306</f>
-        <v>2580</v>
+        <v>3060</v>
       </c>
       <c r="Q306" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R306" s="24">
         <f>P306*(J306-(J306*L306)-((J306-(J306*L306))*M306))</f>
-        <v>138762720</v>
+        <v>164579040</v>
       </c>
       <c r="S306" s="24">
         <f t="shared" si="100"/>
-        <v>125011459.45945945</v>
+        <v>148269405.4054054</v>
       </c>
     </row>
     <row r="307" spans="1:19" s="19" customFormat="1">
@@ -21909,7 +21909,7 @@
         <v>40</v>
       </c>
       <c r="E370" s="26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F370" s="22">
         <v>1</v>
@@ -21939,18 +21939,18 @@
       </c>
       <c r="P370" s="20">
         <f t="shared" si="160"/>
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="Q370" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R370" s="24">
         <f t="shared" si="161"/>
-        <v>23579304</v>
+        <v>26891004</v>
       </c>
       <c r="S370" s="24">
         <f t="shared" ref="S370" si="163">R370/1.11</f>
-        <v>21242616.216216214</v>
+        <v>24226129.729729727</v>
       </c>
     </row>
     <row r="371" spans="1:19" s="19" customFormat="1">
@@ -21967,7 +21967,7 @@
         <v>40</v>
       </c>
       <c r="E371" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F371" s="22">
         <v>1</v>
@@ -21997,18 +21997,18 @@
       </c>
       <c r="P371" s="20">
         <f t="shared" si="160"/>
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q371" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R371" s="24">
         <f t="shared" si="161"/>
-        <v>23467752</v>
+        <v>24453792</v>
       </c>
       <c r="S371" s="24">
         <f t="shared" ref="S371" si="164">R371/1.11</f>
-        <v>21142118.918918919</v>
+        <v>22030443.24324324</v>
       </c>
     </row>
     <row r="372" spans="1:19" s="19" customFormat="1">
@@ -25548,7 +25548,7 @@
         <v>278</v>
       </c>
       <c r="E446" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F446" s="22">
         <v>50</v>
@@ -25580,18 +25580,18 @@
       </c>
       <c r="P446" s="20">
         <f t="shared" si="185"/>
-        <v>3850</v>
+        <v>4850</v>
       </c>
       <c r="Q446" s="23" t="s">
         <v>278</v>
       </c>
       <c r="R446" s="24">
         <f t="shared" si="186"/>
-        <v>9760953.125</v>
+        <v>12296265.625</v>
       </c>
       <c r="S446" s="24">
         <f t="shared" si="182"/>
-        <v>8793651.4639639631</v>
+        <v>11077716.779279279</v>
       </c>
     </row>
     <row r="447" spans="1:19" s="19" customFormat="1">
@@ -27174,7 +27174,7 @@
         <v>40</v>
       </c>
       <c r="E481" s="26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F481" s="22">
         <v>1</v>
@@ -27205,18 +27205,18 @@
       </c>
       <c r="P481" s="20">
         <f>(C481+(E481*F481*H481))-N481</f>
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="Q481" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R481" s="24">
         <f>P481*(J481-(J481*L481)-((J481-(J481*L481))*M481))</f>
-        <v>3116484</v>
+        <v>5208084</v>
       </c>
       <c r="S481" s="24">
         <f t="shared" si="182"/>
-        <v>2807643.2432432431</v>
+        <v>4691967.5675675673</v>
       </c>
     </row>
     <row r="482" spans="1:19" s="89" customFormat="1">
@@ -27411,7 +27411,7 @@
         <v>33</v>
       </c>
       <c r="E487" s="26">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F487" s="22">
         <v>1</v>
@@ -27444,18 +27444,18 @@
       </c>
       <c r="P487" s="20">
         <f t="shared" ref="P487:P494" si="195">(C487+(E487*F487*H487))-N487</f>
-        <v>1691</v>
+        <v>2075</v>
       </c>
       <c r="Q487" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R487" s="24">
         <f t="shared" ref="R487:R494" si="196">P487*(J487-(J487*L487)-((J487-(J487*L487))*M487))</f>
-        <v>35422222.5</v>
+        <v>43466062.5</v>
       </c>
       <c r="S487" s="24">
         <f t="shared" si="182"/>
-        <v>31911912.162162159</v>
+        <v>39158614.864864863</v>
       </c>
     </row>
     <row r="488" spans="1:19" s="19" customFormat="1">
@@ -27763,7 +27763,7 @@
         <v>33</v>
       </c>
       <c r="E493" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F493" s="22">
         <v>1</v>
@@ -27796,18 +27796,18 @@
       </c>
       <c r="P493" s="20">
         <f t="shared" si="195"/>
-        <v>792</v>
+        <v>936</v>
       </c>
       <c r="Q493" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R493" s="24">
         <f t="shared" si="196"/>
-        <v>38710980</v>
+        <v>45749340</v>
       </c>
       <c r="S493" s="24">
         <f>R493/1.11</f>
-        <v>34874756.756756753</v>
+        <v>41215621.621621616</v>
       </c>
     </row>
     <row r="494" spans="1:19" s="89" customFormat="1">
@@ -27901,7 +27901,7 @@
         <v>33</v>
       </c>
       <c r="E496" s="26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F496" s="22">
         <v>1</v>
@@ -27932,18 +27932,18 @@
       </c>
       <c r="P496" s="20">
         <f>(C496+(E496*F496*H496))-N496</f>
-        <v>833</v>
+        <v>905</v>
       </c>
       <c r="Q496" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R496" s="24">
         <f>P496*(J496-(J496*L496)-((J496-(J496*L496))*M496))</f>
-        <v>45631740</v>
+        <v>49575900</v>
       </c>
       <c r="S496" s="24">
         <f t="shared" si="182"/>
-        <v>41109675.675675675</v>
+        <v>44662972.972972967</v>
       </c>
     </row>
     <row r="497" spans="1:19" s="19" customFormat="1">
@@ -31219,8 +31219,8 @@
         <v>18</v>
       </c>
       <c r="C570" s="57">
-        <f>864/12</f>
-        <v>72</v>
+        <f>1008/12</f>
+        <v>84</v>
       </c>
       <c r="D570" s="21" t="s">
         <v>40</v>
@@ -31256,18 +31256,18 @@
       </c>
       <c r="P570" s="20">
         <f>(C570+(E570*F570*H570))-N570</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q570" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R570" s="24">
         <f>P570*(J570-(J570*L570)-((J570-(J570*L570))*M570))</f>
-        <v>812592</v>
+        <v>948024</v>
       </c>
       <c r="S570" s="24">
         <f>R570/1.11</f>
-        <v>732064.86486486485</v>
+        <v>854075.67567567562</v>
       </c>
     </row>
     <row r="571" spans="1:19" s="19" customFormat="1">
@@ -33666,7 +33666,7 @@
         <v>40</v>
       </c>
       <c r="E618" s="35">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F618" s="36">
         <v>1</v>
@@ -33697,18 +33697,18 @@
       </c>
       <c r="P618" s="33">
         <f t="shared" si="220"/>
-        <v>7005</v>
+        <v>7293</v>
       </c>
       <c r="Q618" s="37" t="s">
         <v>40</v>
       </c>
       <c r="R618" s="38">
         <f t="shared" si="221"/>
-        <v>226751850</v>
+        <v>236074410</v>
       </c>
       <c r="S618" s="38">
         <f t="shared" si="216"/>
-        <v>204280945.94594592</v>
+        <v>212679648.64864862</v>
       </c>
     </row>
     <row r="619" spans="1:19" s="106" customFormat="1">
@@ -34071,7 +34071,7 @@
         <v>40</v>
       </c>
       <c r="E625" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F625" s="6">
         <v>1</v>
@@ -34100,18 +34100,18 @@
       </c>
       <c r="P625" s="3">
         <f t="shared" si="220"/>
-        <v>1458</v>
+        <v>1746</v>
       </c>
       <c r="Q625" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R625" s="8">
         <f t="shared" si="221"/>
-        <v>23234688</v>
+        <v>27824256</v>
       </c>
       <c r="S625" s="8">
         <f t="shared" si="216"/>
-        <v>20932151.351351351</v>
+        <v>25066897.297297295</v>
       </c>
     </row>
     <row r="626" spans="1:19" s="80" customFormat="1">
@@ -34296,7 +34296,7 @@
         <v>40</v>
       </c>
       <c r="E629" s="26">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F629" s="22">
         <v>1</v>
@@ -34327,18 +34327,18 @@
       </c>
       <c r="P629" s="20">
         <f t="shared" si="220"/>
-        <v>9345</v>
+        <v>9921</v>
       </c>
       <c r="Q629" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R629" s="24">
         <f t="shared" si="221"/>
-        <v>167537160</v>
+        <v>177863688</v>
       </c>
       <c r="S629" s="24">
         <f t="shared" si="216"/>
-        <v>150934378.37837836</v>
+        <v>160237556.75675675</v>
       </c>
     </row>
     <row r="630" spans="1:19" s="19" customFormat="1">
@@ -37939,7 +37939,7 @@
         <v>84</v>
       </c>
       <c r="E718" s="26">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F718" s="22">
         <v>1</v>
@@ -37971,18 +37971,18 @@
       </c>
       <c r="P718" s="20">
         <f t="shared" ref="P718:P724" si="261">(C718+(E718*F718*H718))-N718</f>
-        <v>1709</v>
+        <v>2009</v>
       </c>
       <c r="Q718" s="23" t="s">
         <v>84</v>
       </c>
       <c r="R718" s="24">
         <f t="shared" ref="R718:R724" si="262">P718*(J718-(J718*L718)-((J718-(J718*L718))*M718))</f>
-        <v>148311292.5</v>
+        <v>174346042.5</v>
       </c>
       <c r="S718" s="24">
         <f t="shared" si="257"/>
-        <v>133613777.02702701</v>
+        <v>157068506.75675675</v>
       </c>
     </row>
     <row r="719" spans="1:19" s="89" customFormat="1">
@@ -41498,7 +41498,7 @@
         <v>152</v>
       </c>
       <c r="E796" s="26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F796" s="22">
         <v>12</v>
@@ -41530,18 +41530,18 @@
       </c>
       <c r="P796" s="20">
         <f t="shared" si="287"/>
-        <v>10572</v>
+        <v>10716</v>
       </c>
       <c r="Q796" s="23" t="s">
         <v>152</v>
       </c>
       <c r="R796" s="24">
         <f t="shared" si="288"/>
-        <v>93152535</v>
+        <v>94421355</v>
       </c>
       <c r="S796" s="24">
         <f t="shared" si="274"/>
-        <v>83921202.702702701</v>
+        <v>85064283.783783779</v>
       </c>
     </row>
     <row r="797" spans="1:19" s="19" customFormat="1">
@@ -42214,7 +42214,7 @@
         <v>40</v>
       </c>
       <c r="E809" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F809" s="22">
         <v>24</v>
@@ -42245,18 +42245,18 @@
       </c>
       <c r="P809" s="20">
         <f t="shared" ref="P809:P810" si="292">(C809+(E809*F809*H809))-N809</f>
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="Q809" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R809" s="24">
         <f t="shared" ref="R809:R810" si="293">P809*(J809-(J809*L809)-((J809-(J809*L809))*M809))</f>
-        <v>39310128</v>
+        <v>42465456</v>
       </c>
       <c r="S809" s="24">
         <f t="shared" ref="S809:S810" si="294">R809/1.11</f>
-        <v>35414529.729729727</v>
+        <v>38257167.567567565</v>
       </c>
     </row>
     <row r="810" spans="1:19" s="19" customFormat="1">
@@ -44923,7 +44923,7 @@
         <v>40</v>
       </c>
       <c r="E870" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F870" s="22">
         <v>4</v>
@@ -44954,18 +44954,18 @@
       </c>
       <c r="P870" s="20">
         <f t="shared" si="315"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q870" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R870" s="24">
         <f t="shared" si="316"/>
-        <v>6573600</v>
+        <v>7768800</v>
       </c>
       <c r="S870" s="24">
         <f t="shared" si="274"/>
-        <v>5922162.1621621614</v>
+        <v>6998918.9189189179</v>
       </c>
     </row>
     <row r="871" spans="1:19" s="19" customFormat="1">
@@ -48106,7 +48106,7 @@
         <v>40</v>
       </c>
       <c r="E945" s="26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F945" s="22">
         <v>1</v>
@@ -48137,18 +48137,18 @@
       </c>
       <c r="P945" s="20">
         <f t="shared" si="336"/>
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="Q945" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R945" s="24">
         <f t="shared" si="337"/>
-        <v>10248840</v>
+        <v>16105320</v>
       </c>
       <c r="S945" s="24">
         <f t="shared" si="317"/>
-        <v>9233189.1891891882</v>
+        <v>14509297.297297295</v>
       </c>
     </row>
     <row r="946" spans="1:19" s="19" customFormat="1">
@@ -50143,7 +50143,9 @@
       <c r="D992" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E992" s="83"/>
+      <c r="E992" s="83">
+        <v>2</v>
+      </c>
       <c r="F992" s="84">
         <v>1</v>
       </c>
@@ -50174,18 +50176,18 @@
       </c>
       <c r="P992" s="81">
         <f t="shared" ref="P992:P1003" si="347">(C992+(E992*F992*H992))-N992</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q992" s="85" t="s">
         <v>33</v>
       </c>
       <c r="R992" s="16">
         <f t="shared" ref="R992:R1003" si="348">P992*(J992-(J992*L992)-((J992-(J992*L992))*M992))</f>
-        <v>0</v>
+        <v>2684937.5</v>
       </c>
       <c r="S992" s="16">
         <f>R992/1.11</f>
-        <v>0</v>
+        <v>2418862.6126126125</v>
       </c>
     </row>
     <row r="993" spans="1:19" s="80" customFormat="1">
@@ -50370,7 +50372,7 @@
         <v>33</v>
       </c>
       <c r="E996" s="26">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F996" s="22">
         <v>1</v>
@@ -50402,18 +50404,18 @@
       </c>
       <c r="P996" s="20">
         <f t="shared" si="347"/>
-        <v>2493</v>
+        <v>2993</v>
       </c>
       <c r="Q996" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R996" s="24">
         <f t="shared" si="348"/>
-        <v>70665643.125</v>
+        <v>84838455.625</v>
       </c>
       <c r="S996" s="8">
         <f t="shared" si="342"/>
-        <v>63662741.554054052</v>
+        <v>76431041.103603601</v>
       </c>
     </row>
     <row r="997" spans="1:19" s="19" customFormat="1">
@@ -50430,7 +50432,7 @@
         <v>33</v>
       </c>
       <c r="E997" s="26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F997" s="22">
         <v>1</v>
@@ -50462,18 +50464,18 @@
       </c>
       <c r="P997" s="20">
         <f t="shared" si="347"/>
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="Q997" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R997" s="24">
         <f t="shared" si="348"/>
-        <v>24093781.25</v>
+        <v>31180187.5</v>
       </c>
       <c r="S997" s="24">
         <f t="shared" si="342"/>
-        <v>21706109.234234232</v>
+        <v>28090259.009009007</v>
       </c>
     </row>
     <row r="998" spans="1:19" s="19" customFormat="1">
@@ -50490,7 +50492,7 @@
         <v>33</v>
       </c>
       <c r="E998" s="26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F998" s="22">
         <v>1</v>
@@ -50522,18 +50524,18 @@
       </c>
       <c r="P998" s="20">
         <f t="shared" si="347"/>
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="Q998" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R998" s="24">
         <f t="shared" si="348"/>
-        <v>4335800</v>
+        <v>10985800</v>
       </c>
       <c r="S998" s="24">
         <f t="shared" si="342"/>
-        <v>3906126.1261261259</v>
+        <v>9897117.1171171162</v>
       </c>
     </row>
     <row r="999" spans="1:19" s="106" customFormat="1">
@@ -50548,7 +50550,7 @@
         <v>33</v>
       </c>
       <c r="E999" s="109">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F999" s="110">
         <v>1</v>
@@ -50580,18 +50582,18 @@
       </c>
       <c r="P999" s="107">
         <f t="shared" si="347"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q999" s="111" t="s">
         <v>33</v>
       </c>
       <c r="R999" s="112">
         <f t="shared" si="348"/>
-        <v>26600000</v>
+        <v>39900000</v>
       </c>
       <c r="S999" s="104">
         <f t="shared" si="342"/>
-        <v>23963963.963963963</v>
+        <v>35945945.945945941</v>
       </c>
     </row>
     <row r="1000" spans="1:19" s="19" customFormat="1">
@@ -50608,7 +50610,7 @@
         <v>33</v>
       </c>
       <c r="E1000" s="26">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F1000" s="22">
         <v>1</v>
@@ -50640,18 +50642,18 @@
       </c>
       <c r="P1000" s="20">
         <f t="shared" si="347"/>
-        <v>3417</v>
+        <v>3917</v>
       </c>
       <c r="Q1000" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1000" s="24">
         <f t="shared" si="348"/>
-        <v>80382789.375</v>
+        <v>92144976.875</v>
       </c>
       <c r="S1000" s="24">
         <f t="shared" si="342"/>
-        <v>72416927.364864856</v>
+        <v>83013492.680180177</v>
       </c>
     </row>
     <row r="1001" spans="1:19" s="19" customFormat="1">
@@ -50668,7 +50670,7 @@
         <v>33</v>
       </c>
       <c r="E1001" s="26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1001" s="22">
         <v>1</v>
@@ -50700,18 +50702,18 @@
       </c>
       <c r="P1001" s="20">
         <f t="shared" si="347"/>
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="Q1001" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1001" s="24">
         <f t="shared" si="348"/>
-        <v>19995718.75</v>
+        <v>27053031.25</v>
       </c>
       <c r="S1001" s="24">
         <f t="shared" si="342"/>
-        <v>18014161.036036033</v>
+        <v>24372100.225225221</v>
       </c>
     </row>
     <row r="1002" spans="1:19" s="96" customFormat="1">
@@ -50726,7 +50728,7 @@
         <v>33</v>
       </c>
       <c r="E1002" s="101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1002" s="102">
         <v>1</v>
@@ -50758,18 +50760,18 @@
       </c>
       <c r="P1002" s="99">
         <f t="shared" ref="P1002" si="349">(C1002+(E1002*F1002*H1002))-N1002</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q1002" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R1002" s="104">
         <f t="shared" ref="R1002" si="350">P1002*(J1002-(J1002*L1002)-((J1002-(J1002*L1002))*M1002))</f>
-        <v>2377375</v>
+        <v>5943437.5</v>
       </c>
       <c r="S1002" s="104">
         <f t="shared" ref="S1002" si="351">R1002/1.11</f>
-        <v>2141779.2792792791</v>
+        <v>5354448.1981981974</v>
       </c>
     </row>
     <row r="1003" spans="1:19" s="80" customFormat="1">
@@ -52766,7 +52768,7 @@
         <v>19</v>
       </c>
       <c r="E1054" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1054" s="22">
         <v>1</v>
@@ -52798,18 +52800,18 @@
       </c>
       <c r="P1054" s="20">
         <f t="shared" si="364"/>
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q1054" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1054" s="24">
         <f t="shared" si="365"/>
-        <v>4548600</v>
+        <v>4927650</v>
       </c>
       <c r="S1054" s="24">
         <f t="shared" si="342"/>
-        <v>4097837.8378378376</v>
+        <v>4439324.3243243238</v>
       </c>
     </row>
     <row r="1055" spans="1:19" s="19" customFormat="1">
@@ -53340,7 +53342,7 @@
         <v>19</v>
       </c>
       <c r="E1065" s="109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1065" s="110">
         <v>1</v>
@@ -53371,18 +53373,18 @@
       </c>
       <c r="P1065" s="107">
         <f t="shared" ref="P1065:P1073" si="371">(C1065+(E1065*F1065*H1065))-N1065</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q1065" s="111" t="s">
         <v>19</v>
       </c>
       <c r="R1065" s="112">
         <f t="shared" ref="R1065:R1073" si="372">P1065*(J1065-(J1065*L1065)-((J1065-(J1065*L1065))*M1065))</f>
-        <v>308760</v>
+        <v>617520</v>
       </c>
       <c r="S1065" s="112">
         <f t="shared" si="342"/>
-        <v>278162.16216216213</v>
+        <v>556324.32432432426</v>
       </c>
     </row>
     <row r="1066" spans="1:19" s="80" customFormat="1">
@@ -53732,7 +53734,9 @@
       <c r="D1072" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E1072" s="83"/>
+      <c r="E1072" s="83">
+        <v>1</v>
+      </c>
       <c r="F1072" s="84">
         <v>1</v>
       </c>
@@ -53762,18 +53766,18 @@
       </c>
       <c r="P1072" s="81">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q1072" s="85" t="s">
         <v>19</v>
       </c>
       <c r="R1072" s="16">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>288840</v>
       </c>
       <c r="S1072" s="16">
         <f t="shared" si="342"/>
-        <v>0</v>
+        <v>260216.21621621618</v>
       </c>
     </row>
     <row r="1073" spans="1:21" s="80" customFormat="1">
@@ -54105,11 +54109,11 @@
     <row r="1086" spans="1:21" ht="16.5">
       <c r="R1086" s="27">
         <f>SUM(R6:R1084)</f>
-        <v>8803832701.8999996</v>
+        <v>9162179485.1499996</v>
       </c>
       <c r="S1086" s="27">
         <f>SUM(S6:S1084)</f>
-        <v>7931380812.5225163</v>
+        <v>8254215752.3873835</v>
       </c>
     </row>
     <row r="1087" spans="1:21">
@@ -54139,6 +54143,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -54146,11 +54155,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3403,6 +3403,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3415,29 +3430,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3730,10 +3730,10 @@
   <dimension ref="A1:U1092"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B1057" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomRight" activeCell="U1075" sqref="U1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3767,60 +3767,60 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="186" t="s">
+      <c r="A2" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="193" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
         <v>649</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189" t="s">
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="182" t="s">
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="186" t="s">
+      <c r="O2" s="188"/>
+      <c r="P2" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187" t="s">
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="191" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="192"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="188" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188" t="s">
+      <c r="G3" s="186"/>
+      <c r="H3" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3833,12 +3833,12 @@
       <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="184"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
@@ -54143,11 +54143,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -54155,6 +54150,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3335,6 +3335,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3347,29 +3362,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3665,10 +3665,10 @@
   <dimension ref="A1:U1084"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B1023" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="E1063" sqref="E1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3702,60 +3702,60 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="147" t="s">
+      <c r="A2" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="154" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="146" t="s">
         <v>648</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="143" t="s">
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="147" t="s">
+      <c r="O2" s="149"/>
+      <c r="P2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148" t="s">
+      <c r="Q2" s="145"/>
+      <c r="R2" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="148" t="s">
+      <c r="S2" s="152" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="149" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149" t="s">
+      <c r="G3" s="147"/>
+      <c r="H3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="149"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
@@ -3768,12 +3768,12 @@
       <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
     </row>
     <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
@@ -10004,7 +10004,7 @@
         <v>83</v>
       </c>
       <c r="E131" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F131" s="22">
         <v>1</v>
@@ -10035,18 +10035,18 @@
       </c>
       <c r="P131" s="20">
         <f t="shared" ref="P131:P137" si="65">(C131+(E131*F131*H131))-N131</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q131" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R131" s="24">
         <f t="shared" ref="R131:R137" si="66">P131*(J131-(J131*L131)-((J131-(J131*L131))*M131))</f>
-        <v>8366400</v>
+        <v>10756800</v>
       </c>
       <c r="S131" s="24">
         <f t="shared" si="58"/>
-        <v>7537297.297297297</v>
+        <v>9690810.81081081</v>
       </c>
     </row>
     <row r="132" spans="1:19" s="19" customFormat="1">
@@ -10063,7 +10063,7 @@
         <v>83</v>
       </c>
       <c r="E132" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" s="22">
         <v>1</v>
@@ -10094,18 +10094,18 @@
       </c>
       <c r="P132" s="20">
         <f t="shared" si="65"/>
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="Q132" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R132" s="24">
         <f t="shared" si="66"/>
-        <v>15651642</v>
+        <v>16971342</v>
       </c>
       <c r="S132" s="24">
         <f t="shared" si="58"/>
-        <v>14100578.378378376</v>
+        <v>15289497.297297295</v>
       </c>
     </row>
     <row r="133" spans="1:19" s="19" customFormat="1">
@@ -10122,7 +10122,7 @@
         <v>83</v>
       </c>
       <c r="E133" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" s="22">
         <v>1</v>
@@ -10153,18 +10153,18 @@
       </c>
       <c r="P133" s="20">
         <f t="shared" si="65"/>
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="Q133" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R133" s="24">
         <f t="shared" si="66"/>
-        <v>15803532</v>
+        <v>17028612</v>
       </c>
       <c r="S133" s="24">
         <f t="shared" si="58"/>
-        <v>14237416.216216216</v>
+        <v>15341091.891891891</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="19" customFormat="1">
@@ -10240,7 +10240,7 @@
         <v>83</v>
       </c>
       <c r="E135" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F135" s="22">
         <v>1</v>
@@ -10271,18 +10271,18 @@
       </c>
       <c r="P135" s="20">
         <f t="shared" si="65"/>
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q135" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R135" s="24">
         <f t="shared" si="66"/>
-        <v>21115200</v>
+        <v>23107200</v>
       </c>
       <c r="S135" s="24">
         <f t="shared" si="58"/>
-        <v>19022702.702702701</v>
+        <v>20817297.297297295</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="19" customFormat="1">
@@ -10513,7 +10513,7 @@
         <v>33</v>
       </c>
       <c r="E141" s="26">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F141" s="22">
         <v>50</v>
@@ -10545,18 +10545,18 @@
       </c>
       <c r="P141" s="20">
         <f>(C141+(E141*F141*H141))-N141</f>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q141" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R141" s="24">
         <f>P141*(J141-(J141*L141)-((J141-(J141*L141))*M141))</f>
-        <v>10130859.375</v>
+        <v>14183203.125</v>
       </c>
       <c r="S141" s="24">
         <f t="shared" si="58"/>
-        <v>9126900.3378378376</v>
+        <v>12777660.472972972</v>
       </c>
     </row>
     <row r="142" spans="1:19" s="98" customFormat="1">
@@ -10571,7 +10571,7 @@
         <v>33</v>
       </c>
       <c r="E142" s="101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F142" s="102">
         <v>20</v>
@@ -10603,18 +10603,18 @@
       </c>
       <c r="P142" s="99">
         <f>(C142+(E142*F142*H142))-N142</f>
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="Q142" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R142" s="104">
         <f>P142*(J142-(J142*L142)-((J142-(J142*L142))*M142))</f>
-        <v>5120500</v>
+        <v>7315000</v>
       </c>
       <c r="S142" s="104">
         <f t="shared" si="58"/>
-        <v>4613063.0630630627</v>
+        <v>6590090.0900900895</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="19" customFormat="1">
@@ -11069,7 +11069,7 @@
         <v>40</v>
       </c>
       <c r="E153" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F153" s="22">
         <v>1</v>
@@ -11101,18 +11101,18 @@
       </c>
       <c r="P153" s="20">
         <f t="shared" ref="P153:P168" si="70">(C153+(E153*F153*H153))-N153</f>
-        <v>529</v>
+        <v>625</v>
       </c>
       <c r="Q153" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R153" s="24">
         <f t="shared" ref="R153:R168" si="71">P153*(J153-(J153*L153)-((J153-(J153*L153))*M153))</f>
-        <v>15830325</v>
+        <v>18703125</v>
       </c>
       <c r="S153" s="24">
         <f t="shared" si="58"/>
-        <v>14261554.054054054</v>
+        <v>16849662.162162162</v>
       </c>
     </row>
     <row r="154" spans="1:19" s="19" customFormat="1">
@@ -11247,7 +11247,7 @@
         <v>40</v>
       </c>
       <c r="E156" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F156" s="22">
         <v>1</v>
@@ -11279,18 +11279,18 @@
       </c>
       <c r="P156" s="20">
         <f t="shared" si="70"/>
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="Q156" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R156" s="24">
         <f t="shared" si="71"/>
-        <v>4309200</v>
+        <v>7182000</v>
       </c>
       <c r="S156" s="24">
         <f t="shared" si="58"/>
-        <v>3882162.1621621619</v>
+        <v>6470270.2702702694</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="81" customFormat="1">
@@ -11595,7 +11595,7 @@
         <v>40</v>
       </c>
       <c r="E162" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F162" s="22">
         <v>1</v>
@@ -11627,18 +11627,18 @@
       </c>
       <c r="P162" s="20">
         <f t="shared" si="70"/>
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="Q162" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R162" s="24">
         <f t="shared" si="71"/>
-        <v>3716685</v>
+        <v>6194475</v>
       </c>
       <c r="S162" s="24">
         <f t="shared" si="58"/>
-        <v>3348364.8648648644</v>
+        <v>5580608.1081081079</v>
       </c>
     </row>
     <row r="163" spans="1:19" s="19" customFormat="1">
@@ -11655,7 +11655,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F163" s="22">
         <v>24</v>
@@ -11688,18 +11688,18 @@
       </c>
       <c r="P163" s="20">
         <f t="shared" si="70"/>
-        <v>1008</v>
+        <v>1104</v>
       </c>
       <c r="Q163" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R163" s="24">
         <f t="shared" si="71"/>
-        <v>29661660</v>
+        <v>32486580</v>
       </c>
       <c r="S163" s="24">
         <f t="shared" si="58"/>
-        <v>26722216.216216214</v>
+        <v>29267189.189189188</v>
       </c>
     </row>
     <row r="164" spans="1:19" s="19" customFormat="1">
@@ -11716,7 +11716,7 @@
         <v>40</v>
       </c>
       <c r="E164" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F164" s="22">
         <v>24</v>
@@ -11749,18 +11749,18 @@
       </c>
       <c r="P164" s="20">
         <f t="shared" si="70"/>
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="Q164" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R164" s="24">
         <f t="shared" si="71"/>
-        <v>21186900</v>
+        <v>24011820</v>
       </c>
       <c r="S164" s="24">
         <f t="shared" si="58"/>
-        <v>19087297.297297295</v>
+        <v>21632270.270270269</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="19" customFormat="1">
@@ -12374,7 +12374,7 @@
         <v>40</v>
       </c>
       <c r="E176" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F176" s="22">
         <v>1</v>
@@ -12405,18 +12405,18 @@
       </c>
       <c r="P176" s="20">
         <f t="shared" si="75"/>
-        <v>893</v>
+        <v>965</v>
       </c>
       <c r="Q176" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R176" s="24">
         <f t="shared" si="76"/>
-        <v>42247830</v>
+        <v>45654150</v>
       </c>
       <c r="S176" s="24">
         <f t="shared" si="58"/>
-        <v>38061108.108108103</v>
+        <v>41129864.864864863</v>
       </c>
     </row>
     <row r="177" spans="1:19" s="19" customFormat="1">
@@ -14860,7 +14860,7 @@
         <v>40</v>
       </c>
       <c r="E221" s="26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F221" s="22">
         <v>1</v>
@@ -14890,18 +14890,18 @@
       </c>
       <c r="P221" s="20">
         <f t="shared" si="91"/>
-        <v>720</v>
+        <v>864</v>
       </c>
       <c r="Q221" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R221" s="24">
         <f t="shared" ref="R221" si="101">P221*(J221-(J221*L221)-((J221-(J221*L221))*M221))</f>
-        <v>35856000</v>
+        <v>43027200</v>
       </c>
       <c r="S221" s="24">
         <f t="shared" ref="S221" si="102">R221/1.11</f>
-        <v>32302702.702702701</v>
+        <v>38763243.24324324</v>
       </c>
     </row>
     <row r="222" spans="1:19" s="19" customFormat="1">
@@ -15538,7 +15538,7 @@
         <v>151</v>
       </c>
       <c r="E234" s="26">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F234" s="22">
         <v>1</v>
@@ -15570,18 +15570,18 @@
       </c>
       <c r="P234" s="20">
         <f t="shared" si="111"/>
-        <v>8605</v>
+        <v>9901</v>
       </c>
       <c r="Q234" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R234" s="24">
         <f t="shared" si="112"/>
-        <v>85119584.375</v>
+        <v>97939454.375</v>
       </c>
       <c r="S234" s="24">
         <f t="shared" si="100"/>
-        <v>76684310.247747734</v>
+        <v>88233742.680180177</v>
       </c>
     </row>
     <row r="235" spans="1:19" s="19" customFormat="1">
@@ -15656,7 +15656,7 @@
         <v>151</v>
       </c>
       <c r="E236" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F236" s="22">
         <v>6</v>
@@ -15688,18 +15688,18 @@
       </c>
       <c r="P236" s="20">
         <f t="shared" si="111"/>
-        <v>2460</v>
+        <v>3180</v>
       </c>
       <c r="Q236" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R236" s="24">
         <f t="shared" si="112"/>
-        <v>47032125</v>
+        <v>60797625</v>
       </c>
       <c r="S236" s="24">
         <f t="shared" si="100"/>
-        <v>42371283.783783779</v>
+        <v>54772635.135135129</v>
       </c>
     </row>
     <row r="237" spans="1:19" s="19" customFormat="1">
@@ -15772,7 +15772,7 @@
         <v>151</v>
       </c>
       <c r="E238" s="26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F238" s="22">
         <v>8</v>
@@ -15804,18 +15804,18 @@
       </c>
       <c r="P238" s="20">
         <f t="shared" si="111"/>
-        <v>912</v>
+        <v>1344</v>
       </c>
       <c r="Q238" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R238" s="24">
         <f t="shared" si="112"/>
-        <v>22439760</v>
+        <v>33069120</v>
       </c>
       <c r="S238" s="24">
         <f t="shared" si="100"/>
-        <v>20216000</v>
+        <v>29791999.999999996</v>
       </c>
     </row>
     <row r="239" spans="1:19" s="19" customFormat="1">
@@ -15890,7 +15890,7 @@
         <v>151</v>
       </c>
       <c r="E240" s="26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F240" s="22">
         <v>6</v>
@@ -15922,18 +15922,18 @@
       </c>
       <c r="P240" s="20">
         <f t="shared" si="111"/>
-        <v>998</v>
+        <v>1322</v>
       </c>
       <c r="Q240" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R240" s="24">
         <f t="shared" si="112"/>
-        <v>34427881.25</v>
+        <v>45604868.75</v>
       </c>
       <c r="S240" s="24">
         <f>R240/1.11</f>
-        <v>31016109.234234232</v>
+        <v>41085467.342342339</v>
       </c>
     </row>
     <row r="241" spans="1:19" s="19" customFormat="1">
@@ -15950,7 +15950,7 @@
         <v>151</v>
       </c>
       <c r="E241" s="26">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F241" s="22">
         <v>4</v>
@@ -15982,18 +15982,18 @@
       </c>
       <c r="P241" s="20">
         <f t="shared" si="111"/>
-        <v>624</v>
+        <v>792</v>
       </c>
       <c r="Q241" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R241" s="24">
         <f t="shared" si="112"/>
-        <v>30551430</v>
+        <v>38776815</v>
       </c>
       <c r="S241" s="24">
         <f t="shared" si="100"/>
-        <v>27523810.810810808</v>
+        <v>34934067.567567565</v>
       </c>
     </row>
     <row r="242" spans="1:19" s="19" customFormat="1">
@@ -16010,7 +16010,7 @@
         <v>151</v>
       </c>
       <c r="E242" s="26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F242" s="22">
         <v>4</v>
@@ -16042,18 +16042,18 @@
       </c>
       <c r="P242" s="20">
         <f t="shared" si="111"/>
-        <v>806</v>
+        <v>1022</v>
       </c>
       <c r="Q242" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R242" s="24">
         <f t="shared" si="112"/>
-        <v>44822163.75</v>
+        <v>56834058.75</v>
       </c>
       <c r="S242" s="24">
         <f t="shared" si="100"/>
-        <v>40380327.702702701</v>
+        <v>51201854.729729727</v>
       </c>
     </row>
     <row r="243" spans="1:19" s="19" customFormat="1">
@@ -16504,7 +16504,7 @@
         <v>151</v>
       </c>
       <c r="E252" s="26">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F252" s="22">
         <v>12</v>
@@ -16535,18 +16535,18 @@
       </c>
       <c r="P252" s="20">
         <f t="shared" si="133"/>
-        <v>7920</v>
+        <v>8208</v>
       </c>
       <c r="Q252" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R252" s="24">
         <f t="shared" si="134"/>
-        <v>95317200</v>
+        <v>98783280</v>
       </c>
       <c r="S252" s="24">
         <f t="shared" si="100"/>
-        <v>85871351.351351351</v>
+        <v>88993945.945945933</v>
       </c>
     </row>
     <row r="253" spans="1:19" s="19" customFormat="1">
@@ -16563,7 +16563,7 @@
         <v>151</v>
       </c>
       <c r="E253" s="26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F253" s="22">
         <v>6</v>
@@ -16594,18 +16594,18 @@
       </c>
       <c r="P253" s="20">
         <f t="shared" si="133"/>
-        <v>1728</v>
+        <v>1872</v>
       </c>
       <c r="Q253" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R253" s="24">
         <f t="shared" si="134"/>
-        <v>38724480</v>
+        <v>41951520</v>
       </c>
       <c r="S253" s="24">
         <f t="shared" si="100"/>
-        <v>34886918.918918915</v>
+        <v>37794162.162162162</v>
       </c>
     </row>
     <row r="254" spans="1:19" s="19" customFormat="1">
@@ -16622,7 +16622,7 @@
         <v>151</v>
       </c>
       <c r="E254" s="26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F254" s="22">
         <v>8</v>
@@ -16653,18 +16653,18 @@
       </c>
       <c r="P254" s="20">
         <f t="shared" si="133"/>
-        <v>1104</v>
+        <v>1200</v>
       </c>
       <c r="Q254" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R254" s="24">
         <f t="shared" si="134"/>
-        <v>31154880</v>
+        <v>33864000</v>
       </c>
       <c r="S254" s="24">
         <f t="shared" si="100"/>
-        <v>28067459.459459458</v>
+        <v>30508108.108108107</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="19" customFormat="1">
@@ -16681,7 +16681,7 @@
         <v>151</v>
       </c>
       <c r="E255" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F255" s="22">
         <v>6</v>
@@ -16712,18 +16712,18 @@
       </c>
       <c r="P255" s="20">
         <f t="shared" si="133"/>
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="Q255" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R255" s="24">
         <f t="shared" si="134"/>
-        <v>18450900</v>
+        <v>21289500</v>
       </c>
       <c r="S255" s="24">
         <f t="shared" si="100"/>
-        <v>16622432.432432432</v>
+        <v>19179729.729729727</v>
       </c>
     </row>
     <row r="256" spans="1:19" s="19" customFormat="1">
@@ -16740,7 +16740,7 @@
         <v>151</v>
       </c>
       <c r="E256" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F256" s="22">
         <v>4</v>
@@ -16771,18 +16771,18 @@
       </c>
       <c r="P256" s="20">
         <f t="shared" si="133"/>
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="Q256" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R256" s="24">
         <f t="shared" si="134"/>
-        <v>7216020</v>
+        <v>8590500</v>
       </c>
       <c r="S256" s="24">
         <f t="shared" si="100"/>
-        <v>6500918.9189189179</v>
+        <v>7739189.1891891882</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="19" customFormat="1">
@@ -16799,7 +16799,7 @@
         <v>151</v>
       </c>
       <c r="E257" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F257" s="22">
         <v>4</v>
@@ -16830,18 +16830,18 @@
       </c>
       <c r="P257" s="20">
         <f t="shared" si="133"/>
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q257" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R257" s="24">
         <f t="shared" si="134"/>
-        <v>10218960</v>
+        <v>11732880</v>
       </c>
       <c r="S257" s="24">
         <f t="shared" si="100"/>
-        <v>9206270.2702702694</v>
+        <v>10570162.162162161</v>
       </c>
     </row>
     <row r="258" spans="1:19" s="19" customFormat="1">
@@ -16977,7 +16977,7 @@
         <v>151</v>
       </c>
       <c r="E262" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F262" s="22">
         <v>12</v>
@@ -17009,18 +17009,18 @@
       </c>
       <c r="P262" s="20">
         <f>(C262+(E262*F262*H262))-N262</f>
-        <v>3564</v>
+        <v>3708</v>
       </c>
       <c r="Q262" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R262" s="24">
         <f>P262*(J262-(J262*L262)-((J262-(J262*L262))*M262))</f>
-        <v>55103895</v>
+        <v>57330315</v>
       </c>
       <c r="S262" s="24">
         <f t="shared" si="100"/>
-        <v>49643148.648648642</v>
+        <v>51648932.432432428</v>
       </c>
     </row>
     <row r="263" spans="1:19" s="19" customFormat="1">
@@ -17037,7 +17037,7 @@
         <v>151</v>
       </c>
       <c r="E263" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F263" s="22">
         <v>12</v>
@@ -17069,18 +17069,18 @@
       </c>
       <c r="P263" s="20">
         <f>(C263+(E263*F263*H263))-N263</f>
-        <v>2736</v>
+        <v>3024</v>
       </c>
       <c r="Q263" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R263" s="24">
         <f>P263*(J263-(J263*L263)-((J263-(J263*L263))*M263))</f>
-        <v>54355770</v>
+        <v>60077430</v>
       </c>
       <c r="S263" s="24">
         <f t="shared" si="100"/>
-        <v>48969162.162162155</v>
+        <v>54123810.810810804</v>
       </c>
     </row>
     <row r="264" spans="1:19" s="19" customFormat="1">
@@ -17097,7 +17097,7 @@
         <v>151</v>
       </c>
       <c r="E264" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F264" s="22">
         <v>12</v>
@@ -17129,18 +17129,18 @@
       </c>
       <c r="P264" s="20">
         <f>(C264+(E264*F264*H264))-N264</f>
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="Q264" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R264" s="24">
         <f>P264*(J264-(J264*L264)-((J264-(J264*L264))*M264))</f>
-        <v>11443320</v>
+        <v>17164980</v>
       </c>
       <c r="S264" s="24">
         <f t="shared" ref="S264" si="135">R264/1.11</f>
-        <v>10309297.297297297</v>
+        <v>15463945.945945945</v>
       </c>
     </row>
     <row r="265" spans="1:19" s="19" customFormat="1">
@@ -17981,7 +17981,7 @@
         <v>40</v>
       </c>
       <c r="E284" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F284" s="22">
         <v>1</v>
@@ -18013,18 +18013,18 @@
       </c>
       <c r="P284" s="20">
         <f t="shared" si="136"/>
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="Q284" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R284" s="24">
         <f t="shared" si="137"/>
-        <v>52922362.5</v>
+        <v>56154262.5</v>
       </c>
       <c r="S284" s="24">
         <f t="shared" si="100"/>
-        <v>47677804.054054052</v>
+        <v>50589425.675675668</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="19" customFormat="1">
@@ -18120,7 +18120,7 @@
         <v>40</v>
       </c>
       <c r="E287" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F287" s="22">
         <v>1</v>
@@ -18151,18 +18151,18 @@
       </c>
       <c r="P287" s="20">
         <f>(C287+(E287*F287*H287))-N287</f>
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="Q287" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R287" s="24">
         <f>P287*(J287-(J287*L287)-((J287-(J287*L287))*M287))</f>
-        <v>25121610</v>
+        <v>27960210</v>
       </c>
       <c r="S287" s="24">
         <f t="shared" si="100"/>
-        <v>22632081.081081077</v>
+        <v>25189378.378378376</v>
       </c>
     </row>
     <row r="288" spans="1:19" s="19" customFormat="1">
@@ -18179,7 +18179,7 @@
         <v>40</v>
       </c>
       <c r="E288" s="26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F288" s="22">
         <v>1</v>
@@ -18210,18 +18210,18 @@
       </c>
       <c r="P288" s="20">
         <f>(C288+(E288*F288*H288))-N288</f>
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="Q288" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R288" s="24">
         <f>P288*(J288-(J288*L288)-((J288-(J288*L288))*M288))</f>
-        <v>98006400</v>
+        <v>102906720</v>
       </c>
       <c r="S288" s="24">
         <f t="shared" si="100"/>
-        <v>88294054.054054052</v>
+        <v>92708756.756756753</v>
       </c>
     </row>
     <row r="289" spans="1:19" s="19" customFormat="1">
@@ -18688,7 +18688,7 @@
         <v>40</v>
       </c>
       <c r="E300" s="26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F300" s="22">
         <v>1</v>
@@ -18719,18 +18719,18 @@
       </c>
       <c r="P300" s="20">
         <f>(C300+(E300*F300*H300))-N300</f>
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q300" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R300" s="24">
         <f>P300*(J300-(J300*L300)-((J300-(J300*L300))*M300))</f>
-        <v>80676000</v>
+        <v>87130080</v>
       </c>
       <c r="S300" s="24">
         <f t="shared" si="100"/>
-        <v>72681081.081081077</v>
+        <v>78495567.567567557</v>
       </c>
     </row>
     <row r="301" spans="1:19" s="19" customFormat="1">
@@ -20968,7 +20968,7 @@
         <v>19</v>
       </c>
       <c r="E354" s="26">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F354" s="22">
         <v>12</v>
@@ -21000,18 +21000,18 @@
       </c>
       <c r="P354" s="20">
         <f t="shared" si="151"/>
-        <v>7368</v>
+        <v>7512</v>
       </c>
       <c r="Q354" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R354" s="24">
         <f t="shared" si="152"/>
-        <v>26642227.5</v>
+        <v>27162922.5</v>
       </c>
       <c r="S354" s="24">
         <f t="shared" si="143"/>
-        <v>24002006.756756756</v>
+        <v>24471101.351351351</v>
       </c>
     </row>
     <row r="355" spans="1:19" s="19" customFormat="1">
@@ -21564,7 +21564,7 @@
         <v>40</v>
       </c>
       <c r="E365" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F365" s="22">
         <v>1</v>
@@ -21594,18 +21594,18 @@
       </c>
       <c r="P365" s="20">
         <f t="shared" si="159"/>
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="Q365" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R365" s="24">
         <f t="shared" si="160"/>
-        <v>31858554</v>
+        <v>33514404</v>
       </c>
       <c r="S365" s="24">
         <f t="shared" ref="S365" si="162">R365/1.11</f>
-        <v>28701399.999999996</v>
+        <v>30193156.756756753</v>
       </c>
     </row>
     <row r="366" spans="1:19" s="19" customFormat="1">
@@ -21994,7 +21994,7 @@
         <v>40</v>
       </c>
       <c r="E375" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F375" s="22">
         <v>1</v>
@@ -22026,18 +22026,18 @@
       </c>
       <c r="P375" s="20">
         <f t="shared" ref="P375" si="164">(C375+(E375*F375*H375))-N375</f>
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="Q375" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R375" s="24">
         <f t="shared" ref="R375" si="165">P375*(J375-(J375*L375)-((J375-(J375*L375))*M375))</f>
-        <v>12484710</v>
+        <v>14268240</v>
       </c>
       <c r="S375" s="24">
         <f t="shared" ref="S375" si="166">R375/1.11</f>
-        <v>11247486.486486485</v>
+        <v>12854270.270270269</v>
       </c>
     </row>
     <row r="376" spans="1:19" s="19" customFormat="1">
@@ -22112,7 +22112,7 @@
         <v>40</v>
       </c>
       <c r="E377" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F377" s="22">
         <v>1</v>
@@ -22144,18 +22144,18 @@
       </c>
       <c r="P377" s="20">
         <f t="shared" ref="P377" si="169">(C377+(E377*F377*H377))-N377</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q377" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R377" s="24">
         <f t="shared" ref="R377" si="170">P377*(J377-(J377*L377)-((J377-(J377*L377))*M377))</f>
-        <v>2370060</v>
+        <v>4740120</v>
       </c>
       <c r="S377" s="24">
         <f t="shared" ref="S377" si="171">R377/1.11</f>
-        <v>2135189.1891891891</v>
+        <v>4270378.3783783782</v>
       </c>
     </row>
     <row r="378" spans="1:19" s="19" customFormat="1">
@@ -22228,7 +22228,7 @@
         <v>40</v>
       </c>
       <c r="E379" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F379" s="22">
         <v>1</v>
@@ -22260,18 +22260,18 @@
       </c>
       <c r="P379" s="20">
         <f t="shared" ref="P379" si="172">(C379+(E379*F379*H379))-N379</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Q379" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R379" s="24">
         <f t="shared" ref="R379" si="173">P379*(J379-(J379*L379)-((J379-(J379*L379))*M379))</f>
-        <v>17835300</v>
+        <v>19618830</v>
       </c>
       <c r="S379" s="24">
         <f t="shared" ref="S379" si="174">R379/1.11</f>
-        <v>16067837.837837836</v>
+        <v>17674621.62162162</v>
       </c>
     </row>
     <row r="380" spans="1:19" s="19" customFormat="1">
@@ -22346,7 +22346,7 @@
         <v>40</v>
       </c>
       <c r="E381" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F381" s="22">
         <v>1</v>
@@ -22378,18 +22378,18 @@
       </c>
       <c r="P381" s="20">
         <f t="shared" ref="P381" si="175">(C381+(E381*F381*H381))-N381</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Q381" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R381" s="24">
         <f t="shared" ref="R381" si="176">P381*(J381-(J381*L381)-((J381-(J381*L381))*M381))</f>
-        <v>3614940</v>
+        <v>5422410</v>
       </c>
       <c r="S381" s="24">
         <f t="shared" ref="S381" si="177">R381/1.11</f>
-        <v>3256702.7027027025</v>
+        <v>4885054.0540540535</v>
       </c>
     </row>
     <row r="382" spans="1:19" s="19" customFormat="1">
@@ -23839,7 +23839,7 @@
         <v>151</v>
       </c>
       <c r="E415" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F415" s="22">
         <v>10</v>
@@ -23871,18 +23871,18 @@
       </c>
       <c r="P415" s="20">
         <f t="shared" ref="P415:P434" si="182">(C415+(E415*F415*H415))-N415</f>
-        <v>2206</v>
+        <v>2686</v>
       </c>
       <c r="Q415" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R415" s="24">
         <f t="shared" ref="R415:R434" si="183">P415*(J415-(J415*L415)-((J415-(J415*L415))*M415))</f>
-        <v>16136890</v>
+        <v>19648090</v>
       </c>
       <c r="S415" s="24">
         <f t="shared" si="181"/>
-        <v>14537738.738738738</v>
+        <v>17700981.981981982</v>
       </c>
     </row>
     <row r="416" spans="1:19" s="81" customFormat="1">
@@ -25785,7 +25785,7 @@
         <v>19</v>
       </c>
       <c r="E453" s="26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F453" s="22">
         <v>1</v>
@@ -25817,18 +25817,18 @@
       </c>
       <c r="P453" s="20">
         <f>(C453+(E453*F453*H453))-N453</f>
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="Q453" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R453" s="24">
         <f>P453*(J453-(J453*L453)-((J453-(J453*L453))*M453))</f>
-        <v>8820393.75</v>
+        <v>10167018.75</v>
       </c>
       <c r="S453" s="24">
         <f t="shared" si="181"/>
-        <v>7946300.6756756753</v>
+        <v>9159476.3513513505</v>
       </c>
     </row>
     <row r="454" spans="1:19" s="98" customFormat="1">
@@ -26574,7 +26574,7 @@
         <v>40</v>
       </c>
       <c r="E471" s="26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F471" s="22">
         <v>24</v>
@@ -26607,18 +26607,18 @@
       </c>
       <c r="P471" s="20">
         <f t="shared" si="190"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q471" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R471" s="24">
         <f t="shared" si="191"/>
-        <v>2573550</v>
+        <v>5147100</v>
       </c>
       <c r="S471" s="24">
         <f t="shared" si="181"/>
-        <v>2318513.5135135134</v>
+        <v>4637027.0270270268</v>
       </c>
     </row>
     <row r="472" spans="1:19" s="19" customFormat="1">
@@ -28211,7 +28211,7 @@
         <v>98</v>
       </c>
       <c r="E507" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F507" s="22">
         <v>1</v>
@@ -28243,18 +28243,18 @@
       </c>
       <c r="P507" s="20">
         <f t="shared" si="197"/>
-        <v>619</v>
+        <v>715</v>
       </c>
       <c r="Q507" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R507" s="24">
         <f t="shared" si="198"/>
-        <v>3601806.25</v>
+        <v>4160406.25</v>
       </c>
       <c r="S507" s="24">
         <f t="shared" si="199"/>
-        <v>3244870.4954954954</v>
+        <v>3748113.7387387385</v>
       </c>
     </row>
     <row r="508" spans="1:19" s="81" customFormat="1">
@@ -28462,7 +28462,7 @@
         <v>98</v>
       </c>
       <c r="E512" s="26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F512" s="22">
         <v>1</v>
@@ -28493,18 +28493,18 @@
       </c>
       <c r="P512" s="20">
         <f>(C512+(E512*F512*H512))-N512</f>
-        <v>768</v>
+        <v>1056</v>
       </c>
       <c r="Q512" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R512" s="24">
         <f>P512*(J512-(J512*L512)-((J512-(J512*L512))*M512))</f>
-        <v>5322624</v>
+        <v>7318608</v>
       </c>
       <c r="S512" s="24">
         <f t="shared" si="199"/>
-        <v>4795156.7567567565</v>
+        <v>6593340.5405405397</v>
       </c>
     </row>
     <row r="513" spans="1:20" s="19" customFormat="1">
@@ -28855,7 +28855,7 @@
         <v>19</v>
       </c>
       <c r="E522" s="26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F522" s="22">
         <v>1</v>
@@ -28887,18 +28887,18 @@
       </c>
       <c r="P522" s="20">
         <f>(C522+(E522*F522*H522))-N522</f>
-        <v>2178</v>
+        <v>2322</v>
       </c>
       <c r="Q522" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R522" s="24">
         <f>P522*(J522-(J522*L522)-((J522-(J522*L522))*M522))</f>
-        <v>28605307.5</v>
+        <v>30496567.5</v>
       </c>
       <c r="S522" s="24">
         <f t="shared" si="199"/>
-        <v>25770547.297297295</v>
+        <v>27474385.135135133</v>
       </c>
       <c r="T522" s="24"/>
     </row>
@@ -28973,7 +28973,7 @@
         <v>19</v>
       </c>
       <c r="E524" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F524" s="84">
         <v>1</v>
@@ -29005,18 +29005,18 @@
       </c>
       <c r="P524" s="79">
         <f>(C524+(E524*F524*H524))-N524</f>
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="Q524" s="85" t="s">
         <v>19</v>
       </c>
       <c r="R524" s="86">
         <f>P524*(J524-(J524*L524)-((J524-(J524*L524))*M524))</f>
-        <v>2477790</v>
+        <v>3716685</v>
       </c>
       <c r="S524" s="86">
         <f t="shared" si="199"/>
-        <v>2232243.2432432431</v>
+        <v>3348364.8648648644</v>
       </c>
     </row>
     <row r="525" spans="1:20" s="19" customFormat="1">
@@ -30818,8 +30818,8 @@
         <v>18</v>
       </c>
       <c r="C564" s="51">
-        <f>1008/12</f>
-        <v>84</v>
+        <f>1296/12</f>
+        <v>108</v>
       </c>
       <c r="D564" s="21" t="s">
         <v>40</v>
@@ -30855,18 +30855,18 @@
       </c>
       <c r="P564" s="20">
         <f>(C564+(E564*F564*H564))-N564</f>
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="Q564" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R564" s="24">
         <f>P564*(J564-(J564*L564)-((J564-(J564*L564))*M564))</f>
-        <v>948024</v>
+        <v>1218888</v>
       </c>
       <c r="S564" s="24">
         <f>R564/1.11</f>
-        <v>854075.67567567562</v>
+        <v>1098097.2972972973</v>
       </c>
     </row>
     <row r="565" spans="1:19" s="19" customFormat="1">
@@ -32193,7 +32193,7 @@
         <v>40</v>
       </c>
       <c r="E592" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F592" s="22">
         <v>1</v>
@@ -32225,18 +32225,18 @@
       </c>
       <c r="P592" s="20">
         <f t="shared" ref="P592:P593" si="216">(C592+(E592*F592*H592))-N592</f>
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="Q592" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R592" s="24">
         <f t="shared" ref="R592:R593" si="217">P592*(J592-(J592*L592)-((J592-(J592*L592))*M592))</f>
-        <v>6751080</v>
+        <v>10126620</v>
       </c>
       <c r="S592" s="24">
         <f t="shared" ref="S592:S593" si="218">R592/1.11</f>
-        <v>6082054.0540540535</v>
+        <v>9123081.0810810812</v>
       </c>
     </row>
     <row r="593" spans="1:19" s="19" customFormat="1">
@@ -32367,7 +32367,7 @@
         <v>40</v>
       </c>
       <c r="E595" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F595" s="22">
         <v>1</v>
@@ -32399,18 +32399,18 @@
       </c>
       <c r="P595" s="20">
         <f t="shared" si="213"/>
-        <v>809</v>
+        <v>953</v>
       </c>
       <c r="Q595" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R595" s="24">
         <f t="shared" si="214"/>
-        <v>18560482.5</v>
+        <v>21864202.5</v>
       </c>
       <c r="S595" s="24">
         <f t="shared" si="215"/>
-        <v>16721155.405405404</v>
+        <v>19697479.729729727</v>
       </c>
     </row>
     <row r="596" spans="1:19" s="72" customFormat="1">
@@ -32480,7 +32480,7 @@
         <v>40</v>
       </c>
       <c r="E597" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F597" s="6">
         <v>1</v>
@@ -32511,18 +32511,18 @@
       </c>
       <c r="P597" s="3">
         <f t="shared" si="213"/>
-        <v>1008</v>
+        <v>1152</v>
       </c>
       <c r="Q597" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R597" s="8">
         <f t="shared" si="214"/>
-        <v>11814390</v>
+        <v>13502160</v>
       </c>
       <c r="S597" s="8">
         <f t="shared" si="215"/>
-        <v>10643594.594594594</v>
+        <v>12164108.108108107</v>
       </c>
     </row>
     <row r="598" spans="1:19" s="72" customFormat="1">
@@ -33265,7 +33265,7 @@
         <v>40</v>
       </c>
       <c r="E612" s="26">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F612" s="22">
         <v>1</v>
@@ -33296,18 +33296,18 @@
       </c>
       <c r="P612" s="20">
         <f t="shared" si="219"/>
-        <v>8013</v>
+        <v>8589</v>
       </c>
       <c r="Q612" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R612" s="24">
         <f t="shared" si="220"/>
-        <v>259380810</v>
+        <v>278025930</v>
       </c>
       <c r="S612" s="24">
         <f t="shared" si="215"/>
-        <v>233676405.40540537</v>
+        <v>250473810.81081077</v>
       </c>
     </row>
     <row r="613" spans="1:19" s="98" customFormat="1">
@@ -33895,7 +33895,7 @@
         <v>40</v>
       </c>
       <c r="E623" s="26">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F623" s="22">
         <v>1</v>
@@ -33926,18 +33926,18 @@
       </c>
       <c r="P623" s="20">
         <f t="shared" si="219"/>
-        <v>9921</v>
+        <v>10209</v>
       </c>
       <c r="Q623" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R623" s="24">
         <f t="shared" si="220"/>
-        <v>177863688</v>
+        <v>183026952</v>
       </c>
       <c r="S623" s="24">
         <f t="shared" si="215"/>
-        <v>160237556.75675675</v>
+        <v>164889145.94594592</v>
       </c>
     </row>
     <row r="624" spans="1:19" s="19" customFormat="1">
@@ -35858,7 +35858,7 @@
         <v>151</v>
       </c>
       <c r="E664" s="93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F664" s="94">
         <v>8</v>
@@ -35890,18 +35890,18 @@
       </c>
       <c r="P664" s="91">
         <f t="shared" si="254"/>
-        <v>768</v>
+        <v>960</v>
       </c>
       <c r="Q664" s="95" t="s">
         <v>151</v>
       </c>
       <c r="R664" s="96">
         <f t="shared" si="255"/>
-        <v>10725120</v>
+        <v>13406400</v>
       </c>
       <c r="S664" s="96">
         <f t="shared" si="256"/>
-        <v>9662270.2702702694</v>
+        <v>12077837.837837838</v>
       </c>
     </row>
     <row r="665" spans="1:19" s="72" customFormat="1">
@@ -37538,7 +37538,7 @@
         <v>83</v>
       </c>
       <c r="E712" s="26">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F712" s="22">
         <v>1</v>
@@ -37570,18 +37570,18 @@
       </c>
       <c r="P712" s="20">
         <f t="shared" ref="P712:P718" si="260">(C712+(E712*F712*H712))-N712</f>
-        <v>2369</v>
+        <v>2429</v>
       </c>
       <c r="Q712" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R712" s="24">
         <f t="shared" ref="R712:R718" si="261">P712*(J712-(J712*L712)-((J712-(J712*L712))*M712))</f>
-        <v>205587742.5</v>
+        <v>210794692.5</v>
       </c>
       <c r="S712" s="24">
         <f t="shared" si="256"/>
-        <v>185214182.43243241</v>
+        <v>189905128.37837836</v>
       </c>
     </row>
     <row r="713" spans="1:19" s="81" customFormat="1">
@@ -37707,7 +37707,7 @@
         <v>83</v>
       </c>
       <c r="E715" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F715" s="6">
         <v>1</v>
@@ -37738,18 +37738,18 @@
       </c>
       <c r="P715" s="3">
         <f t="shared" si="260"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q715" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R715" s="8">
         <f t="shared" si="261"/>
-        <v>4788000</v>
+        <v>7182000</v>
       </c>
       <c r="S715" s="8">
         <f t="shared" si="256"/>
-        <v>4313513.5135135129</v>
+        <v>6470270.2702702694</v>
       </c>
     </row>
     <row r="716" spans="1:19" s="72" customFormat="1">
@@ -40341,7 +40341,7 @@
         <v>83</v>
       </c>
       <c r="E773" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F773" s="6">
         <v>1</v>
@@ -40372,18 +40372,18 @@
       </c>
       <c r="P773" s="3">
         <f t="shared" ref="P773:P778" si="274">(C773+(E773*F773*H773))-N773</f>
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="Q773" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R773" s="8">
         <f t="shared" ref="R773:R778" si="275">P773*(J773-(J773*L773)-((J773-(J773*L773))*M773))</f>
-        <v>15836310</v>
+        <v>19355490</v>
       </c>
       <c r="S773" s="8">
         <f t="shared" si="273"/>
-        <v>14266945.945945945</v>
+        <v>17437378.378378376</v>
       </c>
     </row>
     <row r="774" spans="1:19" s="72" customFormat="1">
@@ -40514,7 +40514,7 @@
         <v>40</v>
       </c>
       <c r="E776" s="26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F776" s="22">
         <v>12</v>
@@ -40547,18 +40547,18 @@
       </c>
       <c r="P776" s="20">
         <f t="shared" ref="P776" si="279">(C776+(E776*F776*H776))-N776</f>
-        <v>1368</v>
+        <v>1584</v>
       </c>
       <c r="Q776" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R776" s="24">
         <f t="shared" ref="R776" si="280">P776*(J776-(J776*L776)-((J776-(J776*L776))*M776))</f>
-        <v>42301980</v>
+        <v>48981240</v>
       </c>
       <c r="S776" s="24">
         <f t="shared" ref="S776" si="281">R776/1.11</f>
-        <v>38109891.891891889</v>
+        <v>44127243.24324324</v>
       </c>
     </row>
     <row r="777" spans="1:19" s="19" customFormat="1">
@@ -41043,7 +41043,7 @@
         <v>151</v>
       </c>
       <c r="E789" s="26">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F789" s="22">
         <v>12</v>
@@ -41075,18 +41075,18 @@
       </c>
       <c r="P789" s="20">
         <f t="shared" si="286"/>
-        <v>11868</v>
+        <v>12300</v>
       </c>
       <c r="Q789" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R789" s="24">
         <f t="shared" si="287"/>
-        <v>104571915</v>
+        <v>108378375</v>
       </c>
       <c r="S789" s="24">
         <f t="shared" si="273"/>
-        <v>94208932.432432428</v>
+        <v>97638175.67567566</v>
       </c>
     </row>
     <row r="790" spans="1:19" s="19" customFormat="1">
@@ -41103,7 +41103,7 @@
         <v>151</v>
       </c>
       <c r="E790" s="26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F790" s="22">
         <v>12</v>
@@ -41135,18 +41135,18 @@
       </c>
       <c r="P790" s="20">
         <f t="shared" si="286"/>
-        <v>1830</v>
+        <v>2046</v>
       </c>
       <c r="Q790" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R790" s="24">
         <f t="shared" si="287"/>
-        <v>32249175</v>
+        <v>36055635</v>
       </c>
       <c r="S790" s="8">
         <f t="shared" si="273"/>
-        <v>29053310.810810808</v>
+        <v>32482554.054054052</v>
       </c>
     </row>
     <row r="791" spans="1:19" s="81" customFormat="1">
@@ -41219,7 +41219,7 @@
         <v>151</v>
       </c>
       <c r="E792" s="26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F792" s="22">
         <v>12</v>
@@ -41251,18 +41251,18 @@
       </c>
       <c r="P792" s="20">
         <f t="shared" si="286"/>
-        <v>1128</v>
+        <v>1560</v>
       </c>
       <c r="Q792" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R792" s="24">
         <f t="shared" si="287"/>
-        <v>9001440</v>
+        <v>12448800</v>
       </c>
       <c r="S792" s="24">
         <f t="shared" si="273"/>
-        <v>8109405.405405405</v>
+        <v>11215135.135135135</v>
       </c>
     </row>
     <row r="793" spans="1:19" s="72" customFormat="1">
@@ -42815,7 +42815,7 @@
         <v>19</v>
       </c>
       <c r="E824" s="26">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F824" s="22">
         <v>1</v>
@@ -42847,18 +42847,18 @@
       </c>
       <c r="P824" s="20">
         <f>(C824+(E824*F824*H824))-N824</f>
-        <v>16332</v>
+        <v>18060</v>
       </c>
       <c r="Q824" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R824" s="24">
         <f>P824*(J824-(J824*L824)-((J824-(J824*L824))*M824))</f>
-        <v>65164680</v>
+        <v>72059400</v>
       </c>
       <c r="S824" s="24">
         <f t="shared" si="273"/>
-        <v>58706918.918918915</v>
+        <v>64918378.378378376</v>
       </c>
     </row>
     <row r="825" spans="1:19" s="19" customFormat="1">
@@ -42895,7 +42895,7 @@
         <v>40</v>
       </c>
       <c r="E826" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F826" s="22">
         <v>1</v>
@@ -42926,18 +42926,18 @@
       </c>
       <c r="P826" s="20">
         <f>(C826+(E826*F826*H826))-N826</f>
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="Q826" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R826" s="24">
         <f>P826*(J826-(J826*L826)-((J826-(J826*L826))*M826))</f>
-        <v>20198880</v>
+        <v>21441888</v>
       </c>
       <c r="S826" s="24">
         <f t="shared" si="273"/>
-        <v>18197189.189189188</v>
+        <v>19317016.216216214</v>
       </c>
     </row>
     <row r="827" spans="1:19" s="19" customFormat="1">
@@ -43780,7 +43780,7 @@
         <v>33</v>
       </c>
       <c r="E847" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F847" s="6">
         <v>1</v>
@@ -43811,18 +43811,18 @@
       </c>
       <c r="P847" s="3">
         <f>(C847+(E847*F847*H847))-N847</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="Q847" s="7" t="s">
         <v>33</v>
       </c>
       <c r="R847" s="8">
         <f>P847*(J847-(J847*L847)-((J847-(J847*L847))*M847))</f>
-        <v>3734640</v>
+        <v>4979520</v>
       </c>
       <c r="S847" s="8">
         <f t="shared" si="273"/>
-        <v>3364540.5405405401</v>
+        <v>4486054.0540540535</v>
       </c>
     </row>
     <row r="849" spans="1:19" s="19" customFormat="1">
@@ -44705,7 +44705,7 @@
         <v>19</v>
       </c>
       <c r="E867" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F867" s="6">
         <v>1</v>
@@ -44734,18 +44734,18 @@
       </c>
       <c r="P867" s="3">
         <f t="shared" si="314"/>
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="Q867" s="7" t="s">
         <v>19</v>
       </c>
       <c r="R867" s="8">
         <f t="shared" si="315"/>
-        <v>4867950</v>
+        <v>6561150</v>
       </c>
       <c r="S867" s="8">
         <f t="shared" si="273"/>
-        <v>4385540.5405405406</v>
+        <v>5910945.9459459456</v>
       </c>
     </row>
     <row r="868" spans="1:19">
@@ -46787,7 +46787,7 @@
         <v>40</v>
       </c>
       <c r="E922" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F922" s="22">
         <v>20</v>
@@ -46819,18 +46819,18 @@
       </c>
       <c r="P922" s="20">
         <f t="shared" si="329"/>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q922" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R922" s="24">
         <f t="shared" si="330"/>
-        <v>6982500</v>
+        <v>9775500</v>
       </c>
       <c r="S922" s="24">
         <f t="shared" si="331"/>
-        <v>6290540.5405405397</v>
+        <v>8806756.7567567565</v>
       </c>
     </row>
     <row r="923" spans="1:19" s="19" customFormat="1">
@@ -49925,7 +49925,7 @@
         <v>33</v>
       </c>
       <c r="E989" s="26">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F989" s="22">
         <v>1</v>
@@ -49957,18 +49957,18 @@
       </c>
       <c r="P989" s="20">
         <f t="shared" si="346"/>
-        <v>3393</v>
+        <v>3843</v>
       </c>
       <c r="Q989" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R989" s="24">
         <f t="shared" si="347"/>
-        <v>96176705.625</v>
+        <v>108932236.875</v>
       </c>
       <c r="S989" s="8">
         <f t="shared" si="341"/>
-        <v>86645680.743243232</v>
+        <v>98137150.33783783</v>
       </c>
     </row>
     <row r="990" spans="1:19" s="19" customFormat="1">
@@ -50045,7 +50045,7 @@
         <v>33</v>
       </c>
       <c r="E991" s="26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F991" s="22">
         <v>1</v>
@@ -50077,18 +50077,18 @@
       </c>
       <c r="P991" s="20">
         <f t="shared" si="346"/>
-        <v>413</v>
+        <v>763</v>
       </c>
       <c r="Q991" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R991" s="24">
         <f t="shared" si="347"/>
-        <v>10985800</v>
+        <v>20295800</v>
       </c>
       <c r="S991" s="24">
         <f t="shared" si="341"/>
-        <v>9897117.1171171162</v>
+        <v>18284504.504504502</v>
       </c>
     </row>
     <row r="992" spans="1:19" s="98" customFormat="1">
@@ -50163,7 +50163,7 @@
         <v>33</v>
       </c>
       <c r="E993" s="26">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F993" s="22">
         <v>1</v>
@@ -50195,18 +50195,18 @@
       </c>
       <c r="P993" s="20">
         <f t="shared" si="346"/>
-        <v>4267</v>
+        <v>4717</v>
       </c>
       <c r="Q993" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R993" s="24">
         <f t="shared" si="347"/>
-        <v>100378508.125</v>
+        <v>110964476.875</v>
       </c>
       <c r="S993" s="24">
         <f t="shared" si="341"/>
-        <v>90431088.4009009</v>
+        <v>99967997.184684679</v>
       </c>
     </row>
     <row r="994" spans="1:19" s="19" customFormat="1">
@@ -50223,7 +50223,7 @@
         <v>33</v>
       </c>
       <c r="E994" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F994" s="22">
         <v>1</v>
@@ -50255,18 +50255,18 @@
       </c>
       <c r="P994" s="20">
         <f t="shared" si="346"/>
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="Q994" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R994" s="24">
         <f t="shared" si="347"/>
-        <v>27053031.25</v>
+        <v>31757906.25</v>
       </c>
       <c r="S994" s="24">
         <f t="shared" si="341"/>
-        <v>24372100.225225221</v>
+        <v>28610726.351351351</v>
       </c>
     </row>
     <row r="995" spans="1:19" s="88" customFormat="1">
@@ -52208,7 +52208,7 @@
         <v>19</v>
       </c>
       <c r="E1045" s="26">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F1045" s="22">
         <v>1</v>
@@ -52240,18 +52240,18 @@
       </c>
       <c r="P1045" s="20">
         <f t="shared" si="365"/>
-        <v>408</v>
+        <v>528</v>
       </c>
       <c r="Q1045" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1045" s="24">
         <f t="shared" si="366"/>
-        <v>3764565</v>
+        <v>4871790</v>
       </c>
       <c r="S1045" s="24">
         <f t="shared" si="367"/>
-        <v>3391499.9999999995</v>
+        <v>4389000</v>
       </c>
     </row>
     <row r="1046" spans="1:19" s="19" customFormat="1">
@@ -52266,7 +52266,7 @@
         <v>19</v>
       </c>
       <c r="E1046" s="26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1046" s="22">
         <v>1</v>
@@ -52298,18 +52298,18 @@
       </c>
       <c r="P1046" s="20">
         <f t="shared" si="363"/>
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="Q1046" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1046" s="24">
         <f t="shared" si="364"/>
-        <v>7201950</v>
+        <v>7581000</v>
       </c>
       <c r="S1046" s="24">
         <f t="shared" si="341"/>
-        <v>6488243.2432432426</v>
+        <v>6829729.7297297288</v>
       </c>
     </row>
     <row r="1047" spans="1:19" s="19" customFormat="1">
@@ -52382,7 +52382,7 @@
         <v>19</v>
       </c>
       <c r="E1048" s="101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1048" s="102">
         <v>1</v>
@@ -52414,18 +52414,18 @@
       </c>
       <c r="P1048" s="99">
         <f t="shared" si="363"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="Q1048" s="103" t="s">
         <v>19</v>
       </c>
       <c r="R1048" s="104">
         <f t="shared" si="364"/>
-        <v>245385</v>
+        <v>736155</v>
       </c>
       <c r="S1048" s="96">
         <f t="shared" si="341"/>
-        <v>221067.56756756754</v>
+        <v>663202.70270270261</v>
       </c>
     </row>
     <row r="1049" spans="1:19" s="19" customFormat="1">
@@ -53123,7 +53123,9 @@
       <c r="D1062" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E1062" s="75"/>
+      <c r="E1062" s="75">
+        <v>1</v>
+      </c>
       <c r="F1062" s="76">
         <v>1</v>
       </c>
@@ -53153,18 +53155,18 @@
       </c>
       <c r="P1062" s="73">
         <f t="shared" si="370"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q1062" s="77" t="s">
         <v>19</v>
       </c>
       <c r="R1062" s="16">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>348600</v>
       </c>
       <c r="S1062" s="16">
         <f t="shared" si="341"/>
-        <v>0</v>
+        <v>314054.05405405402</v>
       </c>
     </row>
     <row r="1063" spans="1:19">
@@ -53607,11 +53609,11 @@
     <row r="1078" spans="1:21" ht="16.5">
       <c r="R1078" s="27">
         <f>SUM(R6:R1076)</f>
-        <v>9938329831.6499996</v>
+        <v>10231382787.9</v>
       </c>
       <c r="S1078" s="27">
         <f>SUM(S6:S1076)</f>
-        <v>8953450298.783783</v>
+        <v>9217461971.0810795</v>
       </c>
     </row>
     <row r="1079" spans="1:21">
@@ -53641,11 +53643,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -53653,6 +53650,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3979,10 +3979,10 @@
   <dimension ref="A1:U1197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C891" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B706" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E917" sqref="E917"/>
+      <selection pane="bottomRight" activeCell="N717" sqref="N717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10765,7 +10765,7 @@
         <v>83</v>
       </c>
       <c r="E138" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F138" s="22">
         <v>1</v>
@@ -10796,18 +10796,18 @@
       </c>
       <c r="P138" s="20">
         <f t="shared" ref="P138:P145" si="57">(C138+(E138*F138*H138))-N138</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q138" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R138" s="24">
         <f t="shared" ref="R138:R145" si="58">P138*(J138-(J138*L138)-((J138-(J138*L138))*M138))</f>
-        <v>10756800</v>
+        <v>14342400</v>
       </c>
       <c r="S138" s="24">
         <f t="shared" si="47"/>
-        <v>9690810.81081081</v>
+        <v>12921081.081081079</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="19" customFormat="1">
@@ -10824,7 +10824,7 @@
         <v>83</v>
       </c>
       <c r="E139" s="26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F139" s="22">
         <v>1</v>
@@ -10855,18 +10855,18 @@
       </c>
       <c r="P139" s="20">
         <f t="shared" si="57"/>
-        <v>693</v>
+        <v>843</v>
       </c>
       <c r="Q139" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R139" s="24">
         <f t="shared" si="58"/>
-        <v>18291042</v>
+        <v>22250142</v>
       </c>
       <c r="S139" s="24">
         <f t="shared" si="47"/>
-        <v>16478416.216216214</v>
+        <v>20045172.97297297</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="19" customFormat="1">
@@ -10883,7 +10883,7 @@
         <v>83</v>
       </c>
       <c r="E140" s="26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F140" s="22">
         <v>1</v>
@@ -10914,18 +10914,18 @@
       </c>
       <c r="P140" s="20">
         <f t="shared" si="57"/>
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="Q140" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R140" s="24">
         <f t="shared" si="58"/>
-        <v>19478772</v>
+        <v>23154012</v>
       </c>
       <c r="S140" s="24">
         <f t="shared" si="47"/>
-        <v>17548443.243243244</v>
+        <v>20859470.270270269</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="19" customFormat="1">
@@ -10942,7 +10942,7 @@
         <v>83</v>
       </c>
       <c r="E141" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F141" s="22">
         <v>1</v>
@@ -10973,18 +10973,18 @@
       </c>
       <c r="P141" s="20">
         <f t="shared" si="57"/>
-        <v>511</v>
+        <v>591</v>
       </c>
       <c r="Q141" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R141" s="24">
         <f t="shared" si="58"/>
-        <v>29264970</v>
+        <v>33846570</v>
       </c>
       <c r="S141" s="24">
         <f t="shared" si="47"/>
-        <v>26364837.837837834</v>
+        <v>30492405.405405402</v>
       </c>
     </row>
     <row r="142" spans="1:19" s="19" customFormat="1">
@@ -11001,7 +11001,7 @@
         <v>83</v>
       </c>
       <c r="E142" s="26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F142" s="22">
         <v>1</v>
@@ -11032,18 +11032,18 @@
       </c>
       <c r="P142" s="20">
         <f t="shared" si="57"/>
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="Q142" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R142" s="24">
         <f t="shared" si="58"/>
-        <v>25099200</v>
+        <v>32071200</v>
       </c>
       <c r="S142" s="24">
         <f t="shared" si="47"/>
-        <v>22611891.891891889</v>
+        <v>28892972.97297297</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="19" customFormat="1">
@@ -11058,7 +11058,7 @@
         <v>83</v>
       </c>
       <c r="E143" s="26">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F143" s="22">
         <v>1</v>
@@ -11089,18 +11089,18 @@
       </c>
       <c r="P143" s="20">
         <f t="shared" si="57"/>
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="Q143" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R143" s="24">
         <f t="shared" si="58"/>
-        <v>28386000</v>
+        <v>35109000</v>
       </c>
       <c r="S143" s="24">
         <f t="shared" si="47"/>
-        <v>25572972.97297297</v>
+        <v>31629729.729729727</v>
       </c>
     </row>
     <row r="144" spans="1:19" s="19" customFormat="1">
@@ -11173,7 +11173,7 @@
         <v>33</v>
       </c>
       <c r="E145" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F145" s="22">
         <v>1</v>
@@ -11204,18 +11204,18 @@
       </c>
       <c r="P145" s="20">
         <f t="shared" si="57"/>
-        <v>777</v>
+        <v>921</v>
       </c>
       <c r="Q145" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R145" s="24">
         <f t="shared" si="58"/>
-        <v>13865565</v>
+        <v>16435245</v>
       </c>
       <c r="S145" s="24">
         <f t="shared" si="47"/>
-        <v>12491499.999999998</v>
+        <v>14806527.027027026</v>
       </c>
     </row>
     <row r="146" spans="1:19" s="19" customFormat="1">
@@ -11587,7 +11587,7 @@
         <v>33</v>
       </c>
       <c r="E154" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F154" s="22">
         <v>50</v>
@@ -11618,18 +11618,18 @@
       </c>
       <c r="P154" s="20">
         <f>(C154+(E154*F154*H154))-N154</f>
-        <v>9010</v>
+        <v>9510</v>
       </c>
       <c r="Q154" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R154" s="24">
         <f>P154*(J154-(J154*L154)-((J154-(J154*L154))*M154))</f>
-        <v>11965280</v>
+        <v>12629280</v>
       </c>
       <c r="S154" s="24">
         <f t="shared" si="47"/>
-        <v>10779531.531531531</v>
+        <v>11377729.729729729</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="19" customFormat="1">
@@ -11646,7 +11646,7 @@
         <v>33</v>
       </c>
       <c r="E155" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F155" s="22">
         <v>20</v>
@@ -11677,18 +11677,18 @@
       </c>
       <c r="P155" s="20">
         <f>(C155+(E155*F155*H155))-N155</f>
-        <v>4410</v>
+        <v>4810</v>
       </c>
       <c r="Q155" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R155" s="24">
         <f>P155*(J155-(J155*L155)-((J155-(J155*L155))*M155))</f>
-        <v>15739290</v>
+        <v>17166890</v>
       </c>
       <c r="S155" s="24">
         <f t="shared" si="47"/>
-        <v>14179540.540540539</v>
+        <v>15465666.666666666</v>
       </c>
     </row>
     <row r="156" spans="1:19" s="19" customFormat="1">
@@ -12064,7 +12064,7 @@
         <v>40</v>
       </c>
       <c r="E164" s="26">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F164" s="22">
         <v>1</v>
@@ -12096,18 +12096,18 @@
       </c>
       <c r="P164" s="20">
         <f t="shared" si="65"/>
-        <v>384</v>
+        <v>768</v>
       </c>
       <c r="Q164" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R164" s="24">
         <f t="shared" si="66"/>
-        <v>11491200</v>
+        <v>22982400</v>
       </c>
       <c r="S164" s="24">
         <f t="shared" si="47"/>
-        <v>10352432.432432432</v>
+        <v>20704864.864864863</v>
       </c>
     </row>
     <row r="165" spans="1:19" s="81" customFormat="1">
@@ -13364,7 +13364,7 @@
         <v>40</v>
       </c>
       <c r="E187" s="26">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="F187" s="22">
         <v>1</v>
@@ -13395,18 +13395,18 @@
       </c>
       <c r="P187" s="20">
         <f t="shared" si="82"/>
-        <v>13127</v>
+        <v>14819</v>
       </c>
       <c r="Q187" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R187" s="24">
         <f t="shared" si="83"/>
-        <v>591620763</v>
+        <v>667877511</v>
       </c>
       <c r="S187" s="24">
         <f t="shared" si="47"/>
-        <v>532991678.37837833</v>
+        <v>601691451.35135126</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="19" customFormat="1">
@@ -13423,7 +13423,7 @@
         <v>40</v>
       </c>
       <c r="E188" s="26">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F188" s="22">
         <v>1</v>
@@ -13454,18 +13454,18 @@
       </c>
       <c r="P188" s="20">
         <f t="shared" si="82"/>
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="Q188" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R188" s="24">
         <f t="shared" si="83"/>
-        <v>33901848</v>
+        <v>38903760</v>
       </c>
       <c r="S188" s="24">
         <f t="shared" si="47"/>
-        <v>30542205.405405402</v>
+        <v>35048432.432432428</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="19" customFormat="1">
@@ -13482,7 +13482,7 @@
         <v>40</v>
       </c>
       <c r="E189" s="26">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F189" s="22">
         <v>1</v>
@@ -13513,18 +13513,18 @@
       </c>
       <c r="P189" s="20">
         <f t="shared" si="82"/>
-        <v>2628</v>
+        <v>2700</v>
       </c>
       <c r="Q189" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R189" s="24">
         <f t="shared" si="83"/>
-        <v>102736404</v>
+        <v>105551100</v>
       </c>
       <c r="S189" s="24">
         <f t="shared" si="47"/>
-        <v>92555318.918918908</v>
+        <v>95091081.081081077</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="98" customFormat="1">
@@ -14107,7 +14107,7 @@
         <v>40</v>
       </c>
       <c r="E201" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F201" s="22">
         <v>1</v>
@@ -14140,18 +14140,18 @@
       </c>
       <c r="P201" s="20">
         <f t="shared" ref="P201" si="92">(C201+(E201*F201*H201))-N201</f>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="Q201" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R201" s="24">
         <f t="shared" ref="R201" si="93">P201*(J201-(J201*L201)-((J201-(J201*L201))*M201))</f>
-        <v>28728000</v>
+        <v>34473600</v>
       </c>
       <c r="S201" s="24">
         <f t="shared" ref="S201" si="94">R201/1.11</f>
-        <v>25881081.081081077</v>
+        <v>31057297.297297295</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="98" customFormat="1">
@@ -15910,7 +15910,7 @@
         <v>40</v>
       </c>
       <c r="E233" s="26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F233" s="22">
         <v>1</v>
@@ -15941,18 +15941,18 @@
       </c>
       <c r="P233" s="20">
         <f t="shared" si="101"/>
-        <v>1440</v>
+        <v>1584</v>
       </c>
       <c r="Q233" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R233" s="24">
         <f t="shared" si="102"/>
-        <v>71712000</v>
+        <v>78883200</v>
       </c>
       <c r="S233" s="24">
         <f t="shared" si="113"/>
-        <v>64605405.405405402</v>
+        <v>71065945.945945933</v>
       </c>
     </row>
     <row r="234" spans="1:19" s="19" customFormat="1">
@@ -16815,7 +16815,7 @@
         <v>151</v>
       </c>
       <c r="E250" s="101">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F250" s="102">
         <v>12</v>
@@ -16847,18 +16847,18 @@
       </c>
       <c r="P250" s="99">
         <f t="shared" ref="P250" si="135">(C250+(E250*F250*H250))-N250</f>
-        <v>2592</v>
+        <v>2880</v>
       </c>
       <c r="Q250" s="103" t="s">
         <v>151</v>
       </c>
       <c r="R250" s="104">
         <f t="shared" ref="R250" si="136">P250*(J250-(J250*L250)-((J250-(J250*L250))*M250))</f>
-        <v>24993360</v>
+        <v>27770400</v>
       </c>
       <c r="S250" s="104">
         <f t="shared" ref="S250" si="137">R250/1.11</f>
-        <v>22516540.540540539</v>
+        <v>25018378.378378376</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="19" customFormat="1">
@@ -17051,7 +17051,7 @@
         <v>151</v>
       </c>
       <c r="E254" s="26">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="F254" s="22">
         <v>1</v>
@@ -17083,18 +17083,18 @@
       </c>
       <c r="P254" s="20">
         <f t="shared" si="130"/>
-        <v>17677</v>
+        <v>25741</v>
       </c>
       <c r="Q254" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R254" s="24">
         <f t="shared" si="131"/>
-        <v>174858674.375</v>
+        <v>254626754.375</v>
       </c>
       <c r="S254" s="24">
         <f t="shared" si="113"/>
-        <v>157530337.27477476</v>
+        <v>229393472.4099099</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="19" customFormat="1">
@@ -17169,7 +17169,7 @@
         <v>151</v>
       </c>
       <c r="E256" s="26">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F256" s="22">
         <v>6</v>
@@ -17201,18 +17201,18 @@
       </c>
       <c r="P256" s="20">
         <f t="shared" si="130"/>
-        <v>7068</v>
+        <v>8580</v>
       </c>
       <c r="Q256" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R256" s="24">
         <f t="shared" si="131"/>
-        <v>135131325</v>
+        <v>164038875</v>
       </c>
       <c r="S256" s="24">
         <f t="shared" si="113"/>
-        <v>121739932.43243243</v>
+        <v>147782770.27027026</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="19" customFormat="1">
@@ -17285,7 +17285,7 @@
         <v>151</v>
       </c>
       <c r="E258" s="26">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F258" s="22">
         <v>8</v>
@@ -17317,18 +17317,18 @@
       </c>
       <c r="P258" s="20">
         <f t="shared" si="130"/>
-        <v>2976</v>
+        <v>4416</v>
       </c>
       <c r="Q258" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R258" s="24">
         <f t="shared" si="131"/>
-        <v>73224480</v>
+        <v>108655680</v>
       </c>
       <c r="S258" s="24">
         <f t="shared" si="113"/>
-        <v>65967999.999999993</v>
+        <v>97887999.999999985</v>
       </c>
     </row>
     <row r="259" spans="1:19" s="19" customFormat="1">
@@ -17403,7 +17403,7 @@
         <v>151</v>
       </c>
       <c r="E260" s="26">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F260" s="22">
         <v>6</v>
@@ -17435,18 +17435,18 @@
       </c>
       <c r="P260" s="20">
         <f t="shared" si="130"/>
-        <v>2222</v>
+        <v>2366</v>
       </c>
       <c r="Q260" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R260" s="24">
         <f t="shared" si="131"/>
-        <v>76652056.25</v>
+        <v>81619606.25</v>
       </c>
       <c r="S260" s="24">
         <f>R260/1.11</f>
-        <v>69055906.531531528</v>
+        <v>73531176.801801801</v>
       </c>
     </row>
     <row r="261" spans="1:19" s="19" customFormat="1">
@@ -17463,7 +17463,7 @@
         <v>151</v>
       </c>
       <c r="E261" s="26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F261" s="22">
         <v>4</v>
@@ -17495,18 +17495,18 @@
       </c>
       <c r="P261" s="20">
         <f t="shared" si="130"/>
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="Q261" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R261" s="24">
         <f t="shared" si="131"/>
-        <v>51702420</v>
+        <v>54052530</v>
       </c>
       <c r="S261" s="24">
         <f t="shared" si="113"/>
-        <v>46578756.756756753</v>
+        <v>48695972.972972967</v>
       </c>
     </row>
     <row r="262" spans="1:19" s="19" customFormat="1">
@@ -17523,7 +17523,7 @@
         <v>151</v>
       </c>
       <c r="E262" s="26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F262" s="22">
         <v>4</v>
@@ -17555,18 +17555,18 @@
       </c>
       <c r="P262" s="20">
         <f t="shared" si="130"/>
-        <v>1334</v>
+        <v>1430</v>
       </c>
       <c r="Q262" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R262" s="24">
         <f t="shared" si="131"/>
-        <v>74184573.75</v>
+        <v>79523193.75</v>
       </c>
       <c r="S262" s="24">
         <f t="shared" si="113"/>
-        <v>66832949.324324317</v>
+        <v>71642516.891891882</v>
       </c>
     </row>
     <row r="263" spans="1:19" s="19" customFormat="1">
@@ -17581,7 +17581,7 @@
         <v>151</v>
       </c>
       <c r="E263" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F263" s="22">
         <v>1</v>
@@ -17613,18 +17613,18 @@
       </c>
       <c r="P263" s="20">
         <f t="shared" si="130"/>
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="Q263" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R263" s="24">
         <f t="shared" si="131"/>
-        <v>24897600</v>
+        <v>26812800</v>
       </c>
       <c r="S263" s="24">
         <f t="shared" si="113"/>
-        <v>22430270.270270269</v>
+        <v>24155675.675675675</v>
       </c>
     </row>
     <row r="264" spans="1:19" s="19" customFormat="1">
@@ -18490,7 +18490,7 @@
         <v>151</v>
       </c>
       <c r="E282" s="26">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F282" s="22">
         <v>12</v>
@@ -18522,18 +18522,18 @@
       </c>
       <c r="P282" s="20">
         <f>(C282+(E282*F282*H282))-N282</f>
-        <v>4428</v>
+        <v>4716</v>
       </c>
       <c r="Q282" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R282" s="24">
         <f>P282*(J282-(J282*L282)-((J282-(J282*L282))*M282))</f>
-        <v>68462415</v>
+        <v>72915255</v>
       </c>
       <c r="S282" s="24">
         <f t="shared" si="113"/>
-        <v>61677851.351351343</v>
+        <v>65689418.918918915</v>
       </c>
     </row>
     <row r="283" spans="1:19" s="19" customFormat="1">
@@ -18608,7 +18608,7 @@
         <v>151</v>
       </c>
       <c r="E284" s="26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F284" s="22">
         <v>12</v>
@@ -18640,18 +18640,18 @@
       </c>
       <c r="P284" s="20">
         <f>(C284+(E284*F284*H284))-N284</f>
-        <v>3888</v>
+        <v>4464</v>
       </c>
       <c r="Q284" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R284" s="24">
         <f>P284*(J284-(J284*L284)-((J284-(J284*L284))*M284))</f>
-        <v>77242410</v>
+        <v>88685730</v>
       </c>
       <c r="S284" s="24">
         <f t="shared" si="113"/>
-        <v>69587756.756756753</v>
+        <v>79897054.054054052</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="19" customFormat="1">
@@ -19984,7 +19984,7 @@
         <v>40</v>
       </c>
       <c r="E313" s="26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F313" s="22">
         <v>1</v>
@@ -20015,18 +20015,18 @@
       </c>
       <c r="P313" s="20">
         <f>(C313+(E313*F313*H313))-N313</f>
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="Q313" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R313" s="24">
         <f>P313*(J313-(J313*L313)-((J313-(J313*L313))*M313))</f>
-        <v>33637410</v>
+        <v>36476010</v>
       </c>
       <c r="S313" s="24">
         <f t="shared" si="113"/>
-        <v>30303972.97297297</v>
+        <v>32861270.270270266</v>
       </c>
     </row>
     <row r="314" spans="1:19" s="19" customFormat="1">
@@ -20043,7 +20043,7 @@
         <v>40</v>
       </c>
       <c r="E314" s="26">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F314" s="22">
         <v>1</v>
@@ -20074,18 +20074,18 @@
       </c>
       <c r="P314" s="20">
         <f>(C314+(E314*F314*H314))-N314</f>
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q314" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R314" s="24">
         <f>P314*(J314-(J314*L314)-((J314-(J314*L314))*M314))</f>
-        <v>127408320</v>
+        <v>134758800</v>
       </c>
       <c r="S314" s="24">
         <f t="shared" si="113"/>
-        <v>114782270.27027026</v>
+        <v>121404324.32432431</v>
       </c>
     </row>
     <row r="315" spans="1:19" s="19" customFormat="1">
@@ -20532,7 +20532,7 @@
         <v>40</v>
       </c>
       <c r="E325" s="26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F325" s="22">
         <v>1</v>
@@ -20564,18 +20564,18 @@
       </c>
       <c r="P325" s="20">
         <f>(C325+(E325*F325*H325))-N325</f>
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q325" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R325" s="24">
         <f>P325*(J325-(J325*L325)-((J325-(J325*L325))*M325))</f>
-        <v>47441100</v>
+        <v>49077000</v>
       </c>
       <c r="S325" s="24">
         <f t="shared" si="113"/>
-        <v>42739729.729729727</v>
+        <v>44213513.513513513</v>
       </c>
     </row>
     <row r="326" spans="1:19" s="19" customFormat="1">
@@ -20610,7 +20610,7 @@
         <v>40</v>
       </c>
       <c r="E327" s="26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F327" s="22">
         <v>1</v>
@@ -20641,18 +20641,18 @@
       </c>
       <c r="P327" s="20">
         <f>(C327+(E327*F327*H327))-N327</f>
-        <v>3720</v>
+        <v>4080</v>
       </c>
       <c r="Q327" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R327" s="24">
         <f>P327*(J327-(J327*L327)-((J327-(J327*L327))*M327))</f>
-        <v>100038240</v>
+        <v>109719360</v>
       </c>
       <c r="S327" s="24">
         <f t="shared" si="113"/>
-        <v>90124540.540540531</v>
+        <v>98846270.270270258</v>
       </c>
     </row>
     <row r="328" spans="1:19" s="19" customFormat="1">
@@ -20667,7 +20667,7 @@
         <v>40</v>
       </c>
       <c r="E328" s="26">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F328" s="22">
         <v>1</v>
@@ -20698,18 +20698,18 @@
       </c>
       <c r="P328" s="20">
         <f>(C328+(E328*F328*H328))-N328</f>
-        <v>4560</v>
+        <v>5520</v>
       </c>
       <c r="Q328" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R328" s="24">
         <f>P328*(J328-(J328*L328)-((J328-(J328*L328))*M328))</f>
-        <v>245255040</v>
+        <v>296887680</v>
       </c>
       <c r="S328" s="24">
         <f t="shared" si="113"/>
-        <v>220950486.48648646</v>
+        <v>267466378.37837836</v>
       </c>
     </row>
     <row r="329" spans="1:19" s="19" customFormat="1">
@@ -22231,7 +22231,7 @@
         <v>40</v>
       </c>
       <c r="E367" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F367" s="22">
         <v>1</v>
@@ -22262,18 +22262,18 @@
       </c>
       <c r="P367" s="20">
         <f t="shared" si="177"/>
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="Q367" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R367" s="24">
         <f t="shared" si="178"/>
-        <v>8226960</v>
+        <v>9969960</v>
       </c>
       <c r="S367" s="24">
         <f t="shared" si="172"/>
-        <v>7411675.6756756753</v>
+        <v>8981945.9459459446</v>
       </c>
     </row>
     <row r="368" spans="1:19" s="19" customFormat="1">
@@ -22290,7 +22290,7 @@
         <v>40</v>
       </c>
       <c r="E368" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F368" s="22">
         <v>1</v>
@@ -22321,18 +22321,18 @@
       </c>
       <c r="P368" s="20">
         <f t="shared" si="177"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q368" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R368" s="24">
         <f t="shared" si="178"/>
-        <v>3792768</v>
+        <v>5147328</v>
       </c>
       <c r="S368" s="24">
         <f t="shared" si="172"/>
-        <v>3416908.1081081079</v>
+        <v>4637232.4324324317</v>
       </c>
     </row>
     <row r="369" spans="1:19" s="19" customFormat="1">
@@ -23118,7 +23118,7 @@
         <v>19</v>
       </c>
       <c r="E386" s="26">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F386" s="22">
         <v>12</v>
@@ -23150,18 +23150,18 @@
       </c>
       <c r="P386" s="20">
         <f t="shared" si="185"/>
-        <v>8352</v>
+        <v>8496</v>
       </c>
       <c r="Q386" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R386" s="24">
         <f t="shared" si="186"/>
-        <v>45126900</v>
+        <v>45904950</v>
       </c>
       <c r="S386" s="24">
         <f t="shared" si="172"/>
-        <v>40654864.864864863</v>
+        <v>41355810.810810804</v>
       </c>
     </row>
     <row r="387" spans="1:19" s="19" customFormat="1">
@@ -23714,7 +23714,7 @@
         <v>40</v>
       </c>
       <c r="E397" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F397" s="22">
         <v>1</v>
@@ -23744,18 +23744,18 @@
       </c>
       <c r="P397" s="20">
         <f t="shared" ref="P397:P401" si="199">(C397+(E397*F397*H397))-N397</f>
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="Q397" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R397" s="24">
         <f t="shared" ref="R397:R401" si="200">P397*(J397-(J397*L397)-((J397-(J397*L397))*M397))</f>
-        <v>13013736</v>
+        <v>14184036</v>
       </c>
       <c r="S397" s="24">
         <f t="shared" ref="S397" si="201">R397/1.11</f>
-        <v>11724086.486486485</v>
+        <v>12778410.81081081</v>
       </c>
     </row>
     <row r="398" spans="1:19" s="19" customFormat="1">
@@ -24494,7 +24494,7 @@
         <v>40</v>
       </c>
       <c r="E413" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F413" s="22">
         <v>1</v>
@@ -24526,18 +24526,18 @@
       </c>
       <c r="P413" s="20">
         <f t="shared" ref="P413" si="215">(C413+(E413*F413*H413))-N413</f>
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Q413" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R413" s="24">
         <f t="shared" ref="R413" si="216">P413*(J413-(J413*L413)-((J413-(J413*L413))*M413))</f>
-        <v>24969420</v>
+        <v>28536480</v>
       </c>
       <c r="S413" s="24">
         <f t="shared" ref="S413" si="217">R413/1.11</f>
-        <v>22494972.97297297</v>
+        <v>25708540.540540539</v>
       </c>
     </row>
     <row r="414" spans="1:19" s="19" customFormat="1">
@@ -24612,7 +24612,7 @@
         <v>40</v>
       </c>
       <c r="E415" s="26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F415" s="22">
         <v>1</v>
@@ -24644,18 +24644,18 @@
       </c>
       <c r="P415" s="20">
         <f t="shared" ref="P415" si="218">(C415+(E415*F415*H415))-N415</f>
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="Q415" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R415" s="24">
         <f t="shared" ref="R415" si="219">P415*(J415-(J415*L415)-((J415-(J415*L415))*M415))</f>
-        <v>16267230</v>
+        <v>19882170</v>
       </c>
       <c r="S415" s="24">
         <f t="shared" ref="S415" si="220">R415/1.11</f>
-        <v>14655162.162162161</v>
+        <v>17911864.864864863</v>
       </c>
     </row>
     <row r="416" spans="1:19" s="19" customFormat="1">
@@ -24904,7 +24904,7 @@
         <v>151</v>
       </c>
       <c r="E420" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F420" s="22">
         <v>12</v>
@@ -24936,18 +24936,18 @@
       </c>
       <c r="P420" s="20">
         <f t="shared" si="210"/>
-        <v>1152</v>
+        <v>1440</v>
       </c>
       <c r="Q420" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R420" s="24">
         <f t="shared" si="211"/>
-        <v>11491200</v>
+        <v>14364000</v>
       </c>
       <c r="S420" s="24">
         <f t="shared" si="172"/>
-        <v>10352432.432432432</v>
+        <v>12940540.540540539</v>
       </c>
     </row>
     <row r="421" spans="1:19" s="81" customFormat="1">
@@ -27599,7 +27599,7 @@
         <v>277</v>
       </c>
       <c r="E477" s="26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F477" s="22">
         <v>100</v>
@@ -27631,18 +27631,18 @@
       </c>
       <c r="P477" s="20">
         <f t="shared" ref="P477:P486" si="241">(C477+(E477*F477*H477))-N477</f>
-        <v>40270</v>
+        <v>41270</v>
       </c>
       <c r="Q477" s="23" t="s">
         <v>277</v>
       </c>
       <c r="R477" s="24">
         <f t="shared" ref="R477:R486" si="242">P477*(J477-(J477*L477)-((J477-(J477*L477))*M477))</f>
-        <v>68622596.875</v>
+        <v>70326659.375</v>
       </c>
       <c r="S477" s="24">
         <f t="shared" si="227"/>
-        <v>61822159.346846841</v>
+        <v>63357350.78828828</v>
       </c>
     </row>
     <row r="478" spans="1:19" s="19" customFormat="1">
@@ -27777,7 +27777,7 @@
         <v>277</v>
       </c>
       <c r="E480" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F480" s="22">
         <v>50</v>
@@ -27809,18 +27809,18 @@
       </c>
       <c r="P480" s="20">
         <f t="shared" si="241"/>
-        <v>7350</v>
+        <v>8350</v>
       </c>
       <c r="Q480" s="23" t="s">
         <v>277</v>
       </c>
       <c r="R480" s="24">
         <f t="shared" si="242"/>
-        <v>18634546.875</v>
+        <v>21169859.375</v>
       </c>
       <c r="S480" s="24">
         <f t="shared" si="227"/>
-        <v>16787880.067567565</v>
+        <v>19071945.382882882</v>
       </c>
     </row>
     <row r="481" spans="1:19" s="19" customFormat="1">
@@ -28361,7 +28361,7 @@
         <v>19</v>
       </c>
       <c r="E492" s="26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F492" s="22">
         <v>1</v>
@@ -28393,18 +28393,18 @@
       </c>
       <c r="P492" s="20">
         <f>(C492+(E492*F492*H492))-N492</f>
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="Q492" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R492" s="24">
         <f>P492*(J492-(J492*L492)-((J492-(J492*L492))*M492))</f>
-        <v>18246768.75</v>
+        <v>18920081.25</v>
       </c>
       <c r="S492" s="24">
         <f t="shared" si="227"/>
-        <v>16438530.405405404</v>
+        <v>17045118.243243244</v>
       </c>
     </row>
     <row r="493" spans="1:19" s="98" customFormat="1">
@@ -29268,7 +29268,7 @@
         <v>40</v>
       </c>
       <c r="E512" s="26">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F512" s="22">
         <v>24</v>
@@ -29301,18 +29301,18 @@
       </c>
       <c r="P512" s="20">
         <f t="shared" si="251"/>
-        <v>288</v>
+        <v>696</v>
       </c>
       <c r="Q512" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R512" s="24">
         <f t="shared" si="252"/>
-        <v>6176520</v>
+        <v>14926590</v>
       </c>
       <c r="S512" s="24">
         <f t="shared" si="227"/>
-        <v>5564432.4324324317</v>
+        <v>13447378.378378376</v>
       </c>
     </row>
     <row r="513" spans="1:19" s="19" customFormat="1">
@@ -29464,7 +29464,7 @@
         <v>40</v>
       </c>
       <c r="E516" s="26">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F516" s="22">
         <v>1</v>
@@ -29495,18 +29495,18 @@
       </c>
       <c r="P516" s="20">
         <f>(C516+(E516*F516*H516))-N516</f>
-        <v>1140</v>
+        <v>1220</v>
       </c>
       <c r="Q516" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R516" s="24">
         <f>P516*(J516-(J516*L516)-((J516-(J516*L516))*M516))</f>
-        <v>18734760</v>
+        <v>20049480</v>
       </c>
       <c r="S516" s="24">
         <f t="shared" si="227"/>
-        <v>16878162.162162162</v>
+        <v>18062594.594594594</v>
       </c>
     </row>
     <row r="517" spans="1:19" s="19" customFormat="1">
@@ -29523,7 +29523,7 @@
         <v>40</v>
       </c>
       <c r="E517" s="26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F517" s="22">
         <v>1</v>
@@ -29554,18 +29554,18 @@
       </c>
       <c r="P517" s="20">
         <f>(C517+(E517*F517*H517))-N517</f>
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="Q517" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R517" s="24">
         <f>P517*(J517-(J517*L517)-((J517-(J517*L517))*M517))</f>
-        <v>9809604</v>
+        <v>11064564</v>
       </c>
       <c r="S517" s="24">
         <f t="shared" si="227"/>
-        <v>8837481.0810810812</v>
+        <v>9968075.6756756753</v>
       </c>
     </row>
     <row r="518" spans="1:19" s="81" customFormat="1">
@@ -30368,7 +30368,7 @@
         <v>33</v>
       </c>
       <c r="E534" s="26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F534" s="22">
         <v>1</v>
@@ -30399,18 +30399,18 @@
       </c>
       <c r="P534" s="20">
         <f>(C534+(E534*F534*H534))-N534</f>
-        <v>1517</v>
+        <v>1625</v>
       </c>
       <c r="Q534" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R534" s="24">
         <f>P534*(J534-(J534*L534)-((J534-(J534*L534))*M534))</f>
-        <v>83101260</v>
+        <v>89017500</v>
       </c>
       <c r="S534" s="24">
         <f t="shared" si="227"/>
-        <v>74866000</v>
+        <v>80195945.945945933</v>
       </c>
     </row>
     <row r="535" spans="1:19" s="19" customFormat="1">
@@ -31392,7 +31392,7 @@
         <v>98</v>
       </c>
       <c r="E557" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F557" s="22">
         <v>1</v>
@@ -31423,18 +31423,18 @@
       </c>
       <c r="P557" s="20">
         <f>(C557+(E557*F557*H557))-N557</f>
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="Q557" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R557" s="24">
         <f>P557*(J557-(J557*L557)-((J557-(J557*L557))*M557))</f>
-        <v>7768800</v>
+        <v>8632000</v>
       </c>
       <c r="S557" s="24">
         <f t="shared" si="263"/>
-        <v>6998918.9189189179</v>
+        <v>7776576.5765765756</v>
       </c>
     </row>
     <row r="558" spans="1:19" s="19" customFormat="1">
@@ -32380,7 +32380,7 @@
         <v>40</v>
       </c>
       <c r="E580" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F580" s="22">
         <v>1</v>
@@ -32411,18 +32411,18 @@
       </c>
       <c r="P580" s="20">
         <f>(C580+(E580*F580*H580))-N580</f>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="Q580" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R580" s="24">
         <f>P580*(J580-(J580*L580)-((J580-(J580*L580))*M580))</f>
-        <v>4924224</v>
+        <v>6155280</v>
       </c>
       <c r="S580" s="24">
         <f t="shared" si="263"/>
-        <v>4436237.8378378376</v>
+        <v>5545297.297297297</v>
       </c>
     </row>
     <row r="581" spans="1:20" s="19" customFormat="1">
@@ -32439,7 +32439,7 @@
         <v>40</v>
       </c>
       <c r="E581" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F581" s="22">
         <v>1</v>
@@ -32470,18 +32470,18 @@
       </c>
       <c r="P581" s="20">
         <f>(C581+(E581*F581*H581))-N581</f>
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Q581" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R581" s="24">
         <f>P581*(J581-(J581*L581)-((J581-(J581*L581))*M581))</f>
-        <v>7440618</v>
+        <v>8107938</v>
       </c>
       <c r="S581" s="24">
         <f t="shared" si="263"/>
-        <v>6703259.4594594585</v>
+        <v>7304448.6486486476</v>
       </c>
     </row>
     <row r="582" spans="1:20" s="98" customFormat="1">
@@ -33754,7 +33754,8 @@
         <v>18</v>
       </c>
       <c r="C609" s="51">
-        <v>144</v>
+        <f>((1*12*12)+(576/12))</f>
+        <v>192</v>
       </c>
       <c r="D609" s="21" t="s">
         <v>40</v>
@@ -33790,18 +33791,18 @@
       </c>
       <c r="P609" s="20">
         <f>(C609+(E609*F609*H609))-N609</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="Q609" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R609" s="24">
         <f>P609*(J609-(J609*L609)-((J609-(J609*L609))*M609))</f>
-        <v>1625184</v>
+        <v>2166912</v>
       </c>
       <c r="S609" s="24">
         <f>R609/1.11</f>
-        <v>1464129.7297297297</v>
+        <v>1952172.9729729728</v>
       </c>
     </row>
     <row r="610" spans="1:19" s="19" customFormat="1">
@@ -35420,7 +35421,7 @@
         <v>40</v>
       </c>
       <c r="E642" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F642" s="22">
         <v>1</v>
@@ -35452,18 +35453,18 @@
       </c>
       <c r="P642" s="20">
         <f t="shared" si="284"/>
-        <v>1961</v>
+        <v>2105</v>
       </c>
       <c r="Q642" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R642" s="24">
         <f t="shared" si="285"/>
-        <v>44990242.5</v>
+        <v>48293962.5</v>
       </c>
       <c r="S642" s="24">
         <f t="shared" si="288"/>
-        <v>40531750</v>
+        <v>43508074.324324317</v>
       </c>
     </row>
     <row r="643" spans="1:19" s="72" customFormat="1">
@@ -36493,7 +36494,7 @@
         <v>40</v>
       </c>
       <c r="E662" s="26">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F662" s="22">
         <v>1</v>
@@ -36524,18 +36525,18 @@
       </c>
       <c r="P662" s="20">
         <f t="shared" si="295"/>
-        <v>17229</v>
+        <v>19101</v>
       </c>
       <c r="Q662" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R662" s="24">
         <f t="shared" si="296"/>
-        <v>557702730</v>
+        <v>618299370</v>
       </c>
       <c r="S662" s="24">
         <f t="shared" si="288"/>
-        <v>502434891.89189184</v>
+        <v>557026459.45945942</v>
       </c>
     </row>
     <row r="663" spans="1:19" s="98" customFormat="1">
@@ -37010,7 +37011,7 @@
         <v>40</v>
       </c>
       <c r="E671" s="26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F671" s="22">
         <v>1</v>
@@ -37041,18 +37042,18 @@
       </c>
       <c r="P671" s="20">
         <f t="shared" si="295"/>
-        <v>2766</v>
+        <v>3054</v>
       </c>
       <c r="Q671" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R671" s="24">
         <f t="shared" si="296"/>
-        <v>90912888</v>
+        <v>100378872</v>
       </c>
       <c r="S671" s="24">
         <f t="shared" si="288"/>
-        <v>81903502.702702701</v>
+        <v>90431416.216216207</v>
       </c>
     </row>
     <row r="672" spans="1:19" s="19" customFormat="1">
@@ -37125,7 +37126,7 @@
         <v>40</v>
       </c>
       <c r="E673" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F673" s="6">
         <v>1</v>
@@ -37154,18 +37155,18 @@
       </c>
       <c r="P673" s="3">
         <f t="shared" si="295"/>
-        <v>2178</v>
+        <v>2466</v>
       </c>
       <c r="Q673" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R673" s="8">
         <f t="shared" si="296"/>
-        <v>34708608</v>
+        <v>39298176</v>
       </c>
       <c r="S673" s="8">
         <f t="shared" si="288"/>
-        <v>31269016.216216214</v>
+        <v>35403762.162162162</v>
       </c>
     </row>
     <row r="674" spans="1:19" s="72" customFormat="1">
@@ -37291,7 +37292,7 @@
         <v>40</v>
       </c>
       <c r="E676" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F676" s="22">
         <v>1</v>
@@ -37322,18 +37323,18 @@
       </c>
       <c r="P676" s="20">
         <f t="shared" si="295"/>
-        <v>1143</v>
+        <v>1431</v>
       </c>
       <c r="Q676" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R676" s="24">
         <f t="shared" si="296"/>
-        <v>23337774</v>
+        <v>29218158</v>
       </c>
       <c r="S676" s="24">
         <f t="shared" si="288"/>
-        <v>21025021.62162162</v>
+        <v>26322664.864864863</v>
       </c>
     </row>
     <row r="677" spans="1:19" s="19" customFormat="1">
@@ -37350,7 +37351,7 @@
         <v>40</v>
       </c>
       <c r="E677" s="26">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F677" s="22">
         <v>1</v>
@@ -37381,18 +37382,18 @@
       </c>
       <c r="P677" s="20">
         <f t="shared" si="295"/>
-        <v>13521</v>
+        <v>14097</v>
       </c>
       <c r="Q677" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R677" s="24">
         <f t="shared" si="296"/>
-        <v>242404488</v>
+        <v>252731016</v>
       </c>
       <c r="S677" s="24">
         <f t="shared" si="288"/>
-        <v>218382421.62162161</v>
+        <v>227685599.99999997</v>
       </c>
     </row>
     <row r="678" spans="1:19" s="19" customFormat="1">
@@ -39246,11 +39247,15 @@
       <c r="B715" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="C715" s="3">
+        <f>2292/12</f>
+        <v>191</v>
+      </c>
       <c r="D715" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E715" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F715" s="6">
         <v>1</v>
@@ -39278,18 +39283,18 @@
       </c>
       <c r="P715" s="3">
         <f>(C715+(E715*F715*H715))-N715</f>
-        <v>960</v>
+        <v>2495</v>
       </c>
       <c r="Q715" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R715" s="8">
         <f>P715*(J715-(J715*L715)-((J715-(J715*L715))*M715))</f>
-        <v>8481600</v>
+        <v>22043325</v>
       </c>
       <c r="S715" s="8">
         <f t="shared" ref="S715" si="354">R715/1.11</f>
-        <v>7641081.0810810803</v>
+        <v>19858851.351351351</v>
       </c>
     </row>
     <row r="717" spans="1:19">
@@ -41390,7 +41395,7 @@
         <v>83</v>
       </c>
       <c r="E773" s="26">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F773" s="22">
         <v>1</v>
@@ -41422,18 +41427,18 @@
       </c>
       <c r="P773" s="20">
         <f t="shared" ref="P773:P781" si="364">(C773+(E773*F773*H773))-N773</f>
-        <v>2909</v>
+        <v>3179</v>
       </c>
       <c r="Q773" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R773" s="24">
         <f t="shared" ref="R773:R781" si="365">P773*(J773-(J773*L773)-((J773-(J773*L773))*M773))</f>
-        <v>252450292.5</v>
+        <v>275881567.5</v>
       </c>
       <c r="S773" s="24">
         <f t="shared" si="357"/>
-        <v>227432695.94594592</v>
+        <v>248541952.70270267</v>
       </c>
     </row>
     <row r="774" spans="1:19" s="81" customFormat="1">
@@ -41561,7 +41566,9 @@
       <c r="D776" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="E776" s="75"/>
+      <c r="E776" s="75">
+        <v>5</v>
+      </c>
       <c r="F776" s="76">
         <v>1</v>
       </c>
@@ -41592,18 +41599,18 @@
       </c>
       <c r="P776" s="73">
         <f t="shared" si="364"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q776" s="77" t="s">
         <v>83</v>
       </c>
       <c r="R776" s="16">
         <f t="shared" si="365"/>
-        <v>0</v>
+        <v>12344062.5</v>
       </c>
       <c r="S776" s="16">
         <f t="shared" si="357"/>
-        <v>0</v>
+        <v>11120777.027027026</v>
       </c>
     </row>
     <row r="777" spans="1:19">
@@ -45278,7 +45285,7 @@
         <v>151</v>
       </c>
       <c r="E857" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F857" s="22">
         <v>12</v>
@@ -45310,18 +45317,18 @@
       </c>
       <c r="P857" s="20">
         <f t="shared" si="406"/>
-        <v>1104</v>
+        <v>1248</v>
       </c>
       <c r="Q857" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R857" s="24">
         <f t="shared" si="407"/>
-        <v>12664260</v>
+        <v>14316120</v>
       </c>
       <c r="S857" s="8">
         <f t="shared" si="390"/>
-        <v>11409243.243243242</v>
+        <v>12897405.405405404</v>
       </c>
     </row>
     <row r="858" spans="1:19" s="19" customFormat="1">
@@ -45338,7 +45345,7 @@
         <v>151</v>
       </c>
       <c r="E858" s="26">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F858" s="22">
         <v>12</v>
@@ -45370,18 +45377,18 @@
       </c>
       <c r="P858" s="20">
         <f t="shared" si="406"/>
-        <v>19500</v>
+        <v>21372</v>
       </c>
       <c r="Q858" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R858" s="24">
         <f t="shared" si="407"/>
-        <v>171819375</v>
+        <v>188314035</v>
       </c>
       <c r="S858" s="24">
         <f t="shared" si="390"/>
-        <v>154792229.72972971</v>
+        <v>169652283.78378376</v>
       </c>
     </row>
     <row r="859" spans="1:19" s="19" customFormat="1">
@@ -46398,7 +46405,7 @@
         <v>40</v>
       </c>
       <c r="E877" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F877" s="6">
         <v>1</v>
@@ -46426,18 +46433,18 @@
       </c>
       <c r="P877" s="3">
         <f t="shared" ref="P877" si="416">(C877+(E877*F877*H877))-N877</f>
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Q877" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R877" s="8">
         <f t="shared" ref="R877" si="417">P877*(J877-(J877*L877)-((J877-(J877*L877))*M877))</f>
-        <v>8366400</v>
+        <v>28445760</v>
       </c>
       <c r="S877" s="8">
         <f t="shared" ref="S877" si="418">R877/1.11</f>
-        <v>7537297.297297297</v>
+        <v>25626810.810810808</v>
       </c>
     </row>
     <row r="878" spans="1:19">
@@ -46617,7 +46624,7 @@
         <v>151</v>
       </c>
       <c r="E881" s="93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F881" s="94">
         <v>10</v>
@@ -46648,18 +46655,18 @@
       </c>
       <c r="P881" s="91">
         <f t="shared" si="414"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="Q881" s="95" t="s">
         <v>151</v>
       </c>
       <c r="R881" s="96">
         <f t="shared" si="415"/>
-        <v>1693200</v>
+        <v>5079600</v>
       </c>
       <c r="S881" s="96">
         <f t="shared" si="390"/>
-        <v>1525405.4054054052</v>
+        <v>4576216.2162162159</v>
       </c>
     </row>
     <row r="882" spans="1:19" s="98" customFormat="1">
@@ -46674,7 +46681,7 @@
         <v>151</v>
       </c>
       <c r="E882" s="101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F882" s="102">
         <v>24</v>
@@ -46705,18 +46712,18 @@
       </c>
       <c r="P882" s="99">
         <f t="shared" si="414"/>
-        <v>864</v>
+        <v>1728</v>
       </c>
       <c r="Q882" s="103" t="s">
         <v>151</v>
       </c>
       <c r="R882" s="104">
         <f t="shared" si="415"/>
-        <v>8892288</v>
+        <v>17784576</v>
       </c>
       <c r="S882" s="96">
         <f t="shared" si="390"/>
-        <v>8011070.2702702694</v>
+        <v>16022140.540540539</v>
       </c>
     </row>
     <row r="883" spans="1:19" s="98" customFormat="1">
@@ -47232,7 +47239,7 @@
         <v>19</v>
       </c>
       <c r="E896" s="26">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F896" s="22">
         <v>1</v>
@@ -47264,18 +47271,18 @@
       </c>
       <c r="P896" s="20">
         <f>(C896+(E896*F896*H896))-N896</f>
-        <v>22092</v>
+        <v>25548</v>
       </c>
       <c r="Q896" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R896" s="24">
         <f>P896*(J896-(J896*L896)-((J896-(J896*L896))*M896))</f>
-        <v>88147080</v>
+        <v>101936520</v>
       </c>
       <c r="S896" s="24">
         <f t="shared" si="390"/>
-        <v>79411783.783783779</v>
+        <v>91834702.702702701</v>
       </c>
     </row>
     <row r="897" spans="1:19" s="19" customFormat="1">
@@ -47370,7 +47377,7 @@
         <v>40</v>
       </c>
       <c r="E899" s="26">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F899" s="22">
         <v>1</v>
@@ -47401,18 +47408,18 @@
       </c>
       <c r="P899" s="20">
         <f>(C899+(E899*F899*H899))-N899</f>
-        <v>414</v>
+        <v>774</v>
       </c>
       <c r="Q899" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R899" s="24">
         <f>P899*(J899-(J899*L899)-((J899-(J899*L899))*M899))</f>
-        <v>21441888</v>
+        <v>40087008</v>
       </c>
       <c r="S899" s="24">
         <f t="shared" si="390"/>
-        <v>19317016.216216214</v>
+        <v>36114421.621621616</v>
       </c>
     </row>
     <row r="900" spans="1:19" s="19" customFormat="1">
@@ -48333,7 +48340,7 @@
         <v>19</v>
       </c>
       <c r="E918" s="26">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F918" s="22">
         <v>1</v>
@@ -48363,18 +48370,18 @@
       </c>
       <c r="P918" s="20">
         <f t="shared" si="441"/>
-        <v>720</v>
+        <v>5760</v>
       </c>
       <c r="Q918" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R918" s="24">
         <f t="shared" si="442"/>
-        <v>6193800</v>
+        <v>49550400</v>
       </c>
       <c r="S918" s="24">
         <f t="shared" si="443"/>
-        <v>5579999.9999999991</v>
+        <v>44639999.999999993</v>
       </c>
     </row>
     <row r="919" spans="1:19" s="19" customFormat="1">
@@ -48445,7 +48452,7 @@
         <v>19</v>
       </c>
       <c r="E920" s="26">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F920" s="22">
         <v>1</v>
@@ -48475,18 +48482,18 @@
       </c>
       <c r="P920" s="20">
         <f t="shared" si="441"/>
-        <v>960</v>
+        <v>5376</v>
       </c>
       <c r="Q920" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R920" s="24">
         <f t="shared" si="442"/>
-        <v>8258400</v>
+        <v>46247040</v>
       </c>
       <c r="S920" s="24">
         <f t="shared" si="443"/>
-        <v>7439999.9999999991</v>
+        <v>41664000</v>
       </c>
     </row>
     <row r="921" spans="1:19" s="19" customFormat="1">
@@ -48501,7 +48508,7 @@
         <v>19</v>
       </c>
       <c r="E921" s="26">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F921" s="22">
         <v>1</v>
@@ -48531,18 +48538,18 @@
       </c>
       <c r="P921" s="20">
         <f t="shared" si="441"/>
-        <v>720</v>
+        <v>6336</v>
       </c>
       <c r="Q921" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R921" s="24">
         <f t="shared" si="442"/>
-        <v>6193800</v>
+        <v>54505440</v>
       </c>
       <c r="S921" s="24">
         <f t="shared" si="443"/>
-        <v>5579999.9999999991</v>
+        <v>49103999.999999993</v>
       </c>
     </row>
     <row r="922" spans="1:19" s="19" customFormat="1">
@@ -48776,12 +48783,14 @@
       <c r="B926" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C926" s="20"/>
+      <c r="C926" s="20">
+        <v>143</v>
+      </c>
       <c r="D926" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E926" s="26">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F926" s="22">
         <v>1</v>
@@ -48811,18 +48820,18 @@
       </c>
       <c r="P926" s="20">
         <f t="shared" si="441"/>
-        <v>720</v>
+        <v>4751</v>
       </c>
       <c r="Q926" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R926" s="24">
         <f t="shared" si="442"/>
-        <v>7030800</v>
+        <v>46393515</v>
       </c>
       <c r="S926" s="24">
         <f t="shared" si="443"/>
-        <v>6334054.0540540535</v>
+        <v>41795959.459459454</v>
       </c>
     </row>
     <row r="927" spans="1:19" s="19" customFormat="1">
@@ -48893,7 +48902,7 @@
         <v>19</v>
       </c>
       <c r="E928" s="26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F928" s="22">
         <v>1</v>
@@ -48923,18 +48932,18 @@
       </c>
       <c r="P928" s="20">
         <f t="shared" si="441"/>
-        <v>720</v>
+        <v>3600</v>
       </c>
       <c r="Q928" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R928" s="24">
         <f t="shared" si="442"/>
-        <v>7700400</v>
+        <v>38502000</v>
       </c>
       <c r="S928" s="24">
         <f t="shared" si="443"/>
-        <v>6937297.297297297</v>
+        <v>34686486.486486487</v>
       </c>
     </row>
     <row r="929" spans="1:19" s="19" customFormat="1">
@@ -49812,7 +49821,7 @@
         <v>19</v>
       </c>
       <c r="E951" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F951" s="6">
         <v>1</v>
@@ -49843,18 +49852,18 @@
       </c>
       <c r="P951" s="3">
         <f t="shared" si="450"/>
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="Q951" s="7" t="s">
         <v>19</v>
       </c>
       <c r="R951" s="8">
         <f t="shared" si="451"/>
-        <v>3990000</v>
+        <v>5586000</v>
       </c>
       <c r="S951" s="8">
         <f t="shared" si="390"/>
-        <v>3594594.5945945941</v>
+        <v>5032432.4324324317</v>
       </c>
     </row>
     <row r="952" spans="1:19" s="88" customFormat="1">
@@ -49982,7 +49991,7 @@
         <v>40</v>
       </c>
       <c r="E955" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F955" s="22">
         <v>1</v>
@@ -50013,18 +50022,18 @@
       </c>
       <c r="P955" s="20">
         <f t="shared" si="456"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q955" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R955" s="24">
         <f t="shared" si="457"/>
-        <v>12948000</v>
+        <v>14242800</v>
       </c>
       <c r="S955" s="24">
         <f t="shared" si="390"/>
-        <v>11664864.864864863</v>
+        <v>12831351.351351351</v>
       </c>
     </row>
     <row r="956" spans="1:19" s="81" customFormat="1">
@@ -53647,7 +53656,9 @@
       <c r="D1039" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1039" s="26"/>
+      <c r="E1039" s="26">
+        <v>2</v>
+      </c>
       <c r="F1039" s="22">
         <v>1</v>
       </c>
@@ -53677,18 +53688,18 @@
       </c>
       <c r="P1039" s="20">
         <f t="shared" si="485"/>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q1039" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1039" s="24">
         <f t="shared" si="486"/>
-        <v>9760800</v>
+        <v>13665120</v>
       </c>
       <c r="S1039" s="24">
         <f t="shared" si="462"/>
-        <v>8793513.5135135129</v>
+        <v>12310918.918918917</v>
       </c>
     </row>
     <row r="1040" spans="1:19" s="81" customFormat="1">
@@ -53867,7 +53878,9 @@
       <c r="D1043" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1043" s="26"/>
+      <c r="E1043" s="26">
+        <v>2</v>
+      </c>
       <c r="F1043" s="22">
         <v>1</v>
       </c>
@@ -53897,18 +53910,18 @@
       </c>
       <c r="P1043" s="20">
         <f t="shared" si="485"/>
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="Q1043" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1043" s="24">
         <f t="shared" si="486"/>
-        <v>1328664</v>
+        <v>4217064</v>
       </c>
       <c r="S1043" s="24">
         <f t="shared" si="462"/>
-        <v>1196994.5945945946</v>
+        <v>3799156.7567567565</v>
       </c>
     </row>
     <row r="1044" spans="1:19" s="81" customFormat="1">
@@ -53980,7 +53993,7 @@
         <v>40</v>
       </c>
       <c r="E1045" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1045" s="22">
         <v>1</v>
@@ -54011,18 +54024,18 @@
       </c>
       <c r="P1045" s="20">
         <f t="shared" si="485"/>
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Q1045" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1045" s="24">
         <f t="shared" si="486"/>
-        <v>44849880</v>
+        <v>48634680</v>
       </c>
       <c r="S1045" s="24">
         <f t="shared" si="462"/>
-        <v>40405297.297297291</v>
+        <v>43815027.027027026</v>
       </c>
     </row>
     <row r="1046" spans="1:19" s="19" customFormat="1">
@@ -55079,7 +55092,7 @@
         <v>98</v>
       </c>
       <c r="E1070" s="26">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1070" s="22">
         <v>1</v>
@@ -55110,18 +55123,18 @@
       </c>
       <c r="P1070" s="20">
         <f>(C1070+(E1070*F1070*H1070))-N1070</f>
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="Q1070" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R1070" s="24">
         <f>P1070*(J1070-(J1070*L1070)-((J1070-(J1070*L1070))*M1070))</f>
-        <v>13595400</v>
+        <v>15687000</v>
       </c>
       <c r="S1070" s="24">
         <f t="shared" si="491"/>
-        <v>12248108.108108107</v>
+        <v>14132432.432432432</v>
       </c>
     </row>
     <row r="1071" spans="1:19" s="17" customFormat="1">
@@ -55798,7 +55811,7 @@
         <v>33</v>
       </c>
       <c r="E1088" s="26">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F1088" s="22">
         <v>1</v>
@@ -55830,18 +55843,18 @@
       </c>
       <c r="P1088" s="20">
         <f t="shared" si="496"/>
-        <v>5693</v>
+        <v>6293</v>
       </c>
       <c r="Q1088" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1088" s="24">
         <f t="shared" si="497"/>
-        <v>161371643.125</v>
+        <v>178379018.125</v>
       </c>
       <c r="S1088" s="8">
         <f t="shared" si="491"/>
-        <v>145379858.67117116</v>
+        <v>160701818.13063061</v>
       </c>
     </row>
     <row r="1089" spans="1:19" s="19" customFormat="1">
@@ -55858,7 +55871,7 @@
         <v>33</v>
       </c>
       <c r="E1089" s="26">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1089" s="22">
         <v>1</v>
@@ -55890,18 +55903,18 @@
       </c>
       <c r="P1089" s="20">
         <f t="shared" si="496"/>
-        <v>1850</v>
+        <v>1950</v>
       </c>
       <c r="Q1089" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1089" s="24">
         <f t="shared" si="497"/>
-        <v>52439406.25</v>
+        <v>55273968.75</v>
       </c>
       <c r="S1089" s="24">
         <f t="shared" si="491"/>
-        <v>47242708.333333328</v>
+        <v>49796368.24324324</v>
       </c>
     </row>
     <row r="1090" spans="1:19" s="19" customFormat="1">
@@ -55918,7 +55931,7 @@
         <v>33</v>
       </c>
       <c r="E1090" s="26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1090" s="22">
         <v>1</v>
@@ -55950,18 +55963,18 @@
       </c>
       <c r="P1090" s="20">
         <f t="shared" si="496"/>
-        <v>763</v>
+        <v>1013</v>
       </c>
       <c r="Q1090" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1090" s="24">
         <f t="shared" si="497"/>
-        <v>20295800</v>
+        <v>26945800</v>
       </c>
       <c r="S1090" s="24">
         <f t="shared" si="491"/>
-        <v>18284504.504504502</v>
+        <v>24275495.495495494</v>
       </c>
     </row>
     <row r="1091" spans="1:19" s="98" customFormat="1">
@@ -55976,7 +55989,7 @@
         <v>33</v>
       </c>
       <c r="E1091" s="101">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F1091" s="102">
         <v>1</v>
@@ -56008,18 +56021,18 @@
       </c>
       <c r="P1091" s="99">
         <f t="shared" si="496"/>
-        <v>1850</v>
+        <v>2350</v>
       </c>
       <c r="Q1091" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R1091" s="104">
         <f t="shared" si="497"/>
-        <v>49210000</v>
+        <v>62510000</v>
       </c>
       <c r="S1091" s="96">
         <f t="shared" si="491"/>
-        <v>44333333.333333328</v>
+        <v>56315315.315315314</v>
       </c>
     </row>
     <row r="1092" spans="1:19">
@@ -56148,7 +56161,7 @@
         <v>33</v>
       </c>
       <c r="E1094" s="26">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F1094" s="22">
         <v>1</v>
@@ -56180,18 +56193,18 @@
       </c>
       <c r="P1094" s="20">
         <f t="shared" si="496"/>
-        <v>6967</v>
+        <v>7417</v>
       </c>
       <c r="Q1094" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1094" s="24">
         <f t="shared" si="497"/>
-        <v>163894320.625</v>
+        <v>174480289.375</v>
       </c>
       <c r="S1094" s="24">
         <f t="shared" si="491"/>
-        <v>147652541.1036036</v>
+        <v>157189449.88738737</v>
       </c>
     </row>
     <row r="1095" spans="1:19" s="19" customFormat="1">
@@ -56208,7 +56221,7 @@
         <v>33</v>
       </c>
       <c r="E1095" s="26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1095" s="22">
         <v>1</v>
@@ -56240,18 +56253,18 @@
       </c>
       <c r="P1095" s="20">
         <f t="shared" si="496"/>
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="Q1095" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1095" s="24">
         <f t="shared" si="497"/>
-        <v>45872531.25</v>
+        <v>48224968.75</v>
       </c>
       <c r="S1095" s="24">
         <f t="shared" si="491"/>
-        <v>41326604.729729727</v>
+        <v>43445917.79279279</v>
       </c>
     </row>
     <row r="1096" spans="1:19" s="88" customFormat="1">
@@ -58195,7 +58208,7 @@
         <v>19</v>
       </c>
       <c r="E1146" s="26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1146" s="22">
         <v>1</v>
@@ -58227,18 +58240,18 @@
       </c>
       <c r="P1146" s="20">
         <f t="shared" si="517"/>
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="Q1146" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1146" s="24">
         <f t="shared" si="518"/>
-        <v>6421905</v>
+        <v>6643350</v>
       </c>
       <c r="S1146" s="24">
         <f t="shared" si="519"/>
-        <v>5785499.9999999991</v>
+        <v>5984999.9999999991</v>
       </c>
     </row>
     <row r="1147" spans="1:19" s="19" customFormat="1">
@@ -58947,7 +58960,7 @@
         <v>19</v>
       </c>
       <c r="E1160" s="101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1160" s="102">
         <v>1</v>
@@ -58978,18 +58991,18 @@
       </c>
       <c r="P1160" s="99">
         <f t="shared" ref="P1160:P1168" si="530">(C1160+(E1160*F1160*H1160))-N1160</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Q1160" s="103" t="s">
         <v>19</v>
       </c>
       <c r="R1160" s="104">
         <f t="shared" ref="R1160:R1168" si="531">P1160*(J1160-(J1160*L1160)-((J1160-(J1160*L1160))*M1160))</f>
-        <v>617520</v>
+        <v>926280</v>
       </c>
       <c r="S1160" s="104">
         <f t="shared" si="491"/>
-        <v>556324.32432432426</v>
+        <v>834486.48648648639</v>
       </c>
     </row>
     <row r="1161" spans="1:19" s="88" customFormat="1">
@@ -59004,7 +59017,7 @@
         <v>19</v>
       </c>
       <c r="E1161" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1161" s="94">
         <v>1</v>
@@ -59035,18 +59048,18 @@
       </c>
       <c r="P1161" s="91">
         <f t="shared" si="530"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Q1161" s="95" t="s">
         <v>19</v>
       </c>
       <c r="R1161" s="96">
         <f t="shared" si="531"/>
-        <v>737040</v>
+        <v>1105560</v>
       </c>
       <c r="S1161" s="96">
         <f t="shared" si="491"/>
-        <v>663999.99999999988</v>
+        <v>995999.99999999988</v>
       </c>
     </row>
     <row r="1162" spans="1:19" s="19" customFormat="1">
@@ -59063,7 +59076,7 @@
         <v>19</v>
       </c>
       <c r="E1162" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F1162" s="22">
         <v>1</v>
@@ -59094,18 +59107,18 @@
       </c>
       <c r="P1162" s="20">
         <f t="shared" si="530"/>
-        <v>1699</v>
+        <v>1939</v>
       </c>
       <c r="Q1162" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1162" s="24">
         <f t="shared" si="531"/>
-        <v>27145772.5</v>
+        <v>30980372.5</v>
       </c>
       <c r="S1162" s="8">
         <f t="shared" si="491"/>
-        <v>24455650.9009009</v>
+        <v>27910245.495495494</v>
       </c>
     </row>
     <row r="1163" spans="1:19" s="19" customFormat="1">
@@ -59922,11 +59935,11 @@
     <row r="1191" spans="10:21" ht="16.5">
       <c r="R1191" s="27">
         <f>SUM(R6:R1179)</f>
-        <v>13372750851.599998</v>
+        <v>14305716767.349998</v>
       </c>
       <c r="S1191" s="27">
         <f>SUM(S6:S1179)</f>
-        <v>12047523289.729736</v>
+        <v>12888033123.738747</v>
       </c>
       <c r="U1191" s="8"/>
     </row>

--- a/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
+++ b/Share/rekap pembukuan 2023/4-STOCK 2023.xlsx
@@ -3979,10 +3979,10 @@
   <dimension ref="A1:U1197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B706" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C1060" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N717" sqref="N717"/>
+      <selection pane="bottomRight" activeCell="E1100" sqref="E1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4948,7 +4948,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -4979,18 +4979,18 @@
       </c>
       <c r="P25" s="3">
         <f t="shared" ref="P25:P31" si="6">(C25+(E25*F25*H25))-N25</f>
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" ref="R25:R31" si="7">P25*(J25-(J25*L25)-((J25-(J25*L25))*M25))</f>
-        <v>5480763.75</v>
+        <v>7695213.75</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="0"/>
-        <v>4937625</v>
+        <v>6932624.9999999991</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5007,7 +5007,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -5038,18 +5038,18 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="7"/>
-        <v>3142125</v>
+        <v>6284250</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="0"/>
-        <v>2830743.2432432431</v>
+        <v>5661486.4864864862</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="72" customFormat="1">
@@ -6320,7 +6320,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="93">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F57" s="94">
         <v>1</v>
@@ -6348,18 +6348,18 @@
       </c>
       <c r="P57" s="91">
         <f>(C57+(E57*F57*H57))-N57</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="95" t="s">
         <v>98</v>
       </c>
       <c r="R57" s="96">
         <f>P57*(J57-(J57*L57)-((J57-(J57*L57))*M57))</f>
-        <v>2980000</v>
+        <v>7450000</v>
       </c>
       <c r="S57" s="96">
         <f t="shared" ref="S57:S58" si="26">R57/1.11</f>
-        <v>2684684.6846846845</v>
+        <v>6711711.7117117113</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="88" customFormat="1">
@@ -10218,7 +10218,7 @@
         <v>83</v>
       </c>
       <c r="E128" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F128" s="22">
         <v>1</v>
@@ -10250,18 +10250,18 @@
       </c>
       <c r="P128" s="20">
         <f t="shared" si="45"/>
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="Q128" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R128" s="24">
         <f t="shared" si="46"/>
-        <v>10851802.5</v>
+        <v>12228352.5</v>
       </c>
       <c r="S128" s="24">
         <f t="shared" si="47"/>
-        <v>9776398.6486486476</v>
+        <v>11016533.783783782</v>
       </c>
     </row>
     <row r="129" spans="1:19" s="98" customFormat="1">
@@ -10765,7 +10765,7 @@
         <v>83</v>
       </c>
       <c r="E138" s="26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F138" s="22">
         <v>1</v>
@@ -10796,18 +10796,18 @@
       </c>
       <c r="P138" s="20">
         <f t="shared" ref="P138:P145" si="57">(C138+(E138*F138*H138))-N138</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q138" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R138" s="24">
         <f t="shared" ref="R138:R145" si="58">P138*(J138-(J138*L138)-((J138-(J138*L138))*M138))</f>
-        <v>14342400</v>
+        <v>17928000</v>
       </c>
       <c r="S138" s="24">
         <f t="shared" si="47"/>
-        <v>12921081.081081079</v>
+        <v>16151351.351351351</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="19" customFormat="1">
@@ -10824,7 +10824,7 @@
         <v>83</v>
       </c>
       <c r="E139" s="26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F139" s="22">
         <v>1</v>
@@ -10855,18 +10855,18 @@
       </c>
       <c r="P139" s="20">
         <f t="shared" si="57"/>
-        <v>843</v>
+        <v>1043</v>
       </c>
       <c r="Q139" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R139" s="24">
         <f t="shared" si="58"/>
-        <v>22250142</v>
+        <v>27528942</v>
       </c>
       <c r="S139" s="24">
         <f t="shared" si="47"/>
-        <v>20045172.97297297</v>
+        <v>24800848.648648646</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="19" customFormat="1">
@@ -10883,7 +10883,7 @@
         <v>83</v>
       </c>
       <c r="E140" s="26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F140" s="22">
         <v>1</v>
@@ -10914,18 +10914,18 @@
       </c>
       <c r="P140" s="20">
         <f t="shared" si="57"/>
-        <v>567</v>
+        <v>687</v>
       </c>
       <c r="Q140" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R140" s="24">
         <f t="shared" si="58"/>
-        <v>23154012</v>
+        <v>28054332</v>
       </c>
       <c r="S140" s="24">
         <f t="shared" si="47"/>
-        <v>20859470.270270269</v>
+        <v>25274172.97297297</v>
       </c>
     </row>
     <row r="141" spans="1:19" s="19" customFormat="1">
@@ -10942,7 +10942,7 @@
         <v>83</v>
       </c>
       <c r="E141" s="26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F141" s="22">
         <v>1</v>
@@ -10973,18 +10973,18 @@
       </c>
       <c r="P141" s="20">
         <f t="shared" si="57"/>
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="Q141" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R141" s="24">
         <f t="shared" si="58"/>
-        <v>33846570</v>
+        <v>38428170</v>
       </c>
       <c r="S141" s="24">
         <f t="shared" si="47"/>
-        <v>30492405.405405402</v>
+        <v>34619972.972972967</v>
       </c>
     </row>
     <row r="142" spans="1:19" s="19" customFormat="1">
@@ -11001,7 +11001,7 @@
         <v>83</v>
       </c>
       <c r="E142" s="26">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F142" s="22">
         <v>1</v>
@@ -11032,18 +11032,18 @@
       </c>
       <c r="P142" s="20">
         <f t="shared" si="57"/>
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="Q142" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R142" s="24">
         <f t="shared" si="58"/>
-        <v>32071200</v>
+        <v>37051200</v>
       </c>
       <c r="S142" s="24">
         <f t="shared" si="47"/>
-        <v>28892972.97297297</v>
+        <v>33379459.459459458</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="19" customFormat="1">
@@ -11058,7 +11058,7 @@
         <v>83</v>
       </c>
       <c r="E143" s="26">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F143" s="22">
         <v>1</v>
@@ -11089,18 +11089,18 @@
       </c>
       <c r="P143" s="20">
         <f t="shared" si="57"/>
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Q143" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R143" s="24">
         <f t="shared" si="58"/>
-        <v>35109000</v>
+        <v>38844000</v>
       </c>
       <c r="S143" s="24">
         <f t="shared" si="47"/>
-        <v>31629729.729729727</v>
+        <v>34994594.59459459</v>
       </c>
     </row>
     <row r="144" spans="1:19" s="19" customFormat="1">
@@ -11272,7 +11272,7 @@
         <v>33</v>
       </c>
       <c r="E148" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F148" s="22">
         <v>50</v>
@@ -11304,18 +11304,18 @@
       </c>
       <c r="P148" s="20">
         <f>(C148+(E148*F148*H148))-N148</f>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q148" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R148" s="24">
         <f>P148*(J148-(J148*L148)-((J148-(J148*L148))*M148))</f>
-        <v>1537812.5</v>
+        <v>3844531.25</v>
       </c>
       <c r="S148" s="24">
         <f t="shared" si="47"/>
-        <v>1385416.6666666665</v>
+        <v>3463541.6666666665</v>
       </c>
     </row>
     <row r="149" spans="1:19" s="19" customFormat="1">
@@ -11330,7 +11330,7 @@
         <v>33</v>
       </c>
       <c r="E149" s="26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F149" s="22">
         <v>50</v>
@@ -11362,18 +11362,18 @@
       </c>
       <c r="P149" s="20">
         <f>(C149+(E149*F149*H149))-N149</f>
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q149" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R149" s="24">
         <f>P149*(J149-(J149*L149)-((J149-(J149*L149))*M149))</f>
-        <v>14183203.125</v>
+        <v>16209375</v>
       </c>
       <c r="S149" s="24">
         <f t="shared" si="47"/>
-        <v>12777660.472972972</v>
+        <v>14603040.540540539</v>
       </c>
     </row>
     <row r="150" spans="1:19" s="98" customFormat="1">
@@ -11388,7 +11388,7 @@
         <v>33</v>
       </c>
       <c r="E150" s="101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" s="102">
         <v>20</v>
@@ -11420,18 +11420,18 @@
       </c>
       <c r="P150" s="99">
         <f>(C150+(E150*F150*H150))-N150</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q150" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R150" s="104">
         <f>P150*(J150-(J150*L150)-((J150-(J150*L150))*M150))</f>
-        <v>7315000</v>
+        <v>8046500</v>
       </c>
       <c r="S150" s="104">
         <f t="shared" si="47"/>
-        <v>6590090.0900900895</v>
+        <v>7249099.0990990987</v>
       </c>
     </row>
     <row r="151" spans="1:19" s="19" customFormat="1">
@@ -11646,7 +11646,7 @@
         <v>33</v>
       </c>
       <c r="E155" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F155" s="22">
         <v>20</v>
@@ -11677,18 +11677,18 @@
       </c>
       <c r="P155" s="20">
         <f>(C155+(E155*F155*H155))-N155</f>
-        <v>4810</v>
+        <v>5010</v>
       </c>
       <c r="Q155" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R155" s="24">
         <f>P155*(J155-(J155*L155)-((J155-(J155*L155))*M155))</f>
-        <v>17166890</v>
+        <v>17880690</v>
       </c>
       <c r="S155" s="24">
         <f t="shared" si="47"/>
-        <v>15465666.666666666</v>
+        <v>16108729.729729729</v>
       </c>
     </row>
     <row r="156" spans="1:19" s="19" customFormat="1">
@@ -12122,7 +12122,7 @@
         <v>40</v>
       </c>
       <c r="E165" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165" s="84">
         <v>1</v>
@@ -12154,18 +12154,18 @@
       </c>
       <c r="P165" s="79">
         <f t="shared" si="65"/>
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="Q165" s="85" t="s">
         <v>40</v>
       </c>
       <c r="R165" s="86">
         <f t="shared" si="66"/>
-        <v>3112200</v>
+        <v>4668300</v>
       </c>
       <c r="S165" s="86">
         <f t="shared" si="47"/>
-        <v>2803783.7837837837</v>
+        <v>4205675.6756756753</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="19" customFormat="1">
@@ -12298,7 +12298,7 @@
         <v>40</v>
       </c>
       <c r="E168" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" s="22">
         <v>1</v>
@@ -12330,18 +12330,18 @@
       </c>
       <c r="P168" s="20">
         <f t="shared" si="65"/>
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="Q168" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R168" s="24">
         <f t="shared" si="66"/>
-        <v>7660800</v>
+        <v>9576000</v>
       </c>
       <c r="S168" s="24">
         <f t="shared" si="47"/>
-        <v>6901621.6216216208</v>
+        <v>8627027.0270270258</v>
       </c>
     </row>
     <row r="169" spans="1:19" s="19" customFormat="1">
@@ -12356,7 +12356,7 @@
         <v>40</v>
       </c>
       <c r="E169" s="26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F169" s="22">
         <v>1</v>
@@ -12388,18 +12388,18 @@
       </c>
       <c r="P169" s="20">
         <f t="shared" ref="P169" si="70">(C169+(E169*F169*H169))-N169</f>
-        <v>288</v>
+        <v>540</v>
       </c>
       <c r="Q169" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R169" s="24">
         <f t="shared" ref="R169" si="71">P169*(J169-(J169*L169)-((J169-(J169*L169))*M169))</f>
-        <v>9911160</v>
+        <v>18583425</v>
       </c>
       <c r="S169" s="24">
         <f t="shared" ref="S169" si="72">R169/1.11</f>
-        <v>8928972.9729729723</v>
+        <v>16741824.324324323</v>
       </c>
     </row>
     <row r="170" spans="1:19" s="19" customFormat="1">
@@ -12532,7 +12532,7 @@
         <v>40</v>
       </c>
       <c r="E172" s="26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F172" s="22">
         <v>1</v>
@@ -12564,18 +12564,18 @@
       </c>
       <c r="P172" s="20">
         <f t="shared" ref="P172" si="73">(C172+(E172*F172*H172))-N172</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q172" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R172" s="24">
         <f t="shared" ref="R172" si="74">P172*(J172-(J172*L172)-((J172-(J172*L172))*M172))</f>
-        <v>6463800</v>
+        <v>12927600</v>
       </c>
       <c r="S172" s="24">
         <f t="shared" ref="S172" si="75">R172/1.11</f>
-        <v>5823243.2432432426</v>
+        <v>11646486.486486485</v>
       </c>
     </row>
     <row r="173" spans="1:19" s="19" customFormat="1">
@@ -13364,7 +13364,7 @@
         <v>40</v>
       </c>
       <c r="E187" s="26">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="F187" s="22">
         <v>1</v>
@@ -13395,18 +13395,18 @@
       </c>
       <c r="P187" s="20">
         <f t="shared" si="82"/>
-        <v>14819</v>
+        <v>15827</v>
       </c>
       <c r="Q187" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R187" s="24">
         <f t="shared" si="83"/>
-        <v>667877511</v>
+        <v>713307063</v>
       </c>
       <c r="S187" s="24">
         <f t="shared" si="47"/>
-        <v>601691451.35135126</v>
+        <v>642618975.67567563</v>
       </c>
     </row>
     <row r="188" spans="1:19" s="19" customFormat="1">
@@ -13423,7 +13423,7 @@
         <v>40</v>
       </c>
       <c r="E188" s="26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F188" s="22">
         <v>1</v>
@@ -13454,18 +13454,18 @@
       </c>
       <c r="P188" s="20">
         <f t="shared" si="82"/>
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="Q188" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R188" s="24">
         <f t="shared" si="83"/>
-        <v>38903760</v>
+        <v>47240280</v>
       </c>
       <c r="S188" s="24">
         <f t="shared" si="47"/>
-        <v>35048432.432432428</v>
+        <v>42558810.810810804</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="19" customFormat="1">
@@ -13482,7 +13482,7 @@
         <v>40</v>
       </c>
       <c r="E189" s="26">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F189" s="22">
         <v>1</v>
@@ -13513,18 +13513,18 @@
       </c>
       <c r="P189" s="20">
         <f t="shared" si="82"/>
-        <v>2700</v>
+        <v>3492</v>
       </c>
       <c r="Q189" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R189" s="24">
         <f t="shared" si="83"/>
-        <v>105551100</v>
+        <v>136512756</v>
       </c>
       <c r="S189" s="24">
         <f t="shared" si="47"/>
-        <v>95091081.081081077</v>
+        <v>122984464.86486486</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="98" customFormat="1">
@@ -13539,7 +13539,7 @@
         <v>40</v>
       </c>
       <c r="E190" s="101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F190" s="102">
         <v>1</v>
@@ -13570,18 +13570,18 @@
       </c>
       <c r="P190" s="99">
         <f t="shared" si="82"/>
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="Q190" s="103" t="s">
         <v>40</v>
       </c>
       <c r="R190" s="104">
         <f t="shared" si="83"/>
-        <v>7977960</v>
+        <v>11169144</v>
       </c>
       <c r="S190" s="104">
         <f t="shared" si="47"/>
-        <v>7187351.3513513505</v>
+        <v>10062291.891891891</v>
       </c>
     </row>
     <row r="191" spans="1:19" s="19" customFormat="1">
@@ -13987,7 +13987,7 @@
         <v>40</v>
       </c>
       <c r="E199" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F199" s="22">
         <v>1</v>
@@ -14020,18 +14020,18 @@
       </c>
       <c r="P199" s="20">
         <f t="shared" ref="P199" si="89">(C199+(E199*F199*H199))-N199</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q199" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R199" s="24">
         <f t="shared" ref="R199" si="90">P199*(J199-(J199*L199)-((J199-(J199*L199))*M199))</f>
-        <v>9875250</v>
+        <v>13167000</v>
       </c>
       <c r="S199" s="24">
         <f t="shared" ref="S199" si="91">R199/1.11</f>
-        <v>8896621.6216216199</v>
+        <v>11862162.162162161</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="19" customFormat="1">
@@ -14048,7 +14048,7 @@
         <v>40</v>
       </c>
       <c r="E200" s="26">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F200" s="22">
         <v>1</v>
@@ -14081,18 +14081,18 @@
       </c>
       <c r="P200" s="20">
         <f t="shared" si="84"/>
-        <v>6639</v>
+        <v>6939</v>
       </c>
       <c r="Q200" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R200" s="24">
         <f t="shared" si="85"/>
-        <v>317875320</v>
+        <v>332239320</v>
       </c>
       <c r="S200" s="24">
         <f t="shared" si="47"/>
-        <v>286374162.16216213</v>
+        <v>299314702.7027027</v>
       </c>
     </row>
     <row r="201" spans="1:19" s="19" customFormat="1">
@@ -14107,7 +14107,7 @@
         <v>40</v>
       </c>
       <c r="E201" s="26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F201" s="22">
         <v>1</v>
@@ -14140,18 +14140,18 @@
       </c>
       <c r="P201" s="20">
         <f t="shared" ref="P201" si="92">(C201+(E201*F201*H201))-N201</f>
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="Q201" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R201" s="24">
         <f t="shared" ref="R201" si="93">P201*(J201-(J201*L201)-((J201-(J201*L201))*M201))</f>
-        <v>34473600</v>
+        <v>51710400</v>
       </c>
       <c r="S201" s="24">
         <f t="shared" ref="S201" si="94">R201/1.11</f>
-        <v>31057297.297297295</v>
+        <v>46585945.945945941</v>
       </c>
     </row>
     <row r="202" spans="1:19" s="98" customFormat="1">
@@ -14283,7 +14283,7 @@
         <v>40</v>
       </c>
       <c r="E204" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F204" s="22">
         <v>1</v>
@@ -14316,18 +14316,18 @@
       </c>
       <c r="P204" s="20">
         <f t="shared" si="84"/>
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="Q204" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R204" s="24">
         <f t="shared" si="85"/>
-        <v>33915000</v>
+        <v>37306500</v>
       </c>
       <c r="S204" s="24">
         <f t="shared" si="47"/>
-        <v>30554054.054054052</v>
+        <v>33609459.459459454</v>
       </c>
     </row>
     <row r="205" spans="1:19" s="81" customFormat="1">
@@ -15685,7 +15685,7 @@
         <v>40</v>
       </c>
       <c r="E229" s="101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F229" s="102">
         <v>1</v>
@@ -15715,18 +15715,18 @@
       </c>
       <c r="P229" s="99">
         <f t="shared" ref="P229" si="110">(C229+(E229*F229*H229))-N229</f>
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="Q229" s="103" t="s">
         <v>40</v>
       </c>
       <c r="R229" s="104">
         <f t="shared" ref="R229" si="111">P229*(J229-(J229*L229)-((J229-(J229*L229))*M229))</f>
-        <v>4517856</v>
+        <v>7529760</v>
       </c>
       <c r="S229" s="104">
         <f t="shared" ref="S229" si="112">R229/1.11</f>
-        <v>4070140.5405405401</v>
+        <v>6783567.5675675673</v>
       </c>
     </row>
     <row r="230" spans="1:19" s="81" customFormat="1">
@@ -16313,7 +16313,7 @@
         <v>40</v>
       </c>
       <c r="E240" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F240" s="22">
         <v>1</v>
@@ -16343,18 +16343,18 @@
       </c>
       <c r="P240" s="20">
         <f t="shared" ref="P240" si="119">(C240+(E240*F240*H240))-N240</f>
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="Q240" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R240" s="24">
         <f t="shared" ref="R240" si="120">P240*(J240-(J240*L240)-((J240-(J240*L240))*M240))</f>
-        <v>8336520</v>
+        <v>11671128</v>
       </c>
       <c r="S240" s="24">
         <f t="shared" ref="S240" si="121">R240/1.11</f>
-        <v>7510378.3783783773</v>
+        <v>10514529.729729729</v>
       </c>
     </row>
     <row r="241" spans="1:19" s="19" customFormat="1">
@@ -16933,7 +16933,7 @@
         <v>151</v>
       </c>
       <c r="E252" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F252" s="22">
         <v>6</v>
@@ -16965,18 +16965,18 @@
       </c>
       <c r="P252" s="20">
         <f t="shared" si="130"/>
-        <v>2292</v>
+        <v>2436</v>
       </c>
       <c r="Q252" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R252" s="24">
         <f t="shared" si="131"/>
-        <v>17147025</v>
+        <v>18224325</v>
       </c>
       <c r="S252" s="24">
         <f t="shared" si="113"/>
-        <v>15447770.270270269</v>
+        <v>16418310.81081081</v>
       </c>
     </row>
     <row r="253" spans="1:19" s="19" customFormat="1">
@@ -17051,7 +17051,7 @@
         <v>151</v>
       </c>
       <c r="E254" s="26">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="F254" s="22">
         <v>1</v>
@@ -17083,18 +17083,18 @@
       </c>
       <c r="P254" s="20">
         <f t="shared" si="130"/>
-        <v>25741</v>
+        <v>31357</v>
       </c>
       <c r="Q254" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R254" s="24">
         <f t="shared" si="131"/>
-        <v>254626754.375</v>
+        <v>310179524.375</v>
       </c>
       <c r="S254" s="24">
         <f t="shared" si="113"/>
-        <v>229393472.4099099</v>
+        <v>279441012.95045042</v>
       </c>
     </row>
     <row r="255" spans="1:19" s="19" customFormat="1">
@@ -17169,7 +17169,7 @@
         <v>151</v>
       </c>
       <c r="E256" s="26">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F256" s="22">
         <v>6</v>
@@ -17201,18 +17201,18 @@
       </c>
       <c r="P256" s="20">
         <f t="shared" si="130"/>
-        <v>8580</v>
+        <v>9660</v>
       </c>
       <c r="Q256" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R256" s="24">
         <f t="shared" si="131"/>
-        <v>164038875</v>
+        <v>184687125</v>
       </c>
       <c r="S256" s="24">
         <f t="shared" si="113"/>
-        <v>147782770.27027026</v>
+        <v>166384797.29729727</v>
       </c>
     </row>
     <row r="257" spans="1:19" s="19" customFormat="1">
@@ -17285,7 +17285,7 @@
         <v>151</v>
       </c>
       <c r="E258" s="26">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F258" s="22">
         <v>8</v>
@@ -17317,18 +17317,18 @@
       </c>
       <c r="P258" s="20">
         <f t="shared" si="130"/>
-        <v>4416</v>
+        <v>5376</v>
       </c>
       <c r="Q258" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R258" s="24">
         <f t="shared" si="131"/>
-        <v>108655680</v>
+        <v>132276480</v>
       </c>
       <c r="S258" s="24">
         <f t="shared" si="113"/>
-        <v>97887999.999999985</v>
+        <v>119167999.99999999</v>
       </c>
     </row>
     <row r="259" spans="1:19" s="19" customFormat="1">
@@ -17403,7 +17403,7 @@
         <v>151</v>
       </c>
       <c r="E260" s="26">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F260" s="22">
         <v>6</v>
@@ -17435,18 +17435,18 @@
       </c>
       <c r="P260" s="20">
         <f t="shared" si="130"/>
-        <v>2366</v>
+        <v>3122</v>
       </c>
       <c r="Q260" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R260" s="24">
         <f t="shared" si="131"/>
-        <v>81619606.25</v>
+        <v>107699243.75</v>
       </c>
       <c r="S260" s="24">
         <f>R260/1.11</f>
-        <v>73531176.801801801</v>
+        <v>97026345.720720708</v>
       </c>
     </row>
     <row r="261" spans="1:19" s="19" customFormat="1">
@@ -18017,7 +18017,7 @@
         <v>151</v>
       </c>
       <c r="E272" s="26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F272" s="22">
         <v>12</v>
@@ -18048,18 +18048,18 @@
       </c>
       <c r="P272" s="20">
         <f t="shared" si="155"/>
-        <v>9504</v>
+        <v>10224</v>
       </c>
       <c r="Q272" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R272" s="24">
         <f t="shared" si="156"/>
-        <v>114380640</v>
+        <v>123045840</v>
       </c>
       <c r="S272" s="24">
         <f t="shared" si="113"/>
-        <v>103045621.62162161</v>
+        <v>110852108.1081081</v>
       </c>
     </row>
     <row r="273" spans="1:19" s="19" customFormat="1">
@@ -18076,7 +18076,7 @@
         <v>151</v>
       </c>
       <c r="E273" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F273" s="22">
         <v>6</v>
@@ -18107,18 +18107,18 @@
       </c>
       <c r="P273" s="20">
         <f t="shared" si="155"/>
-        <v>1944</v>
+        <v>2088</v>
       </c>
       <c r="Q273" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R273" s="24">
         <f t="shared" si="156"/>
-        <v>43565040</v>
+        <v>46792080</v>
       </c>
       <c r="S273" s="24">
         <f t="shared" si="113"/>
-        <v>39247783.783783779</v>
+        <v>42155027.027027026</v>
       </c>
     </row>
     <row r="274" spans="1:19" s="19" customFormat="1">
@@ -18135,7 +18135,7 @@
         <v>151</v>
       </c>
       <c r="E274" s="26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F274" s="22">
         <v>8</v>
@@ -18166,18 +18166,18 @@
       </c>
       <c r="P274" s="20">
         <f t="shared" si="155"/>
-        <v>1248</v>
+        <v>1344</v>
       </c>
       <c r="Q274" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R274" s="24">
         <f t="shared" si="156"/>
-        <v>35218560</v>
+        <v>37927680</v>
       </c>
       <c r="S274" s="24">
         <f t="shared" si="113"/>
-        <v>31728432.432432428</v>
+        <v>34169081.081081077</v>
       </c>
     </row>
     <row r="275" spans="1:19" s="19" customFormat="1">
@@ -18194,7 +18194,7 @@
         <v>151</v>
       </c>
       <c r="E275" s="26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F275" s="22">
         <v>6</v>
@@ -18225,18 +18225,18 @@
       </c>
       <c r="P275" s="20">
         <f t="shared" si="155"/>
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="Q275" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R275" s="24">
         <f t="shared" si="156"/>
-        <v>25547400</v>
+        <v>28386000</v>
       </c>
       <c r="S275" s="24">
         <f t="shared" si="113"/>
-        <v>23015675.675675675</v>
+        <v>25572972.97297297</v>
       </c>
     </row>
     <row r="276" spans="1:19" s="19" customFormat="1">
@@ -18253,7 +18253,7 @@
         <v>151</v>
       </c>
       <c r="E276" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F276" s="22">
         <v>4</v>
@@ -18284,18 +18284,18 @@
       </c>
       <c r="P276" s="20">
         <f t="shared" si="155"/>
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="Q276" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R276" s="24">
         <f t="shared" si="156"/>
-        <v>9964980</v>
+        <v>11339460</v>
       </c>
       <c r="S276" s="24">
         <f t="shared" si="113"/>
-        <v>8977459.4594594594</v>
+        <v>10215729.729729729</v>
       </c>
     </row>
     <row r="277" spans="1:19" s="19" customFormat="1">
@@ -18312,7 +18312,7 @@
         <v>151</v>
       </c>
       <c r="E277" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F277" s="22">
         <v>4</v>
@@ -18343,18 +18343,18 @@
       </c>
       <c r="P277" s="20">
         <f t="shared" si="155"/>
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="Q277" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R277" s="24">
         <f t="shared" si="156"/>
-        <v>14760720</v>
+        <v>17788560</v>
       </c>
       <c r="S277" s="24">
         <f t="shared" si="113"/>
-        <v>13297945.945945945</v>
+        <v>16025729.729729729</v>
       </c>
     </row>
     <row r="278" spans="1:19" s="19" customFormat="1">
@@ -18490,7 +18490,7 @@
         <v>151</v>
       </c>
       <c r="E282" s="26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F282" s="22">
         <v>12</v>
@@ -18522,18 +18522,18 @@
       </c>
       <c r="P282" s="20">
         <f>(C282+(E282*F282*H282))-N282</f>
-        <v>4716</v>
+        <v>4860</v>
       </c>
       <c r="Q282" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R282" s="24">
         <f>P282*(J282-(J282*L282)-((J282-(J282*L282))*M282))</f>
-        <v>72915255</v>
+        <v>75141675</v>
       </c>
       <c r="S282" s="24">
         <f t="shared" si="113"/>
-        <v>65689418.918918915</v>
+        <v>67695202.702702701</v>
       </c>
     </row>
     <row r="283" spans="1:19" s="19" customFormat="1">
@@ -18608,7 +18608,7 @@
         <v>151</v>
       </c>
       <c r="E284" s="26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F284" s="22">
         <v>12</v>
@@ -18640,18 +18640,18 @@
       </c>
       <c r="P284" s="20">
         <f>(C284+(E284*F284*H284))-N284</f>
-        <v>4464</v>
+        <v>5040</v>
       </c>
       <c r="Q284" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R284" s="24">
         <f>P284*(J284-(J284*L284)-((J284-(J284*L284))*M284))</f>
-        <v>88685730</v>
+        <v>100129050</v>
       </c>
       <c r="S284" s="24">
         <f t="shared" si="113"/>
-        <v>79897054.054054052</v>
+        <v>90206351.351351351</v>
       </c>
     </row>
     <row r="285" spans="1:19" s="19" customFormat="1">
@@ -19551,7 +19551,7 @@
         <v>40</v>
       </c>
       <c r="E305" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F305" s="84">
         <v>1</v>
@@ -19583,18 +19583,18 @@
       </c>
       <c r="P305" s="79">
         <f t="shared" ref="P305:P310" si="164">(C305+(E305*F305*H305))-N305</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q305" s="85" t="s">
         <v>40</v>
       </c>
       <c r="R305" s="86">
         <f t="shared" ref="R305:R310" si="165">P305*(J305-(J305*L305)-((J305-(J305*L305))*M305))</f>
-        <v>550620</v>
+        <v>1101240</v>
       </c>
       <c r="S305" s="86">
         <f t="shared" ref="S305" si="166">R305/1.11</f>
-        <v>496054.05405405402</v>
+        <v>992108.10810810805</v>
       </c>
     </row>
     <row r="306" spans="1:19" s="81" customFormat="1">
@@ -19845,7 +19845,7 @@
         <v>40</v>
       </c>
       <c r="E310" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F310" s="22">
         <v>1</v>
@@ -19877,18 +19877,18 @@
       </c>
       <c r="P310" s="20">
         <f t="shared" si="164"/>
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="Q310" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R310" s="24">
         <f t="shared" si="165"/>
-        <v>65849962.5</v>
+        <v>69081862.5</v>
       </c>
       <c r="S310" s="24">
         <f t="shared" si="113"/>
-        <v>59324290.540540539</v>
+        <v>62235912.162162155</v>
       </c>
     </row>
     <row r="311" spans="1:19" s="19" customFormat="1">
@@ -19925,7 +19925,7 @@
         <v>40</v>
       </c>
       <c r="E312" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F312" s="22">
         <v>1</v>
@@ -19956,18 +19956,18 @@
       </c>
       <c r="P312" s="20">
         <f>(C312+(E312*F312*H312))-N312</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="Q312" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R312" s="24">
         <f>P312*(J312-(J312*L312)-((J312-(J312*L312))*M312))</f>
-        <v>7798680</v>
+        <v>9098460</v>
       </c>
       <c r="S312" s="24">
         <f t="shared" si="113"/>
-        <v>7025837.8378378376</v>
+        <v>8196810.81081081</v>
       </c>
     </row>
     <row r="313" spans="1:19" s="19" customFormat="1">
@@ -19984,7 +19984,7 @@
         <v>40</v>
       </c>
       <c r="E313" s="26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F313" s="22">
         <v>1</v>
@@ -20015,18 +20015,18 @@
       </c>
       <c r="P313" s="20">
         <f>(C313+(E313*F313*H313))-N313</f>
-        <v>771</v>
+        <v>921</v>
       </c>
       <c r="Q313" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R313" s="24">
         <f>P313*(J313-(J313*L313)-((J313-(J313*L313))*M313))</f>
-        <v>36476010</v>
+        <v>43572510</v>
       </c>
       <c r="S313" s="24">
         <f t="shared" si="113"/>
-        <v>32861270.270270266</v>
+        <v>39254513.513513513</v>
       </c>
     </row>
     <row r="314" spans="1:19" s="19" customFormat="1">
@@ -20043,7 +20043,7 @@
         <v>40</v>
       </c>
       <c r="E314" s="26">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F314" s="22">
         <v>1</v>
@@ -20074,18 +20074,18 @@
       </c>
       <c r="P314" s="20">
         <f>(C314+(E314*F314*H314))-N314</f>
-        <v>1100</v>
+        <v>1180</v>
       </c>
       <c r="Q314" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R314" s="24">
         <f>P314*(J314-(J314*L314)-((J314-(J314*L314))*M314))</f>
-        <v>134758800</v>
+        <v>144559440</v>
       </c>
       <c r="S314" s="24">
         <f t="shared" si="113"/>
-        <v>121404324.32432431</v>
+        <v>130233729.72972971</v>
       </c>
     </row>
     <row r="315" spans="1:19" s="19" customFormat="1">
@@ -20532,7 +20532,7 @@
         <v>40</v>
       </c>
       <c r="E325" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F325" s="22">
         <v>1</v>
@@ -20564,18 +20564,18 @@
       </c>
       <c r="P325" s="20">
         <f>(C325+(E325*F325*H325))-N325</f>
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="Q325" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R325" s="24">
         <f>P325*(J325-(J325*L325)-((J325-(J325*L325))*M325))</f>
-        <v>49077000</v>
+        <v>55620600</v>
       </c>
       <c r="S325" s="24">
         <f t="shared" si="113"/>
-        <v>44213513.513513513</v>
+        <v>50108648.648648642</v>
       </c>
     </row>
     <row r="326" spans="1:19" s="19" customFormat="1">
@@ -20667,7 +20667,7 @@
         <v>40</v>
       </c>
       <c r="E328" s="26">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F328" s="22">
         <v>1</v>
@@ -20698,18 +20698,18 @@
       </c>
       <c r="P328" s="20">
         <f>(C328+(E328*F328*H328))-N328</f>
-        <v>5520</v>
+        <v>6120</v>
       </c>
       <c r="Q328" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R328" s="24">
         <f>P328*(J328-(J328*L328)-((J328-(J328*L328))*M328))</f>
-        <v>296887680</v>
+        <v>329158080</v>
       </c>
       <c r="S328" s="24">
         <f t="shared" si="113"/>
-        <v>267466378.37837836</v>
+        <v>296538810.8108108</v>
       </c>
     </row>
     <row r="329" spans="1:19" s="19" customFormat="1">
@@ -23060,7 +23060,7 @@
         <v>19</v>
       </c>
       <c r="E385" s="26">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F385" s="22">
         <v>12</v>
@@ -23092,18 +23092,18 @@
       </c>
       <c r="P385" s="20">
         <f t="shared" si="185"/>
-        <v>9960</v>
+        <v>11256</v>
       </c>
       <c r="Q385" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R385" s="24">
         <f t="shared" si="186"/>
-        <v>36014737.5</v>
+        <v>40700992.5</v>
       </c>
       <c r="S385" s="24">
         <f t="shared" si="172"/>
-        <v>32445709.459459458</v>
+        <v>36667560.810810804</v>
       </c>
     </row>
     <row r="386" spans="1:19" s="19" customFormat="1">
@@ -23118,7 +23118,7 @@
         <v>19</v>
       </c>
       <c r="E386" s="26">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F386" s="22">
         <v>12</v>
@@ -23150,18 +23150,18 @@
       </c>
       <c r="P386" s="20">
         <f t="shared" si="185"/>
-        <v>8496</v>
+        <v>9504</v>
       </c>
       <c r="Q386" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R386" s="24">
         <f t="shared" si="186"/>
-        <v>45904950</v>
+        <v>51351300</v>
       </c>
       <c r="S386" s="24">
         <f t="shared" si="172"/>
-        <v>41355810.810810804</v>
+        <v>46262432.432432428</v>
       </c>
     </row>
     <row r="387" spans="1:19" s="19" customFormat="1">
@@ -23176,7 +23176,7 @@
         <v>19</v>
       </c>
       <c r="E387" s="26">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F387" s="22">
         <v>12</v>
@@ -23208,18 +23208,18 @@
       </c>
       <c r="P387" s="20">
         <f t="shared" si="185"/>
-        <v>3744</v>
+        <v>5040</v>
       </c>
       <c r="Q387" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R387" s="24">
         <f t="shared" si="186"/>
-        <v>30343950</v>
+        <v>40847625</v>
       </c>
       <c r="S387" s="24">
         <f t="shared" si="172"/>
-        <v>27336891.891891889</v>
+        <v>36799662.162162162</v>
       </c>
     </row>
     <row r="388" spans="1:19" s="98" customFormat="1">
@@ -23714,7 +23714,7 @@
         <v>40</v>
       </c>
       <c r="E397" s="26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F397" s="22">
         <v>1</v>
@@ -23744,18 +23744,18 @@
       </c>
       <c r="P397" s="20">
         <f t="shared" ref="P397:P401" si="199">(C397+(E397*F397*H397))-N397</f>
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="Q397" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R397" s="24">
         <f t="shared" ref="R397:R401" si="200">P397*(J397-(J397*L397)-((J397-(J397*L397))*M397))</f>
-        <v>14184036</v>
+        <v>17694936</v>
       </c>
       <c r="S397" s="24">
         <f t="shared" ref="S397" si="201">R397/1.11</f>
-        <v>12778410.81081081</v>
+        <v>15941383.783783782</v>
       </c>
     </row>
     <row r="398" spans="1:19" s="19" customFormat="1">
@@ -23830,7 +23830,7 @@
         <v>40</v>
       </c>
       <c r="E399" s="26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F399" s="22">
         <v>1</v>
@@ -23860,18 +23860,18 @@
       </c>
       <c r="P399" s="20">
         <f t="shared" si="199"/>
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="Q399" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R399" s="24">
         <f t="shared" si="200"/>
-        <v>29383992</v>
+        <v>34314192</v>
       </c>
       <c r="S399" s="24">
         <f t="shared" ref="S399" si="203">R399/1.11</f>
-        <v>26472064.864864863</v>
+        <v>30913686.486486483</v>
       </c>
     </row>
     <row r="400" spans="1:19" s="19" customFormat="1">
@@ -24260,7 +24260,7 @@
         <v>40</v>
       </c>
       <c r="E409" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F409" s="22">
         <v>1</v>
@@ -24292,18 +24292,18 @@
       </c>
       <c r="P409" s="20">
         <f t="shared" ref="P409" si="207">(C409+(E409*F409*H409))-N409</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Q409" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R409" s="24">
         <f t="shared" ref="R409" si="208">P409*(J409-(J409*L409)-((J409-(J409*L409))*M409))</f>
-        <v>17835300</v>
+        <v>19618830</v>
       </c>
       <c r="S409" s="24">
         <f t="shared" ref="S409" si="209">R409/1.11</f>
-        <v>16067837.837837836</v>
+        <v>17674621.62162162</v>
       </c>
     </row>
     <row r="410" spans="1:19" s="19" customFormat="1">
@@ -27599,7 +27599,7 @@
         <v>277</v>
       </c>
       <c r="E477" s="26">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F477" s="22">
         <v>100</v>
@@ -27631,18 +27631,18 @@
       </c>
       <c r="P477" s="20">
         <f t="shared" ref="P477:P486" si="241">(C477+(E477*F477*H477))-N477</f>
-        <v>41270</v>
+        <v>44270</v>
       </c>
       <c r="Q477" s="23" t="s">
         <v>277</v>
       </c>
       <c r="R477" s="24">
         <f t="shared" ref="R477:R486" si="242">P477*(J477-(J477*L477)-((J477-(J477*L477))*M477))</f>
-        <v>70326659.375</v>
+        <v>75438846.875</v>
       </c>
       <c r="S477" s="24">
         <f t="shared" si="227"/>
-        <v>63357350.78828828</v>
+        <v>67962925.112612605</v>
       </c>
     </row>
     <row r="478" spans="1:19" s="19" customFormat="1">
@@ -28201,7 +28201,7 @@
         <v>287</v>
       </c>
       <c r="E488" s="26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F488" s="22">
         <v>1</v>
@@ -28232,18 +28232,18 @@
       </c>
       <c r="P488" s="20">
         <f>(C488+(E488*F488*H488))-N488</f>
-        <v>1090</v>
+        <v>1240</v>
       </c>
       <c r="Q488" s="23" t="s">
         <v>287</v>
       </c>
       <c r="R488" s="24">
         <f>P488*(J488-(J488*L488)-((J488-(J488*L488))*M488))</f>
-        <v>18998700</v>
+        <v>21613200</v>
       </c>
       <c r="S488" s="24">
         <f t="shared" si="227"/>
-        <v>17115945.945945945</v>
+        <v>19471351.351351351</v>
       </c>
     </row>
     <row r="489" spans="1:19" s="19" customFormat="1">
@@ -28260,7 +28260,7 @@
         <v>287</v>
       </c>
       <c r="E489" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F489" s="22">
         <v>1</v>
@@ -28291,18 +28291,18 @@
       </c>
       <c r="P489" s="20">
         <f>(C489+(E489*F489*H489))-N489</f>
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="Q489" s="23" t="s">
         <v>287</v>
       </c>
       <c r="R489" s="24">
         <f>P489*(J489-(J489*L489)-((J489-(J489*L489))*M489))</f>
-        <v>5042250</v>
+        <v>7283250</v>
       </c>
       <c r="S489" s="24">
         <f t="shared" si="227"/>
-        <v>4542567.5675675673</v>
+        <v>6561486.4864864862</v>
       </c>
     </row>
     <row r="490" spans="1:19" s="19" customFormat="1">
@@ -28501,7 +28501,7 @@
         <v>19</v>
       </c>
       <c r="E495" s="26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F495" s="22">
         <v>1</v>
@@ -28532,18 +28532,18 @@
       </c>
       <c r="P495" s="20">
         <f>(C495+(E495*F495*H495))-N495</f>
-        <v>434</v>
+        <v>684</v>
       </c>
       <c r="Q495" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R495" s="24">
         <f>P495*(J495-(J495*L495)-((J495-(J495*L495))*M495))</f>
-        <v>16209900</v>
+        <v>25547400</v>
       </c>
       <c r="S495" s="24">
         <f t="shared" si="227"/>
-        <v>14603513.513513513</v>
+        <v>23015675.675675675</v>
       </c>
     </row>
     <row r="496" spans="1:19" s="19" customFormat="1">
@@ -28558,7 +28558,7 @@
         <v>19</v>
       </c>
       <c r="E496" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F496" s="22">
         <v>1</v>
@@ -28589,18 +28589,18 @@
       </c>
       <c r="P496" s="20">
         <f>(C496+(E496*F496*H496))-N496</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q496" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R496" s="24">
         <f>P496*(J496-(J496*L496)-((J496-(J496*L496))*M496))</f>
-        <v>9130000</v>
+        <v>13695000</v>
       </c>
       <c r="S496" s="24">
         <f t="shared" si="227"/>
-        <v>8225225.2252252242</v>
+        <v>12337837.837837838</v>
       </c>
     </row>
     <row r="497" spans="1:19" s="19" customFormat="1">
@@ -28910,7 +28910,7 @@
         <v>98</v>
       </c>
       <c r="E504" s="26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F504" s="22">
         <v>1</v>
@@ -28941,18 +28941,18 @@
       </c>
       <c r="P504" s="20">
         <f>(C504+(E504*F504*H504))-N504</f>
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q504" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R504" s="24">
         <f>P504*(J504-(J504*L504)-((J504-(J504*L504))*M504))</f>
-        <v>35316500</v>
+        <v>36271000</v>
       </c>
       <c r="S504" s="24">
         <f t="shared" si="227"/>
-        <v>31816666.666666664</v>
+        <v>32676576.576576572</v>
       </c>
     </row>
     <row r="505" spans="1:19" s="19" customFormat="1">
@@ -29207,7 +29207,7 @@
         <v>40</v>
       </c>
       <c r="E511" s="26">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F511" s="22">
         <v>48</v>
@@ -29240,18 +29240,18 @@
       </c>
       <c r="P511" s="20">
         <f t="shared" si="251"/>
-        <v>144</v>
+        <v>720</v>
       </c>
       <c r="Q511" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R511" s="24">
         <f t="shared" si="252"/>
-        <v>2226420</v>
+        <v>11132100</v>
       </c>
       <c r="S511" s="24">
         <f t="shared" si="227"/>
-        <v>2005783.7837837837</v>
+        <v>10028918.918918919</v>
       </c>
     </row>
     <row r="512" spans="1:19" s="19" customFormat="1">
@@ -29464,7 +29464,7 @@
         <v>40</v>
       </c>
       <c r="E516" s="26">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F516" s="22">
         <v>1</v>
@@ -29495,18 +29495,18 @@
       </c>
       <c r="P516" s="20">
         <f>(C516+(E516*F516*H516))-N516</f>
-        <v>1220</v>
+        <v>1480</v>
       </c>
       <c r="Q516" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R516" s="24">
         <f>P516*(J516-(J516*L516)-((J516-(J516*L516))*M516))</f>
-        <v>20049480</v>
+        <v>24322320</v>
       </c>
       <c r="S516" s="24">
         <f t="shared" si="227"/>
-        <v>18062594.594594594</v>
+        <v>21911999.999999996</v>
       </c>
     </row>
     <row r="517" spans="1:19" s="19" customFormat="1">
@@ -29821,7 +29821,7 @@
         <v>33</v>
       </c>
       <c r="E524" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F524" s="22">
         <v>1</v>
@@ -29854,18 +29854,18 @@
       </c>
       <c r="P524" s="20">
         <f t="shared" si="255"/>
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="Q524" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R524" s="24">
         <f t="shared" si="256"/>
-        <v>25639740</v>
+        <v>27147960</v>
       </c>
       <c r="S524" s="24">
         <f>R524/1.11</f>
-        <v>23098864.864864863</v>
+        <v>24457621.62162162</v>
       </c>
     </row>
     <row r="525" spans="1:19" s="98" customFormat="1">
@@ -29880,7 +29880,7 @@
         <v>33</v>
       </c>
       <c r="E525" s="101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F525" s="102">
         <v>1</v>
@@ -29913,18 +29913,18 @@
       </c>
       <c r="P525" s="99">
         <f t="shared" si="255"/>
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="Q525" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R525" s="104">
         <f t="shared" si="256"/>
-        <v>6607440</v>
+        <v>9911160</v>
       </c>
       <c r="S525" s="104">
         <f>R525/1.11</f>
-        <v>5952648.6486486485</v>
+        <v>8928972.9729729723</v>
       </c>
     </row>
     <row r="526" spans="1:19" s="81" customFormat="1">
@@ -30055,7 +30055,7 @@
         <v>33</v>
       </c>
       <c r="E528" s="101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F528" s="102">
         <v>1</v>
@@ -30088,18 +30088,18 @@
       </c>
       <c r="P528" s="99">
         <f t="shared" si="255"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="Q528" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R528" s="104">
         <f t="shared" si="256"/>
-        <v>1580040</v>
+        <v>4740120</v>
       </c>
       <c r="S528" s="104">
         <f>R528/1.11</f>
-        <v>1423459.4594594594</v>
+        <v>4270378.3783783782</v>
       </c>
     </row>
     <row r="529" spans="1:19" s="19" customFormat="1">
@@ -30114,7 +30114,7 @@
         <v>33</v>
       </c>
       <c r="E529" s="26">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F529" s="22">
         <v>1</v>
@@ -30147,18 +30147,18 @@
       </c>
       <c r="P529" s="20">
         <f t="shared" si="255"/>
-        <v>936</v>
+        <v>1368</v>
       </c>
       <c r="Q529" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R529" s="24">
         <f t="shared" si="256"/>
-        <v>45749340</v>
+        <v>66864420</v>
       </c>
       <c r="S529" s="24">
         <f>R529/1.11</f>
-        <v>41215621.621621616</v>
+        <v>60238216.216216214</v>
       </c>
     </row>
     <row r="530" spans="1:19" s="19" customFormat="1">
@@ -30368,7 +30368,7 @@
         <v>33</v>
       </c>
       <c r="E534" s="26">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F534" s="22">
         <v>1</v>
@@ -30399,18 +30399,18 @@
       </c>
       <c r="P534" s="20">
         <f>(C534+(E534*F534*H534))-N534</f>
-        <v>1625</v>
+        <v>1769</v>
       </c>
       <c r="Q534" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R534" s="24">
         <f>P534*(J534-(J534*L534)-((J534-(J534*L534))*M534))</f>
-        <v>89017500</v>
+        <v>96905820</v>
       </c>
       <c r="S534" s="24">
         <f t="shared" si="227"/>
-        <v>80195945.945945933</v>
+        <v>87302540.540540531</v>
       </c>
     </row>
     <row r="535" spans="1:19" s="19" customFormat="1">
@@ -30427,7 +30427,7 @@
         <v>33</v>
       </c>
       <c r="E535" s="26">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F535" s="22">
         <v>1</v>
@@ -30458,18 +30458,18 @@
       </c>
       <c r="P535" s="20">
         <f>(C535+(E535*F535*H535))-N535</f>
-        <v>984</v>
+        <v>1092</v>
       </c>
       <c r="Q535" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R535" s="24">
         <f>P535*(J535-(J535*L535)-((J535-(J535*L535))*M535))</f>
-        <v>58803840</v>
+        <v>65257920</v>
       </c>
       <c r="S535" s="24">
         <f t="shared" si="227"/>
-        <v>52976432.432432428</v>
+        <v>58790918.918918915</v>
       </c>
     </row>
     <row r="536" spans="1:19" s="19" customFormat="1">
@@ -31025,7 +31025,7 @@
         <v>98</v>
       </c>
       <c r="E550" s="26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F550" s="22">
         <v>1</v>
@@ -31057,18 +31057,18 @@
       </c>
       <c r="P550" s="20">
         <f t="shared" si="261"/>
-        <v>1003</v>
+        <v>1291</v>
       </c>
       <c r="Q550" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R550" s="24">
         <f t="shared" si="262"/>
-        <v>5836206.25</v>
+        <v>7512006.25</v>
       </c>
       <c r="S550" s="24">
         <f t="shared" si="263"/>
-        <v>5257843.4684684677</v>
+        <v>6767573.1981981974</v>
       </c>
     </row>
     <row r="551" spans="1:19" s="81" customFormat="1">
@@ -32949,7 +32949,7 @@
         <v>33</v>
       </c>
       <c r="E593" s="101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F593" s="102">
         <v>10</v>
@@ -32980,18 +32980,18 @@
       </c>
       <c r="P593" s="99">
         <f>(C593+(E593*F593*H593))-N593</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q593" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R593" s="104">
         <f>P593*(J593-(J593*L593)-((J593-(J593*L593))*M593))</f>
-        <v>1626800</v>
+        <v>2440200</v>
       </c>
       <c r="S593" s="104">
         <f t="shared" si="263"/>
-        <v>1465585.5855855856</v>
+        <v>2198378.3783783782</v>
       </c>
     </row>
     <row r="594" spans="1:19" s="19" customFormat="1">
@@ -33414,7 +33414,7 @@
         <v>40</v>
       </c>
       <c r="E603" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F603" s="22">
         <v>1</v>
@@ -33446,18 +33446,18 @@
       </c>
       <c r="P603" s="20">
         <f t="shared" ref="P603" si="273">(C603+(E603*F603*H603))-N603</f>
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="Q603" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R603" s="24">
         <f t="shared" ref="R603" si="274">P603*(J603-(J603*L603)-((J603-(J603*L603))*M603))</f>
-        <v>2197692</v>
+        <v>2930256</v>
       </c>
       <c r="S603" s="24">
         <f t="shared" ref="S603" si="275">R603/1.11</f>
-        <v>1979902.7027027025</v>
+        <v>2639870.2702702698</v>
       </c>
     </row>
     <row r="604" spans="1:19" s="81" customFormat="1">
@@ -33700,7 +33700,7 @@
         <v>40</v>
       </c>
       <c r="E608" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F608" s="22">
         <v>1</v>
@@ -33732,18 +33732,18 @@
       </c>
       <c r="P608" s="20">
         <f>(C608+(E608*F608*H608))-N608</f>
-        <v>2016</v>
+        <v>2304</v>
       </c>
       <c r="Q608" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R608" s="24">
         <f>P608*(J608-(J608*L608)-((J608-(J608*L608))*M608))</f>
-        <v>21115080</v>
+        <v>24131520</v>
       </c>
       <c r="S608" s="24">
         <f>R608/1.11</f>
-        <v>19022594.594594594</v>
+        <v>21740108.108108107</v>
       </c>
     </row>
     <row r="609" spans="1:19" s="19" customFormat="1">
@@ -33813,8 +33813,8 @@
         <v>18</v>
       </c>
       <c r="C610" s="51">
-        <f>(3*12*12)+(1296/12)</f>
-        <v>540</v>
+        <f>(3*12*12)+(1440/12)</f>
+        <v>552</v>
       </c>
       <c r="D610" s="21" t="s">
         <v>40</v>
@@ -33850,18 +33850,18 @@
       </c>
       <c r="P610" s="20">
         <f>(C610+(E610*F610*H610))-N610</f>
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="Q610" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R610" s="24">
         <f>P610*(J610-(J610*L610)-((J610-(J610*L610))*M610))</f>
-        <v>5925150</v>
+        <v>6056820</v>
       </c>
       <c r="S610" s="24">
         <f>R610/1.11</f>
-        <v>5337972.9729729723</v>
+        <v>5456594.5945945941</v>
       </c>
     </row>
     <row r="611" spans="1:19" s="19" customFormat="1">
@@ -35075,7 +35075,7 @@
         <v>40</v>
       </c>
       <c r="E636" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F636" s="84">
         <v>1</v>
@@ -35107,18 +35107,18 @@
       </c>
       <c r="P636" s="79">
         <f t="shared" si="284"/>
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="Q636" s="85" t="s">
         <v>40</v>
       </c>
       <c r="R636" s="86">
         <f t="shared" si="285"/>
-        <v>2585520</v>
+        <v>5171040</v>
       </c>
       <c r="S636" s="86">
         <f t="shared" ref="S636:S718" si="288">R636/1.11</f>
-        <v>2329297.297297297</v>
+        <v>4658594.5945945941</v>
       </c>
     </row>
     <row r="637" spans="1:19" s="81" customFormat="1">
@@ -35876,7 +35876,7 @@
         <v>40</v>
       </c>
       <c r="E651" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F651" s="6">
         <v>1</v>
@@ -35905,18 +35905,18 @@
       </c>
       <c r="P651" s="3">
         <f t="shared" si="295"/>
-        <v>720</v>
+        <v>1152</v>
       </c>
       <c r="Q651" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R651" s="8">
         <f t="shared" si="296"/>
-        <v>15597360</v>
+        <v>24955776</v>
       </c>
       <c r="S651" s="8">
         <f t="shared" si="288"/>
-        <v>14051675.675675675</v>
+        <v>22482681.081081077</v>
       </c>
     </row>
     <row r="652" spans="1:19">
@@ -36096,7 +36096,7 @@
         <v>40</v>
       </c>
       <c r="E655" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F655" s="6">
         <v>1</v>
@@ -36126,18 +36126,18 @@
       </c>
       <c r="P655" s="3">
         <f t="shared" si="295"/>
-        <v>7544</v>
+        <v>8120</v>
       </c>
       <c r="Q655" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R655" s="8">
         <f t="shared" si="296"/>
-        <v>163425672</v>
+        <v>175903560</v>
       </c>
       <c r="S655" s="8">
         <f t="shared" si="288"/>
-        <v>147230335.13513511</v>
+        <v>158471675.67567566</v>
       </c>
     </row>
     <row r="656" spans="1:19">
@@ -36494,7 +36494,7 @@
         <v>40</v>
       </c>
       <c r="E662" s="26">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F662" s="22">
         <v>1</v>
@@ -36525,18 +36525,18 @@
       </c>
       <c r="P662" s="20">
         <f t="shared" si="295"/>
-        <v>19101</v>
+        <v>20829</v>
       </c>
       <c r="Q662" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R662" s="24">
         <f t="shared" si="296"/>
-        <v>618299370</v>
+        <v>674234730</v>
       </c>
       <c r="S662" s="24">
         <f t="shared" si="288"/>
-        <v>557026459.45945942</v>
+        <v>607418675.67567563</v>
       </c>
     </row>
     <row r="663" spans="1:19" s="98" customFormat="1">
@@ -37011,7 +37011,7 @@
         <v>40</v>
       </c>
       <c r="E671" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F671" s="22">
         <v>1</v>
@@ -37042,18 +37042,18 @@
       </c>
       <c r="P671" s="20">
         <f t="shared" si="295"/>
-        <v>3054</v>
+        <v>3342</v>
       </c>
       <c r="Q671" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R671" s="24">
         <f t="shared" si="296"/>
-        <v>100378872</v>
+        <v>109844856</v>
       </c>
       <c r="S671" s="24">
         <f t="shared" si="288"/>
-        <v>90431416.216216207</v>
+        <v>98959329.729729727</v>
       </c>
     </row>
     <row r="672" spans="1:19" s="19" customFormat="1">
@@ -37351,7 +37351,7 @@
         <v>40</v>
       </c>
       <c r="E677" s="26">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F677" s="22">
         <v>1</v>
@@ -37382,18 +37382,18 @@
       </c>
       <c r="P677" s="20">
         <f t="shared" si="295"/>
-        <v>14097</v>
+        <v>15681</v>
       </c>
       <c r="Q677" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R677" s="24">
         <f t="shared" si="296"/>
-        <v>252731016</v>
+        <v>281128968</v>
       </c>
       <c r="S677" s="24">
         <f t="shared" si="288"/>
-        <v>227685599.99999997</v>
+        <v>253269340.54054052</v>
       </c>
     </row>
     <row r="678" spans="1:19" s="19" customFormat="1">
@@ -41395,7 +41395,7 @@
         <v>83</v>
       </c>
       <c r="E773" s="26">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F773" s="22">
         <v>1</v>
@@ -41427,18 +41427,18 @@
       </c>
       <c r="P773" s="20">
         <f t="shared" ref="P773:P781" si="364">(C773+(E773*F773*H773))-N773</f>
-        <v>3179</v>
+        <v>3689</v>
       </c>
       <c r="Q773" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R773" s="24">
         <f t="shared" ref="R773:R781" si="365">P773*(J773-(J773*L773)-((J773-(J773*L773))*M773))</f>
-        <v>275881567.5</v>
+        <v>320140642.5</v>
       </c>
       <c r="S773" s="24">
         <f t="shared" si="357"/>
-        <v>248541952.70270267</v>
+        <v>288414993.24324322</v>
       </c>
     </row>
     <row r="774" spans="1:19" s="81" customFormat="1">
@@ -41509,7 +41509,7 @@
         <v>83</v>
       </c>
       <c r="E775" s="101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F775" s="102">
         <v>1</v>
@@ -41541,18 +41541,18 @@
       </c>
       <c r="P775" s="99">
         <f t="shared" ref="P775" si="366">(C775+(E775*F775*H775))-N775</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q775" s="103" t="s">
         <v>83</v>
       </c>
       <c r="R775" s="104">
         <f t="shared" ref="R775" si="367">P775*(J775-(J775*L775)-((J775-(J775*L775))*M775))</f>
-        <v>2723175</v>
+        <v>5446350</v>
       </c>
       <c r="S775" s="104">
         <f t="shared" ref="S775" si="368">R775/1.11</f>
-        <v>2453310.8108108104</v>
+        <v>4906621.6216216208</v>
       </c>
     </row>
     <row r="776" spans="1:19" s="72" customFormat="1">
@@ -41680,7 +41680,7 @@
         <v>83</v>
       </c>
       <c r="E778" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F778" s="6">
         <v>1</v>
@@ -41711,18 +41711,18 @@
       </c>
       <c r="P778" s="3">
         <f t="shared" si="364"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q778" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R778" s="8">
         <f t="shared" si="365"/>
-        <v>7182000</v>
+        <v>14364000</v>
       </c>
       <c r="S778" s="8">
         <f t="shared" si="357"/>
-        <v>6470270.2702702694</v>
+        <v>12940540.540540539</v>
       </c>
     </row>
     <row r="779" spans="1:19" s="72" customFormat="1">
@@ -42022,7 +42022,7 @@
         <v>83</v>
       </c>
       <c r="E785" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F785" s="47">
         <v>1</v>
@@ -42052,18 +42052,18 @@
       </c>
       <c r="P785" s="44">
         <f t="shared" ref="P785" si="378">(C785+(E785*F785*H785))-N785</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q785" s="42" t="s">
         <v>83</v>
       </c>
       <c r="R785" s="29">
         <f t="shared" ref="R785" si="379">P785*(J785-(J785*L785)-((J785-(J785*L785))*M785))</f>
-        <v>19123200</v>
+        <v>22947840</v>
       </c>
       <c r="S785" s="24">
         <f t="shared" si="377"/>
-        <v>17228108.108108107</v>
+        <v>20673729.729729727</v>
       </c>
     </row>
     <row r="786" spans="1:19" s="71" customFormat="1">
@@ -42192,7 +42192,7 @@
         <v>83</v>
       </c>
       <c r="E788" s="35">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F788" s="56">
         <v>1</v>
@@ -42223,18 +42223,18 @@
       </c>
       <c r="P788" s="54">
         <f t="shared" si="375"/>
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q788" s="57" t="s">
         <v>83</v>
       </c>
       <c r="R788" s="58">
         <f t="shared" si="376"/>
-        <v>28047360</v>
+        <v>40318080</v>
       </c>
       <c r="S788" s="8">
         <f t="shared" si="357"/>
-        <v>25267891.891891889</v>
+        <v>36322594.59459459</v>
       </c>
     </row>
     <row r="789" spans="1:19" s="17" customFormat="1">
@@ -42531,7 +42531,7 @@
         <v>83</v>
       </c>
       <c r="E794" s="46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F794" s="47">
         <v>1</v>
@@ -42562,18 +42562,18 @@
       </c>
       <c r="P794" s="44">
         <f t="shared" si="375"/>
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="Q794" s="42" t="s">
         <v>83</v>
       </c>
       <c r="R794" s="29">
         <f t="shared" si="376"/>
-        <v>21533520</v>
+        <v>28864080</v>
       </c>
       <c r="S794" s="24">
         <f t="shared" si="357"/>
-        <v>19399567.567567565</v>
+        <v>26003675.675675672</v>
       </c>
     </row>
     <row r="795" spans="1:19" s="18" customFormat="1">
@@ -42590,7 +42590,7 @@
         <v>83</v>
       </c>
       <c r="E795" s="46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F795" s="47">
         <v>1</v>
@@ -42621,18 +42621,18 @@
       </c>
       <c r="P795" s="44">
         <f t="shared" si="375"/>
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="Q795" s="42" t="s">
         <v>83</v>
       </c>
       <c r="R795" s="29">
         <f t="shared" si="376"/>
-        <v>19792512</v>
+        <v>25290432</v>
       </c>
       <c r="S795" s="24">
         <f t="shared" si="357"/>
-        <v>17831091.891891889</v>
+        <v>22784172.97297297</v>
       </c>
     </row>
     <row r="796" spans="1:19" s="17" customFormat="1">
@@ -42815,7 +42815,7 @@
         <v>83</v>
       </c>
       <c r="E799" s="35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F799" s="56">
         <v>1</v>
@@ -42846,18 +42846,18 @@
       </c>
       <c r="P799" s="54">
         <f t="shared" si="375"/>
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="Q799" s="57" t="s">
         <v>83</v>
       </c>
       <c r="R799" s="58">
         <f t="shared" si="376"/>
-        <v>21513600</v>
+        <v>28684800</v>
       </c>
       <c r="S799" s="8">
         <f t="shared" si="357"/>
-        <v>19381621.62162162</v>
+        <v>25842162.162162159</v>
       </c>
     </row>
     <row r="800" spans="1:19" s="107" customFormat="1">
@@ -44585,7 +44585,7 @@
         <v>83</v>
       </c>
       <c r="E841" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F841" s="6">
         <v>1</v>
@@ -44616,18 +44616,18 @@
       </c>
       <c r="P841" s="3">
         <f t="shared" ref="P841:P846" si="391">(C841+(E841*F841*H841))-N841</f>
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="Q841" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R841" s="8">
         <f t="shared" ref="R841:R846" si="392">P841*(J841-(J841*L841)-((J841-(J841*L841))*M841))</f>
-        <v>19355490</v>
+        <v>22874670</v>
       </c>
       <c r="S841" s="8">
         <f t="shared" si="390"/>
-        <v>17437378.378378376</v>
+        <v>20607810.810810808</v>
       </c>
     </row>
     <row r="842" spans="1:19" s="72" customFormat="1">
@@ -44698,7 +44698,7 @@
         <v>40</v>
       </c>
       <c r="E843" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F843" s="22">
         <v>12</v>
@@ -44730,18 +44730,18 @@
       </c>
       <c r="P843" s="20">
         <f t="shared" ref="P843" si="393">(C843+(E843*F843*H843))-N843</f>
-        <v>1008</v>
+        <v>1152</v>
       </c>
       <c r="Q843" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R843" s="24">
         <f t="shared" ref="R843" si="394">P843*(J843-(J843*L843)-((J843-(J843*L843))*M843))</f>
-        <v>16590420</v>
+        <v>18960480</v>
       </c>
       <c r="S843" s="24">
         <f t="shared" ref="S843" si="395">R843/1.11</f>
-        <v>14946324.324324323</v>
+        <v>17081513.513513513</v>
       </c>
     </row>
     <row r="844" spans="1:19" s="19" customFormat="1">
@@ -44758,7 +44758,7 @@
         <v>40</v>
       </c>
       <c r="E844" s="26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F844" s="22">
         <v>12</v>
@@ -44791,18 +44791,18 @@
       </c>
       <c r="P844" s="20">
         <f t="shared" ref="P844" si="396">(C844+(E844*F844*H844))-N844</f>
-        <v>1872</v>
+        <v>2232</v>
       </c>
       <c r="Q844" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R844" s="24">
         <f t="shared" ref="R844" si="397">P844*(J844-(J844*L844)-((J844-(J844*L844))*M844))</f>
-        <v>57886920</v>
+        <v>69019020</v>
       </c>
       <c r="S844" s="24">
         <f t="shared" ref="S844" si="398">R844/1.11</f>
-        <v>52150378.378378376</v>
+        <v>62179297.297297291</v>
       </c>
     </row>
     <row r="845" spans="1:19" s="19" customFormat="1">
@@ -44819,7 +44819,7 @@
         <v>83</v>
       </c>
       <c r="E845" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F845" s="22">
         <v>1</v>
@@ -44851,18 +44851,18 @@
       </c>
       <c r="P845" s="20">
         <f t="shared" ref="P845" si="399">(C845+(E845*F845*H845))-N845</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q845" s="23" t="s">
         <v>83</v>
       </c>
       <c r="R845" s="24">
         <f t="shared" ref="R845" si="400">P845*(J845-(J845*L845)-((J845-(J845*L845))*M845))</f>
-        <v>3950100</v>
+        <v>5925150</v>
       </c>
       <c r="S845" s="24">
         <f t="shared" ref="S845" si="401">R845/1.11</f>
-        <v>3558648.6486486485</v>
+        <v>5337972.9729729723</v>
       </c>
     </row>
     <row r="846" spans="1:19">
@@ -44941,7 +44941,7 @@
         <v>83</v>
       </c>
       <c r="E848" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F848" s="6">
         <v>1</v>
@@ -44970,18 +44970,18 @@
       </c>
       <c r="P848" s="3">
         <f>(C848+(E848*F848*H848))-N848</f>
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="Q848" s="7" t="s">
         <v>83</v>
       </c>
       <c r="R848" s="8">
         <f>P848*(J848-(J848*L848)-((J848-(J848*L848))*M848))</f>
-        <v>12400200</v>
+        <v>15089400</v>
       </c>
       <c r="S848" s="8">
         <f t="shared" si="390"/>
-        <v>11171351.351351351</v>
+        <v>13594054.054054054</v>
       </c>
     </row>
     <row r="849" spans="1:19" s="98" customFormat="1">
@@ -45225,7 +45225,7 @@
         <v>151</v>
       </c>
       <c r="E856" s="26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F856" s="22">
         <v>12</v>
@@ -45257,18 +45257,18 @@
       </c>
       <c r="P856" s="20">
         <f t="shared" ref="P856:P869" si="406">(C856+(E856*F856*H856))-N856</f>
-        <v>10164</v>
+        <v>10740</v>
       </c>
       <c r="Q856" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R856" s="24">
         <f t="shared" ref="R856:R869" si="407">P856*(J856-(J856*L856)-((J856-(J856*L856))*M856))</f>
-        <v>56607127.5</v>
+        <v>59815087.5</v>
       </c>
       <c r="S856" s="24">
         <f t="shared" si="390"/>
-        <v>50997412.162162155</v>
+        <v>53887466.216216214</v>
       </c>
     </row>
     <row r="857" spans="1:19" s="19" customFormat="1">
@@ -45285,7 +45285,7 @@
         <v>151</v>
       </c>
       <c r="E857" s="26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F857" s="22">
         <v>12</v>
@@ -45317,18 +45317,18 @@
       </c>
       <c r="P857" s="20">
         <f t="shared" si="406"/>
-        <v>1248</v>
+        <v>1392</v>
       </c>
       <c r="Q857" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R857" s="24">
         <f t="shared" si="407"/>
-        <v>14316120</v>
+        <v>15967980</v>
       </c>
       <c r="S857" s="8">
         <f t="shared" si="390"/>
-        <v>12897405.405405404</v>
+        <v>14385567.567567566</v>
       </c>
     </row>
     <row r="858" spans="1:19" s="19" customFormat="1">
@@ -45345,7 +45345,7 @@
         <v>151</v>
       </c>
       <c r="E858" s="26">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F858" s="22">
         <v>12</v>
@@ -45377,18 +45377,18 @@
       </c>
       <c r="P858" s="20">
         <f t="shared" si="406"/>
-        <v>21372</v>
+        <v>23820</v>
       </c>
       <c r="Q858" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R858" s="24">
         <f t="shared" si="407"/>
-        <v>188314035</v>
+        <v>209883975</v>
       </c>
       <c r="S858" s="24">
         <f t="shared" si="390"/>
-        <v>169652283.78378376</v>
+        <v>189084662.16216215</v>
       </c>
     </row>
     <row r="859" spans="1:19" s="19" customFormat="1">
@@ -45405,7 +45405,7 @@
         <v>151</v>
       </c>
       <c r="E859" s="26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F859" s="22">
         <v>12</v>
@@ -45437,18 +45437,18 @@
       </c>
       <c r="P859" s="20">
         <f t="shared" si="406"/>
-        <v>3126</v>
+        <v>3270</v>
       </c>
       <c r="Q859" s="23" t="s">
         <v>151</v>
       </c>
       <c r="R859" s="24">
         <f t="shared" si="407"/>
-        <v>55087935</v>
+        <v>57625575</v>
       </c>
       <c r="S859" s="8">
         <f t="shared" si="390"/>
-        <v>49628770.270270266</v>
+        <v>51914932.432432428</v>
       </c>
     </row>
     <row r="860" spans="1:19" s="98" customFormat="1">
@@ -45463,7 +45463,7 @@
         <v>151</v>
       </c>
       <c r="E860" s="101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F860" s="102">
         <v>8</v>
@@ -45495,18 +45495,18 @@
       </c>
       <c r="P860" s="99">
         <f t="shared" si="406"/>
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="Q860" s="103" t="s">
         <v>151</v>
       </c>
       <c r="R860" s="104">
         <f t="shared" si="407"/>
-        <v>5586000</v>
+        <v>8379000</v>
       </c>
       <c r="S860" s="96">
         <f t="shared" si="390"/>
-        <v>5032432.4324324317</v>
+        <v>7548648.6486486476</v>
       </c>
     </row>
     <row r="861" spans="1:19" s="19" customFormat="1">
@@ -46063,7 +46063,7 @@
         <v>40</v>
       </c>
       <c r="E871" s="26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F871" s="22">
         <v>24</v>
@@ -46094,18 +46094,18 @@
       </c>
       <c r="P871" s="20">
         <f t="shared" ref="P871:P872" si="411">(C871+(E871*F871*H871))-N871</f>
-        <v>790</v>
+        <v>934</v>
       </c>
       <c r="Q871" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R871" s="24">
         <f t="shared" ref="R871:R872" si="412">P871*(J871-(J871*L871)-((J871-(J871*L871))*M871))</f>
-        <v>51931440</v>
+        <v>61397424</v>
       </c>
       <c r="S871" s="24">
         <f t="shared" ref="S871:S872" si="413">R871/1.11</f>
-        <v>46785081.081081077</v>
+        <v>55312994.59459459</v>
       </c>
     </row>
     <row r="872" spans="1:19" s="19" customFormat="1">
@@ -46181,7 +46181,7 @@
         <v>40</v>
       </c>
       <c r="E873" s="26">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F873" s="22">
         <v>1</v>
@@ -46212,18 +46212,18 @@
       </c>
       <c r="P873" s="20">
         <f t="shared" ref="P873:P884" si="414">(C873+(E873*F873*H873))-N873</f>
-        <v>448</v>
+        <v>808</v>
       </c>
       <c r="Q873" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R873" s="24">
         <f t="shared" ref="R873:R884" si="415">P873*(J873-(J873*L873)-((J873-(J873*L873))*M873))</f>
-        <v>46182528</v>
+        <v>83293488</v>
       </c>
       <c r="S873" s="24">
         <f t="shared" si="390"/>
-        <v>41605881.081081077</v>
+        <v>75039178.378378376</v>
       </c>
     </row>
     <row r="874" spans="1:19">
@@ -46237,7 +46237,7 @@
         <v>40</v>
       </c>
       <c r="E874" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F874" s="6">
         <v>1</v>
@@ -46266,18 +46266,18 @@
       </c>
       <c r="P874" s="3">
         <f t="shared" si="414"/>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="Q874" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R874" s="8">
         <f t="shared" si="415"/>
-        <v>9896256</v>
+        <v>17318448</v>
       </c>
       <c r="S874" s="8">
         <f t="shared" si="390"/>
-        <v>8915545.9459459446</v>
+        <v>15602205.405405404</v>
       </c>
     </row>
     <row r="875" spans="1:19">
@@ -46349,7 +46349,7 @@
         <v>40</v>
       </c>
       <c r="E876" s="75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F876" s="76">
         <v>1</v>
@@ -46380,18 +46380,18 @@
       </c>
       <c r="P876" s="73">
         <f t="shared" si="414"/>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="Q876" s="77" t="s">
         <v>40</v>
       </c>
       <c r="R876" s="16">
         <f t="shared" si="415"/>
-        <v>6095520</v>
+        <v>10159200</v>
       </c>
       <c r="S876" s="16">
         <f t="shared" si="390"/>
-        <v>5491459.4594594594</v>
+        <v>9152432.4324324317</v>
       </c>
     </row>
     <row r="877" spans="1:19">
@@ -47239,7 +47239,7 @@
         <v>19</v>
       </c>
       <c r="E896" s="26">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F896" s="22">
         <v>1</v>
@@ -47271,18 +47271,18 @@
       </c>
       <c r="P896" s="20">
         <f>(C896+(E896*F896*H896))-N896</f>
-        <v>25548</v>
+        <v>26412</v>
       </c>
       <c r="Q896" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R896" s="24">
         <f>P896*(J896-(J896*L896)-((J896-(J896*L896))*M896))</f>
-        <v>101936520</v>
+        <v>105383880</v>
       </c>
       <c r="S896" s="24">
         <f t="shared" si="390"/>
-        <v>91834702.702702701</v>
+        <v>94940432.432432428</v>
       </c>
     </row>
     <row r="897" spans="1:19" s="19" customFormat="1">
@@ -47377,7 +47377,7 @@
         <v>40</v>
       </c>
       <c r="E899" s="26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F899" s="22">
         <v>1</v>
@@ -47408,18 +47408,18 @@
       </c>
       <c r="P899" s="20">
         <f>(C899+(E899*F899*H899))-N899</f>
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="Q899" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R899" s="24">
         <f>P899*(J899-(J899*L899)-((J899-(J899*L899))*M899))</f>
-        <v>40087008</v>
+        <v>42573024</v>
       </c>
       <c r="S899" s="24">
         <f t="shared" si="390"/>
-        <v>36114421.621621616</v>
+        <v>38354075.675675675</v>
       </c>
     </row>
     <row r="900" spans="1:19" s="19" customFormat="1">
@@ -48284,7 +48284,7 @@
         <v>19</v>
       </c>
       <c r="E917" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F917" s="22">
         <v>1</v>
@@ -48314,18 +48314,18 @@
       </c>
       <c r="P917" s="20">
         <f t="shared" ref="P917:P929" si="441">(C917+(E917*F917*H917))-N917</f>
-        <v>1800</v>
+        <v>1920</v>
       </c>
       <c r="Q917" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R917" s="24">
         <f t="shared" ref="R917:R929" si="442">P917*(J917-(J917*L917)-((J917-(J917*L917))*M917))</f>
-        <v>19251000</v>
+        <v>20534400</v>
       </c>
       <c r="S917" s="24">
         <f t="shared" ref="S917:S929" si="443">R917/1.11</f>
-        <v>17343243.243243244</v>
+        <v>18499459.459459458</v>
       </c>
     </row>
     <row r="918" spans="1:19" s="19" customFormat="1">
@@ -48340,7 +48340,7 @@
         <v>19</v>
       </c>
       <c r="E918" s="26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F918" s="22">
         <v>1</v>
@@ -48370,18 +48370,18 @@
       </c>
       <c r="P918" s="20">
         <f t="shared" si="441"/>
-        <v>5760</v>
+        <v>6192</v>
       </c>
       <c r="Q918" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R918" s="24">
         <f t="shared" si="442"/>
-        <v>49550400</v>
+        <v>53266680</v>
       </c>
       <c r="S918" s="24">
         <f t="shared" si="443"/>
-        <v>44639999.999999993</v>
+        <v>47987999.999999993</v>
       </c>
     </row>
     <row r="919" spans="1:19" s="19" customFormat="1">
@@ -50587,7 +50587,7 @@
         <v>19</v>
       </c>
       <c r="E969" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F969" s="22">
         <v>72</v>
@@ -50619,18 +50619,18 @@
       </c>
       <c r="P969" s="20">
         <f>(C969+(E969*F969*H969))-N969</f>
-        <v>12740</v>
+        <v>14180</v>
       </c>
       <c r="Q969" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R969" s="24">
         <f>P969*(J969-(J969*L969)-((J969-(J969*L969))*M969))</f>
-        <v>39183462.5</v>
+        <v>43612362.5</v>
       </c>
       <c r="S969" s="24">
         <f t="shared" ref="S969:S1051" si="462">R969/1.11</f>
-        <v>35300416.666666664</v>
+        <v>39290416.666666664</v>
       </c>
     </row>
     <row r="970" spans="1:19" s="81" customFormat="1">
@@ -51830,7 +51830,7 @@
         <v>40</v>
       </c>
       <c r="E1000" s="101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1000" s="102">
         <v>18</v>
@@ -51863,18 +51863,18 @@
       </c>
       <c r="P1000" s="99">
         <f>(C1000+(E1000*F1000*H1000))-N1000</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q1000" s="103" t="s">
         <v>40</v>
       </c>
       <c r="R1000" s="104">
         <f>P1000*(J1000-(J1000*L1000)-((J1000-(J1000*L1000))*M1000))</f>
-        <v>2639385</v>
+        <v>3519180</v>
       </c>
       <c r="S1000" s="96">
         <f t="shared" si="462"/>
-        <v>2377824.3243243243</v>
+        <v>3170432.4324324322</v>
       </c>
     </row>
     <row r="1001" spans="1:19" s="81" customFormat="1">
@@ -52381,7 +52381,7 @@
         <v>40</v>
       </c>
       <c r="E1016" s="26">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F1016" s="22">
         <v>1</v>
@@ -52413,18 +52413,18 @@
       </c>
       <c r="P1016" s="20">
         <f t="shared" ref="P1016:P1031" si="474">(C1016+(E1016*F1016*H1016))-N1016</f>
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="Q1016" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1016" s="24">
         <f t="shared" ref="R1016:R1031" si="475">P1016*(J1016-(J1016*L1016)-((J1016-(J1016*L1016))*M1016))</f>
-        <v>43909950</v>
+        <v>58074450</v>
       </c>
       <c r="S1016" s="24">
         <f t="shared" si="462"/>
-        <v>39558513.513513513</v>
+        <v>52319324.324324317</v>
       </c>
     </row>
     <row r="1017" spans="1:19" s="88" customFormat="1">
@@ -52496,7 +52496,7 @@
         <v>40</v>
       </c>
       <c r="E1018" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1018" s="6">
         <v>1</v>
@@ -52527,18 +52527,18 @@
       </c>
       <c r="P1018" s="3">
         <f t="shared" si="474"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q1018" s="7" t="s">
         <v>40</v>
       </c>
       <c r="R1018" s="8">
         <f t="shared" si="475"/>
-        <v>5885250</v>
+        <v>8827875</v>
       </c>
       <c r="S1018" s="8">
         <f t="shared" si="462"/>
-        <v>5302027.0270270268</v>
+        <v>7953040.5405405397</v>
       </c>
     </row>
     <row r="1019" spans="1:19">
@@ -52609,7 +52609,7 @@
         <v>40</v>
       </c>
       <c r="E1020" s="26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1020" s="22">
         <v>20</v>
@@ -52641,18 +52641,18 @@
       </c>
       <c r="P1020" s="20">
         <f t="shared" si="476"/>
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="Q1020" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1020" s="24">
         <f t="shared" si="477"/>
-        <v>16758000</v>
+        <v>23740500</v>
       </c>
       <c r="S1020" s="24">
         <f t="shared" si="478"/>
-        <v>15097297.297297295</v>
+        <v>21387837.837837838</v>
       </c>
     </row>
     <row r="1021" spans="1:19" s="19" customFormat="1">
@@ -53364,7 +53364,7 @@
         <v>40</v>
       </c>
       <c r="E1034" s="26">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1034" s="22">
         <v>1</v>
@@ -53395,18 +53395,18 @@
       </c>
       <c r="P1034" s="20">
         <f t="shared" ref="P1034:P1053" si="485">(C1034+(E1034*F1034*H1034))-N1034</f>
-        <v>834</v>
+        <v>934</v>
       </c>
       <c r="Q1034" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1034" s="24">
         <f t="shared" ref="R1034:R1053" si="486">P1034*(J1034-(J1034*L1034)-((J1034-(J1034*L1034))*M1034))</f>
-        <v>64376460</v>
+        <v>72095460</v>
       </c>
       <c r="S1034" s="24">
         <f t="shared" si="462"/>
-        <v>57996810.810810804</v>
+        <v>64950864.864864856</v>
       </c>
     </row>
     <row r="1035" spans="1:19" s="19" customFormat="1">
@@ -53539,7 +53539,7 @@
         <v>40</v>
       </c>
       <c r="E1037" s="26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1037" s="22">
         <v>1</v>
@@ -53570,18 +53570,18 @@
       </c>
       <c r="P1037" s="20">
         <f t="shared" si="485"/>
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="Q1037" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1037" s="24">
         <f t="shared" si="486"/>
-        <v>21961800</v>
+        <v>27818280</v>
       </c>
       <c r="S1037" s="24">
         <f t="shared" si="462"/>
-        <v>19785405.405405402</v>
+        <v>25061513.513513513</v>
       </c>
     </row>
     <row r="1038" spans="1:19" s="19" customFormat="1">
@@ -53993,7 +53993,7 @@
         <v>40</v>
       </c>
       <c r="E1045" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1045" s="22">
         <v>1</v>
@@ -54024,18 +54024,18 @@
       </c>
       <c r="P1045" s="20">
         <f t="shared" si="485"/>
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q1045" s="23" t="s">
         <v>40</v>
       </c>
       <c r="R1045" s="24">
         <f t="shared" si="486"/>
-        <v>48634680</v>
+        <v>50527080</v>
       </c>
       <c r="S1045" s="24">
         <f t="shared" si="462"/>
-        <v>43815027.027027026</v>
+        <v>45519891.891891889</v>
       </c>
     </row>
     <row r="1046" spans="1:19" s="19" customFormat="1">
@@ -54395,7 +54395,7 @@
         <v>19</v>
       </c>
       <c r="E1052" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1052" s="22">
         <v>1</v>
@@ -54426,18 +54426,18 @@
       </c>
       <c r="P1052" s="20">
         <f t="shared" si="485"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q1052" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1052" s="24">
         <f t="shared" si="486"/>
-        <v>4601520</v>
+        <v>5438160</v>
       </c>
       <c r="S1052" s="24">
         <f t="shared" ref="S1052:S1061" si="490">R1052/1.11</f>
-        <v>4145513.5135135134</v>
+        <v>4899243.2432432426</v>
       </c>
     </row>
     <row r="1053" spans="1:19" s="72" customFormat="1">
@@ -54845,7 +54845,7 @@
         <v>98</v>
       </c>
       <c r="E1064" s="26">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F1064" s="22">
         <v>1</v>
@@ -54875,18 +54875,18 @@
       </c>
       <c r="P1064" s="20">
         <f>(C1064+(E1064*F1064*H1064))-N1064</f>
-        <v>20324</v>
+        <v>22324</v>
       </c>
       <c r="Q1064" s="23" t="s">
         <v>98</v>
       </c>
       <c r="R1064" s="24">
         <f>P1064*(J1064-(J1064*L1064)-((J1064-(J1064*L1064))*M1064))</f>
-        <v>256082400</v>
+        <v>281282400</v>
       </c>
       <c r="S1064" s="24">
         <f t="shared" ref="S1064:S1168" si="491">R1064/1.11</f>
-        <v>230704864.86486486</v>
+        <v>253407567.56756756</v>
       </c>
     </row>
     <row r="1065" spans="1:19" s="19" customFormat="1">
@@ -55811,7 +55811,7 @@
         <v>33</v>
       </c>
       <c r="E1088" s="26">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F1088" s="22">
         <v>1</v>
@@ -55843,18 +55843,18 @@
       </c>
       <c r="P1088" s="20">
         <f t="shared" si="496"/>
-        <v>6293</v>
+        <v>6793</v>
       </c>
       <c r="Q1088" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1088" s="24">
         <f t="shared" si="497"/>
-        <v>178379018.125</v>
+        <v>192551830.625</v>
       </c>
       <c r="S1088" s="8">
         <f t="shared" si="491"/>
-        <v>160701818.13063061</v>
+        <v>173470117.68018016</v>
       </c>
     </row>
     <row r="1089" spans="1:19" s="19" customFormat="1">
@@ -55871,7 +55871,7 @@
         <v>33</v>
       </c>
       <c r="E1089" s="26">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F1089" s="22">
         <v>1</v>
@@ -55903,18 +55903,18 @@
       </c>
       <c r="P1089" s="20">
         <f t="shared" si="496"/>
-        <v>1950</v>
+        <v>2200</v>
       </c>
       <c r="Q1089" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1089" s="24">
         <f t="shared" si="497"/>
-        <v>55273968.75</v>
+        <v>62360375</v>
       </c>
       <c r="S1089" s="24">
         <f t="shared" si="491"/>
-        <v>49796368.24324324</v>
+        <v>56180518.018018015</v>
       </c>
     </row>
     <row r="1090" spans="1:19" s="19" customFormat="1">
@@ -55931,7 +55931,7 @@
         <v>33</v>
       </c>
       <c r="E1090" s="26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F1090" s="22">
         <v>1</v>
@@ -55963,18 +55963,18 @@
       </c>
       <c r="P1090" s="20">
         <f t="shared" si="496"/>
-        <v>1013</v>
+        <v>1263</v>
       </c>
       <c r="Q1090" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1090" s="24">
         <f t="shared" si="497"/>
-        <v>26945800</v>
+        <v>33595800</v>
       </c>
       <c r="S1090" s="24">
         <f t="shared" si="491"/>
-        <v>24275495.495495494</v>
+        <v>30266486.486486483</v>
       </c>
     </row>
     <row r="1091" spans="1:19" s="98" customFormat="1">
@@ -55989,7 +55989,7 @@
         <v>33</v>
       </c>
       <c r="E1091" s="101">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1091" s="102">
         <v>1</v>
@@ -56021,18 +56021,18 @@
       </c>
       <c r="P1091" s="99">
         <f t="shared" si="496"/>
-        <v>2350</v>
+        <v>2600</v>
       </c>
       <c r="Q1091" s="103" t="s">
         <v>33</v>
       </c>
       <c r="R1091" s="104">
         <f t="shared" si="497"/>
-        <v>62510000</v>
+        <v>69160000</v>
       </c>
       <c r="S1091" s="96">
         <f t="shared" si="491"/>
-        <v>56315315.315315314</v>
+        <v>62306306.306306303</v>
       </c>
     </row>
     <row r="1092" spans="1:19">
@@ -56161,7 +56161,7 @@
         <v>33</v>
       </c>
       <c r="E1094" s="26">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F1094" s="22">
         <v>1</v>
@@ -56193,18 +56193,18 @@
       </c>
       <c r="P1094" s="20">
         <f t="shared" si="496"/>
-        <v>7417</v>
+        <v>8267</v>
       </c>
       <c r="Q1094" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1094" s="24">
         <f t="shared" si="497"/>
-        <v>174480289.375</v>
+        <v>194476008.125</v>
       </c>
       <c r="S1094" s="24">
         <f t="shared" si="491"/>
-        <v>157189449.88738737</v>
+        <v>175203610.92342341</v>
       </c>
     </row>
     <row r="1095" spans="1:19" s="19" customFormat="1">
@@ -56221,7 +56221,7 @@
         <v>33</v>
       </c>
       <c r="E1095" s="26">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1095" s="22">
         <v>1</v>
@@ -56253,18 +56253,18 @@
       </c>
       <c r="P1095" s="20">
         <f t="shared" si="496"/>
-        <v>2050</v>
+        <v>2450</v>
       </c>
       <c r="Q1095" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1095" s="24">
         <f t="shared" si="497"/>
-        <v>48224968.75</v>
+        <v>57634718.75</v>
       </c>
       <c r="S1095" s="24">
         <f t="shared" si="491"/>
-        <v>43445917.79279279</v>
+        <v>51923170.045045041</v>
       </c>
     </row>
     <row r="1096" spans="1:19" s="88" customFormat="1">
@@ -56398,7 +56398,7 @@
         <v>33</v>
       </c>
       <c r="E1099" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1099" s="22">
         <v>1</v>
@@ -56429,18 +56429,18 @@
       </c>
       <c r="P1099" s="20">
         <f t="shared" ref="P1099:P1104" si="503">(C1099+(E1099*F1099*H1099))-N1099</f>
-        <v>1051</v>
+        <v>1151</v>
       </c>
       <c r="Q1099" s="23" t="s">
         <v>33</v>
       </c>
       <c r="R1099" s="24">
         <f t="shared" ref="R1099:R1104" si="504">P1099*(J1099-(J1099*L1099)-((J1099-(J1099*L1099))*M1099))</f>
-        <v>26169900</v>
+        <v>28659900</v>
       </c>
       <c r="S1099" s="24">
         <f t="shared" si="491"/>
-        <v>23576486.486486483</v>
+        <v>25819729.729729727</v>
       </c>
     </row>
     <row r="1100" spans="1:19" s="19" customFormat="1">
@@ -58092,7 +58092,7 @@
         <v>19</v>
       </c>
       <c r="E1144" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1144" s="22">
         <v>1</v>
@@ -58124,18 +58124,18 @@
       </c>
       <c r="P1144" s="20">
         <f t="shared" ref="P1144" si="515">(C1144+(E1144*F1144*H1144))-N1144</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="Q1144" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1144" s="24">
         <f t="shared" ref="R1144" si="516">P1144*(J1144-(J1144*L1144)-((J1144-(J1144*L1144))*M1144))</f>
-        <v>1346625</v>
+        <v>2244375</v>
       </c>
       <c r="S1144" s="24">
         <f>R1144/1.11</f>
-        <v>1213175.6756756755</v>
+        <v>2021959.4594594592</v>
       </c>
     </row>
     <row r="1145" spans="1:19" s="19" customFormat="1">
@@ -58208,7 +58208,7 @@
         <v>19</v>
       </c>
       <c r="E1146" s="26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1146" s="22">
         <v>1</v>
@@ -58240,18 +58240,18 @@
       </c>
       <c r="P1146" s="20">
         <f t="shared" si="517"/>
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="Q1146" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1146" s="24">
         <f t="shared" si="518"/>
-        <v>6643350</v>
+        <v>7086240</v>
       </c>
       <c r="S1146" s="24">
         <f t="shared" si="519"/>
-        <v>5984999.9999999991</v>
+        <v>6383999.9999999991</v>
       </c>
     </row>
     <row r="1147" spans="1:19" s="19" customFormat="1">
@@ -58266,7 +58266,7 @@
         <v>19</v>
       </c>
       <c r="E1147" s="26">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1147" s="22">
         <v>1</v>
@@ -58298,18 +58298,18 @@
       </c>
       <c r="P1147" s="20">
         <f t="shared" ref="P1147:P1158" si="520">(C1147+(E1147*F1147*H1147))-N1147</f>
-        <v>1560</v>
+        <v>1608</v>
       </c>
       <c r="Q1147" s="23" t="s">
         <v>19</v>
       </c>
       <c r="R1147" s="24">
         <f t="shared" ref="R1147:R1158" si="521">P1147*(J1147-(J1147*L1147)-((J1147-(J1147*L1147))*M1147))</f>
-        <v>24638250</v>
+        <v>25396350</v>
       </c>
       <c r="S1147" s="24">
         <f t="shared" si="491"/>
-        <v>22196621.62162162</v>
+        <v>22879594.594594594</v>
       </c>
     </row>
     <row r="1148" spans="1:19" s="19" customFormat="1">
@@ -58846,7 +58846,7 @@
         <v>19</v>
       </c>
       <c r="E1157" s="75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1157" s="76">
         <v>1</v>
@@ -58878,18 +58878,18 @@
       </c>
       <c r="P1157" s="73">
         <f t="shared" si="520"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="Q1157" s="77" t="s">
         <v>19</v>
       </c>
       <c r="R1157" s="16">
         <f t="shared" si="521"/>
-        <v>817950</v>
+        <v>2453850</v>
       </c>
       <c r="S1157" s="16">
         <f t="shared" si="491"/>
-        <v>736891.89189189184</v>
+        <v>2210675.6756756753</v>
       </c>
     </row>
     <row r="1158" spans="1:19">
@@ -59413,7 +59413,9 @@
       <c r="D1168" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E1168" s="75"/>
+      <c r="E1168" s="75">
+        <v>1</v>
+      </c>
       <c r="F1168" s="76">
         <v>8</v>
       </c>
@@ -59443,18 +59445,18 @@
       </c>
       <c r="P1168" s="73">
         <f t="shared" si="530"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Q1168" s="77" t="s">
         <v>19</v>
       </c>
       <c r="R1168" s="16">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>1752960</v>
       </c>
       <c r="S1168" s="16">
         <f t="shared" si="491"/>
-        <v>0</v>
+        <v>1579243.2432432431</v>
       </c>
     </row>
     <row r="1169" spans="1:19">
@@ -59935,11 +59937,11 @@
     <row r="1191" spans="10:21" ht="16.5">
       <c r="R1191" s="27">
         <f>SUM(R6:R1179)</f>
-        <v>14305716767.349998</v>
+        <v>15316631350.474998</v>
       </c>
       <c r="S1191" s="27">
         <f>SUM(S6:S1179)</f>
-        <v>12888033123.738747</v>
+        <v>13798766982.409922</v>
       </c>
       <c r="U1191" s="8"/>
     </row>
